--- a/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
@@ -6111,10 +6111,8 @@
           <t>جمع درآمد ارائه خدمات</t>
         </is>
       </c>
-      <c r="C29" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C29" s="17">
+        <v/>
       </c>
       <c r="D29" s="17">
         <v/>
@@ -11657,10 +11655,8 @@
           <t>جمع درآمد ارائه خدمات</t>
         </is>
       </c>
-      <c r="C55" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C55" s="17">
+        <v/>
       </c>
       <c r="D55" s="17">
         <v/>
@@ -12029,10 +12025,8 @@
           <t>جمع برگشت از فروش</t>
         </is>
       </c>
-      <c r="C57" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C57" s="17">
+        <v/>
       </c>
       <c r="D57" s="17">
         <v/>

--- a/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2A54CE-1E93-4CA3-9BC3-25AB2023B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F295B-7254-4705-88A2-56CEDAD86F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -187,6 +181,12 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -202,22 +202,22 @@
     <t>سیمان</t>
   </si>
   <si>
-    <t>سیمان تیپ 2-فله</t>
-  </si>
-  <si>
     <t>سیمان تیپ 2-پاکتی</t>
   </si>
   <si>
     <t>سیمان تیپ 5-پاکتی</t>
   </si>
   <si>
-    <t>سیمان تیپ 5-فله</t>
-  </si>
-  <si>
     <t>سیمان و کلینکر</t>
   </si>
   <si>
     <t>سیمان وکلینکر داخلی</t>
+  </si>
+  <si>
+    <t>سیمان2فله</t>
+  </si>
+  <si>
+    <t>سیمان 5فله</t>
   </si>
   <si>
     <t>جمع تولید داخلی</t>
@@ -229,16 +229,10 @@
     <t>سیمان وکلینکر صادراتی</t>
   </si>
   <si>
-    <t>سیمان2فله -</t>
+    <t>کلینکر2</t>
   </si>
   <si>
-    <t>سیمان 5فله -</t>
-  </si>
-  <si>
-    <t>کلینکر2-</t>
-  </si>
-  <si>
-    <t>کلینکر5-</t>
+    <t>کلینکر5</t>
   </si>
   <si>
     <t>جمع تولید خارجی</t>
@@ -1525,95 +1519,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>160871</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>218937</v>
       </c>
       <c r="AA11" s="11">
-        <v>160871</v>
+        <v>233379</v>
       </c>
       <c r="AB11" s="11">
-        <v>218937</v>
+        <v>198862</v>
       </c>
       <c r="AC11" s="11">
-        <v>233379</v>
+        <v>206822</v>
       </c>
       <c r="AD11" s="11">
-        <v>198862</v>
+        <v>197338</v>
       </c>
       <c r="AE11" s="11">
-        <v>206822</v>
+        <v>184979</v>
       </c>
       <c r="AF11" s="11">
-        <v>197338</v>
+        <v>195928</v>
       </c>
       <c r="AG11" s="11">
-        <v>184979</v>
+        <v>229622</v>
       </c>
       <c r="AH11" s="11">
-        <v>195928</v>
+        <v>207845</v>
       </c>
       <c r="AI11" s="11">
-        <v>229622</v>
+        <v>199773</v>
       </c>
       <c r="AJ11" s="11">
-        <v>207845</v>
+        <v>216943</v>
       </c>
       <c r="AK11" s="11">
-        <v>199773</v>
+        <v>70917</v>
       </c>
       <c r="AL11" s="11">
-        <v>216943</v>
+        <v>177576</v>
       </c>
       <c r="AM11" s="11">
-        <v>70917</v>
+        <v>230670</v>
       </c>
       <c r="AN11" s="11">
-        <v>177576</v>
+        <v>222266</v>
       </c>
       <c r="AO11" s="11">
-        <v>230670</v>
+        <v>221725</v>
       </c>
       <c r="AP11" s="11">
-        <v>222266</v>
+        <v>223845</v>
       </c>
       <c r="AQ11" s="11">
-        <v>221725</v>
+        <v>216540</v>
       </c>
       <c r="AR11" s="11">
-        <v>223845</v>
+        <v>173373</v>
       </c>
       <c r="AS11" s="11">
-        <v>216540</v>
+        <v>167997</v>
       </c>
       <c r="AT11" s="11">
-        <v>173373</v>
+        <v>215825</v>
       </c>
       <c r="AU11" s="11">
-        <v>167997</v>
+        <v>187895</v>
       </c>
       <c r="AV11" s="11">
-        <v>215825</v>
+        <v>187170</v>
       </c>
       <c r="AW11" s="11">
-        <v>187895</v>
+        <v>193920</v>
       </c>
       <c r="AX11" s="11">
-        <v>187170</v>
+        <v>166810</v>
       </c>
       <c r="AY11" s="11">
-        <v>193920</v>
+        <v>213003</v>
       </c>
       <c r="AZ11" s="11">
-        <v>166810</v>
+        <v>206175</v>
       </c>
       <c r="BA11" s="11">
-        <v>213003</v>
+        <v>218421</v>
       </c>
       <c r="BB11" s="11">
-        <v>206175</v>
+        <v>233530</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1684,95 +1678,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>138611</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>137448</v>
       </c>
       <c r="AA12" s="13">
-        <v>138611</v>
+        <v>165319</v>
       </c>
       <c r="AB12" s="13">
-        <v>137448</v>
+        <v>148209</v>
       </c>
       <c r="AC12" s="13">
-        <v>165319</v>
+        <v>193078</v>
       </c>
       <c r="AD12" s="13">
-        <v>148209</v>
+        <v>123270</v>
       </c>
       <c r="AE12" s="13">
-        <v>193078</v>
+        <v>137075</v>
       </c>
       <c r="AF12" s="13">
-        <v>123270</v>
+        <v>170809</v>
       </c>
       <c r="AG12" s="13">
-        <v>137075</v>
+        <v>169566</v>
       </c>
       <c r="AH12" s="13">
-        <v>170809</v>
+        <v>121106</v>
       </c>
       <c r="AI12" s="13">
-        <v>169566</v>
+        <v>127014</v>
       </c>
       <c r="AJ12" s="13">
-        <v>121106</v>
+        <v>124468</v>
       </c>
       <c r="AK12" s="13">
-        <v>127014</v>
+        <v>92253</v>
       </c>
       <c r="AL12" s="13">
-        <v>124468</v>
+        <v>116609</v>
       </c>
       <c r="AM12" s="13">
-        <v>92253</v>
+        <v>183389</v>
       </c>
       <c r="AN12" s="13">
-        <v>116609</v>
+        <v>165271</v>
       </c>
       <c r="AO12" s="13">
-        <v>183389</v>
+        <v>176681</v>
       </c>
       <c r="AP12" s="13">
-        <v>165271</v>
+        <v>191349</v>
       </c>
       <c r="AQ12" s="13">
-        <v>176681</v>
+        <v>162860</v>
       </c>
       <c r="AR12" s="13">
-        <v>191349</v>
+        <v>140080</v>
       </c>
       <c r="AS12" s="13">
-        <v>162860</v>
+        <v>142800</v>
       </c>
       <c r="AT12" s="13">
-        <v>140080</v>
+        <v>166445</v>
       </c>
       <c r="AU12" s="13">
-        <v>142800</v>
+        <v>144696</v>
       </c>
       <c r="AV12" s="13">
-        <v>166445</v>
+        <v>126349</v>
       </c>
       <c r="AW12" s="13">
-        <v>144696</v>
+        <v>139954</v>
       </c>
       <c r="AX12" s="13">
-        <v>126349</v>
+        <v>73028</v>
       </c>
       <c r="AY12" s="13">
-        <v>139954</v>
+        <v>177939</v>
       </c>
       <c r="AZ12" s="13">
-        <v>73028</v>
+        <v>157258</v>
       </c>
       <c r="BA12" s="13">
-        <v>177939</v>
+        <v>195423</v>
       </c>
       <c r="BB12" s="13">
-        <v>157258</v>
+        <v>212086</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1906,17 +1900,17 @@
       <c r="AS13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
         <v>0</v>
@@ -2065,17 +2059,17 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>0</v>
       </c>
       <c r="AX14" s="13">
         <v>0</v>
@@ -2161,32 +2155,32 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>0</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2236,20 +2230,20 @@
       <c r="AW15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="11">
-        <v>0</v>
+      <c r="AX15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB15" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2347,8 +2341,8 @@
       <c r="AG16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="13" t="s">
-        <v>58</v>
+      <c r="AH16" s="13">
+        <v>0</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2395,20 +2389,20 @@
       <c r="AW16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="13">
-        <v>0</v>
+      <c r="AX16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB16" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2485,32 +2479,32 @@
       <c r="Z17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AA17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2542,32 +2536,32 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2671,8 +2665,8 @@
       <c r="AI18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>58</v>
@@ -2701,32 +2695,32 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2796,94 +2790,94 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>299482</v>
       </c>
       <c r="Z19" s="15">
-        <v>0</v>
+        <v>356385</v>
       </c>
       <c r="AA19" s="15">
-        <v>299482</v>
+        <v>398698</v>
       </c>
       <c r="AB19" s="15">
-        <v>356385</v>
+        <v>347071</v>
       </c>
       <c r="AC19" s="15">
-        <v>398698</v>
+        <v>399900</v>
       </c>
       <c r="AD19" s="15">
-        <v>347071</v>
+        <v>320608</v>
       </c>
       <c r="AE19" s="15">
-        <v>399900</v>
+        <v>322054</v>
       </c>
       <c r="AF19" s="15">
-        <v>320608</v>
+        <v>366737</v>
       </c>
       <c r="AG19" s="15">
-        <v>322054</v>
+        <v>399188</v>
       </c>
       <c r="AH19" s="15">
-        <v>366737</v>
+        <v>328951</v>
       </c>
       <c r="AI19" s="15">
-        <v>399188</v>
+        <v>326787</v>
       </c>
       <c r="AJ19" s="15">
-        <v>328951</v>
+        <v>341411</v>
       </c>
       <c r="AK19" s="15">
-        <v>326787</v>
+        <v>163170</v>
       </c>
       <c r="AL19" s="15">
-        <v>341411</v>
+        <v>294185</v>
       </c>
       <c r="AM19" s="15">
-        <v>163170</v>
+        <v>414059</v>
       </c>
       <c r="AN19" s="15">
-        <v>294185</v>
+        <v>387537</v>
       </c>
       <c r="AO19" s="15">
-        <v>414059</v>
+        <v>398406</v>
       </c>
       <c r="AP19" s="15">
-        <v>387537</v>
+        <v>415194</v>
       </c>
       <c r="AQ19" s="15">
-        <v>398406</v>
+        <v>379400</v>
       </c>
       <c r="AR19" s="15">
-        <v>415194</v>
+        <v>313453</v>
       </c>
       <c r="AS19" s="15">
-        <v>379400</v>
+        <v>310797</v>
       </c>
       <c r="AT19" s="15">
-        <v>313453</v>
+        <v>382270</v>
       </c>
       <c r="AU19" s="15">
-        <v>310797</v>
+        <v>332591</v>
       </c>
       <c r="AV19" s="15">
-        <v>382270</v>
+        <v>313519</v>
       </c>
       <c r="AW19" s="15">
-        <v>332591</v>
+        <v>333874</v>
       </c>
       <c r="AX19" s="15">
-        <v>313519</v>
+        <v>239838</v>
       </c>
       <c r="AY19" s="15">
-        <v>333874</v>
+        <v>390942</v>
       </c>
       <c r="AZ19" s="15">
-        <v>239838</v>
+        <v>363433</v>
       </c>
       <c r="BA19" s="15">
-        <v>390942</v>
+        <v>413844</v>
       </c>
       <c r="BB19" s="15">
-        <v>363433</v>
+        <v>445616</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2945,7 +2939,7 @@
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>57</v>
@@ -3011,11 +3005,11 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>0</v>
       </c>
       <c r="AA21" s="11">
         <v>0</v>
@@ -3038,11 +3032,11 @@
       <c r="AG21" s="11">
         <v>0</v>
       </c>
-      <c r="AH21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>0</v>
+      <c r="AH21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="11" t="s">
         <v>58</v>
@@ -3197,14 +3191,14 @@
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
+      <c r="AH22" s="13">
+        <v>0</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ22" s="13">
-        <v>0</v>
+      <c r="AJ22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="13" t="s">
         <v>58</v>
@@ -3263,7 +3257,7 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>57</v>
@@ -3392,17 +3386,17 @@
       <c r="AS23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW23" s="11" t="s">
-        <v>58</v>
+      <c r="AT23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>0</v>
       </c>
       <c r="AX23" s="11">
         <v>0</v>
@@ -3422,7 +3416,7 @@
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>57</v>
@@ -3551,17 +3545,17 @@
       <c r="AS24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW24" s="13" t="s">
-        <v>58</v>
+      <c r="AT24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="13">
+        <v>0</v>
       </c>
       <c r="AX24" s="13">
         <v>0</v>
@@ -3581,7 +3575,7 @@
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>57</v>
@@ -3710,17 +3704,17 @@
       <c r="AS25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW25" s="11" t="s">
-        <v>58</v>
+      <c r="AT25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>0</v>
       </c>
       <c r="AX25" s="11">
         <v>0</v>
@@ -3740,7 +3734,7 @@
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>57</v>
@@ -3869,17 +3863,17 @@
       <c r="AS26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW26" s="13" t="s">
-        <v>58</v>
+      <c r="AT26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="13">
+        <v>0</v>
       </c>
       <c r="AX26" s="13">
         <v>0</v>
@@ -3899,7 +3893,7 @@
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4056,7 +4050,7 @@
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -4113,7 +4107,7 @@
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -4177,11 +4171,11 @@
       <c r="X29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>58</v>
+      <c r="Y29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>0</v>
       </c>
       <c r="AA29" s="15">
         <v>0</v>
@@ -4270,7 +4264,7 @@
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4335,94 +4329,94 @@
         <v>0</v>
       </c>
       <c r="Y30" s="19">
-        <v>0</v>
+        <v>299482</v>
       </c>
       <c r="Z30" s="19">
-        <v>0</v>
+        <v>356385</v>
       </c>
       <c r="AA30" s="19">
-        <v>299482</v>
+        <v>398698</v>
       </c>
       <c r="AB30" s="19">
-        <v>356385</v>
+        <v>347071</v>
       </c>
       <c r="AC30" s="19">
-        <v>398698</v>
+        <v>399900</v>
       </c>
       <c r="AD30" s="19">
-        <v>347071</v>
+        <v>320608</v>
       </c>
       <c r="AE30" s="19">
-        <v>399900</v>
+        <v>322054</v>
       </c>
       <c r="AF30" s="19">
-        <v>320608</v>
+        <v>366737</v>
       </c>
       <c r="AG30" s="19">
-        <v>322054</v>
+        <v>399188</v>
       </c>
       <c r="AH30" s="19">
-        <v>366737</v>
+        <v>328951</v>
       </c>
       <c r="AI30" s="19">
-        <v>399188</v>
+        <v>326787</v>
       </c>
       <c r="AJ30" s="19">
-        <v>328951</v>
+        <v>341411</v>
       </c>
       <c r="AK30" s="19">
-        <v>326787</v>
+        <v>163170</v>
       </c>
       <c r="AL30" s="19">
-        <v>341411</v>
+        <v>294185</v>
       </c>
       <c r="AM30" s="19">
-        <v>163170</v>
+        <v>414059</v>
       </c>
       <c r="AN30" s="19">
-        <v>294185</v>
+        <v>387537</v>
       </c>
       <c r="AO30" s="19">
-        <v>414059</v>
+        <v>398406</v>
       </c>
       <c r="AP30" s="19">
-        <v>387537</v>
+        <v>415194</v>
       </c>
       <c r="AQ30" s="19">
-        <v>398406</v>
+        <v>379400</v>
       </c>
       <c r="AR30" s="19">
-        <v>415194</v>
+        <v>313453</v>
       </c>
       <c r="AS30" s="19">
-        <v>379400</v>
+        <v>310797</v>
       </c>
       <c r="AT30" s="19">
-        <v>313453</v>
+        <v>382270</v>
       </c>
       <c r="AU30" s="19">
-        <v>310797</v>
+        <v>332591</v>
       </c>
       <c r="AV30" s="19">
-        <v>382270</v>
+        <v>313519</v>
       </c>
       <c r="AW30" s="19">
-        <v>332591</v>
+        <v>333874</v>
       </c>
       <c r="AX30" s="19">
-        <v>313519</v>
+        <v>239838</v>
       </c>
       <c r="AY30" s="19">
-        <v>333874</v>
+        <v>390942</v>
       </c>
       <c r="AZ30" s="19">
-        <v>239838</v>
+        <v>363433</v>
       </c>
       <c r="BA30" s="19">
-        <v>390942</v>
+        <v>413844</v>
       </c>
       <c r="BB30" s="19">
-        <v>363433</v>
+        <v>445616</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4592,7 +4586,7 @@
     </row>
     <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -4804,7 +4798,7 @@
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4927,11 +4921,11 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>0</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
@@ -4957,20 +4951,20 @@
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="11" t="s">
-        <v>58</v>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>0</v>
       </c>
       <c r="AL37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM37" s="11">
-        <v>0</v>
+      <c r="AM37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN37" s="11" t="s">
         <v>58</v>
@@ -4990,17 +4984,17 @@
       <c r="AS37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW37" s="11" t="s">
-        <v>58</v>
+      <c r="AT37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="11">
+        <v>0</v>
       </c>
       <c r="AX37" s="11">
         <v>0</v>
@@ -5086,11 +5080,11 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>0</v>
       </c>
       <c r="AA38" s="13">
         <v>0</v>
@@ -5116,11 +5110,11 @@
       <c r="AH38" s="13">
         <v>0</v>
       </c>
-      <c r="AI38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK38" s="13" t="s">
         <v>58</v>
@@ -5149,17 +5143,17 @@
       <c r="AS38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW38" s="13" t="s">
-        <v>58</v>
+      <c r="AT38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="13">
+        <v>0</v>
       </c>
       <c r="AX38" s="13">
         <v>0</v>
@@ -5308,32 +5302,32 @@
       <c r="AS39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU39" s="11" t="s">
-        <v>58</v>
+      <c r="AT39" s="11">
+        <v>2783</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>4918</v>
       </c>
       <c r="AV39" s="11">
-        <v>43543</v>
+        <v>5808</v>
       </c>
       <c r="AW39" s="11">
-        <v>44358</v>
+        <v>5699</v>
       </c>
       <c r="AX39" s="11">
-        <v>42874</v>
+        <v>2345</v>
       </c>
       <c r="AY39" s="11">
-        <v>43965</v>
+        <v>5832</v>
       </c>
       <c r="AZ39" s="11">
-        <v>33802</v>
+        <v>13977</v>
       </c>
       <c r="BA39" s="11">
-        <v>40313</v>
+        <v>8513</v>
       </c>
       <c r="BB39" s="11">
-        <v>30011</v>
+        <v>10606</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5467,32 +5461,32 @@
       <c r="AS40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU40" s="13" t="s">
-        <v>58</v>
+      <c r="AT40" s="13">
+        <v>50189</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>58213</v>
       </c>
       <c r="AV40" s="13">
-        <v>2783</v>
+        <v>50533</v>
       </c>
       <c r="AW40" s="13">
-        <v>4918</v>
+        <v>62394</v>
       </c>
       <c r="AX40" s="13">
-        <v>5808</v>
+        <v>39837</v>
       </c>
       <c r="AY40" s="13">
-        <v>5699</v>
+        <v>57218</v>
       </c>
       <c r="AZ40" s="13">
-        <v>2345</v>
+        <v>53208</v>
       </c>
       <c r="BA40" s="13">
-        <v>5832</v>
+        <v>75630</v>
       </c>
       <c r="BB40" s="13">
-        <v>13977</v>
+        <v>72030</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5563,32 +5557,32 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>137751</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>83863</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>109532</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>124500</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>155260</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>119168</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>129264</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>107491</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>139490</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>58</v>
@@ -5632,26 +5626,26 @@
       <c r="AU41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV41" s="11">
-        <v>50189</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>58213</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>50533</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>62394</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>39837</v>
-      </c>
-      <c r="BA41" s="11">
-        <v>57218</v>
-      </c>
-      <c r="BB41" s="11">
-        <v>53208</v>
+      <c r="AV41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB41" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5749,41 +5743,41 @@
       <c r="AG42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="13" t="s">
-        <v>58</v>
+      <c r="AH42" s="13">
+        <v>88925</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>130220</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>122962</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>55575</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>96042</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>137362</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>129027</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>146476</v>
+      </c>
+      <c r="AP42" s="13">
+        <v>133770</v>
+      </c>
+      <c r="AQ42" s="13">
+        <v>114993</v>
+      </c>
+      <c r="AR42" s="13">
+        <v>120925</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>112059</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>58</v>
@@ -5791,26 +5785,26 @@
       <c r="AU42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV42" s="13">
-        <v>7836</v>
-      </c>
-      <c r="AW42" s="13">
-        <v>13046</v>
-      </c>
-      <c r="AX42" s="13">
-        <v>16474</v>
-      </c>
-      <c r="AY42" s="13">
-        <v>12446</v>
-      </c>
-      <c r="AZ42" s="13">
-        <v>10273</v>
-      </c>
-      <c r="BA42" s="13">
-        <v>21767</v>
-      </c>
-      <c r="BB42" s="13">
-        <v>29005</v>
+      <c r="AV42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB42" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5887,32 +5881,32 @@
       <c r="Z43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="11">
-        <v>137751</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>83863</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>109532</v>
-      </c>
-      <c r="AD43" s="11">
-        <v>124500</v>
-      </c>
-      <c r="AE43" s="11">
-        <v>155260</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>119168</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>129264</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>107491</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>139490</v>
+      <c r="AA43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ43" s="11" t="s">
         <v>58</v>
@@ -5944,32 +5938,32 @@
       <c r="AS43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB43" s="11" t="s">
-        <v>58</v>
+      <c r="AT43" s="11">
+        <v>43543</v>
+      </c>
+      <c r="AU43" s="11">
+        <v>44358</v>
+      </c>
+      <c r="AV43" s="11">
+        <v>42874</v>
+      </c>
+      <c r="AW43" s="11">
+        <v>43965</v>
+      </c>
+      <c r="AX43" s="11">
+        <v>33802</v>
+      </c>
+      <c r="AY43" s="11">
+        <v>40313</v>
+      </c>
+      <c r="AZ43" s="11">
+        <v>30011</v>
+      </c>
+      <c r="BA43" s="11">
+        <v>41529</v>
+      </c>
+      <c r="BB43" s="11">
+        <v>54046</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6073,67 +6067,67 @@
       <c r="AI44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ44" s="13">
-        <v>88925</v>
-      </c>
-      <c r="AK44" s="13">
-        <v>130220</v>
-      </c>
-      <c r="AL44" s="13">
-        <v>122962</v>
-      </c>
-      <c r="AM44" s="13">
-        <v>55575</v>
-      </c>
-      <c r="AN44" s="13">
-        <v>96042</v>
-      </c>
-      <c r="AO44" s="13">
-        <v>137362</v>
-      </c>
-      <c r="AP44" s="13">
-        <v>129027</v>
-      </c>
-      <c r="AQ44" s="13">
-        <v>146476</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>133770</v>
-      </c>
-      <c r="AS44" s="13">
-        <v>114993</v>
+      <c r="AJ44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT44" s="13">
-        <v>120925</v>
+        <v>7836</v>
       </c>
       <c r="AU44" s="13">
-        <v>112059</v>
-      </c>
-      <c r="AV44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB44" s="13" t="s">
-        <v>58</v>
+        <v>13046</v>
+      </c>
+      <c r="AV44" s="13">
+        <v>16474</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>12446</v>
+      </c>
+      <c r="AX44" s="13">
+        <v>10273</v>
+      </c>
+      <c r="AY44" s="13">
+        <v>21767</v>
+      </c>
+      <c r="AZ44" s="13">
+        <v>29005</v>
+      </c>
+      <c r="BA44" s="13">
+        <v>17357</v>
+      </c>
+      <c r="BB44" s="13">
+        <v>19609</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -6198,99 +6192,99 @@
         <v>0</v>
       </c>
       <c r="Y45" s="15">
-        <v>0</v>
+        <v>137751</v>
       </c>
       <c r="Z45" s="15">
-        <v>0</v>
+        <v>83863</v>
       </c>
       <c r="AA45" s="15">
-        <v>137751</v>
+        <v>109532</v>
       </c>
       <c r="AB45" s="15">
-        <v>83863</v>
+        <v>124500</v>
       </c>
       <c r="AC45" s="15">
-        <v>109532</v>
+        <v>155260</v>
       </c>
       <c r="AD45" s="15">
-        <v>124500</v>
+        <v>119168</v>
       </c>
       <c r="AE45" s="15">
-        <v>155260</v>
+        <v>129264</v>
       </c>
       <c r="AF45" s="15">
-        <v>119168</v>
+        <v>107491</v>
       </c>
       <c r="AG45" s="15">
-        <v>129264</v>
+        <v>139490</v>
       </c>
       <c r="AH45" s="15">
-        <v>107491</v>
+        <v>88925</v>
       </c>
       <c r="AI45" s="15">
-        <v>139490</v>
+        <v>130220</v>
       </c>
       <c r="AJ45" s="15">
-        <v>88925</v>
+        <v>122962</v>
       </c>
       <c r="AK45" s="15">
-        <v>130220</v>
+        <v>55575</v>
       </c>
       <c r="AL45" s="15">
-        <v>122962</v>
+        <v>96042</v>
       </c>
       <c r="AM45" s="15">
-        <v>55575</v>
+        <v>137362</v>
       </c>
       <c r="AN45" s="15">
-        <v>96042</v>
+        <v>129027</v>
       </c>
       <c r="AO45" s="15">
-        <v>137362</v>
+        <v>146476</v>
       </c>
       <c r="AP45" s="15">
-        <v>129027</v>
+        <v>133770</v>
       </c>
       <c r="AQ45" s="15">
-        <v>146476</v>
+        <v>114993</v>
       </c>
       <c r="AR45" s="15">
-        <v>133770</v>
+        <v>120925</v>
       </c>
       <c r="AS45" s="15">
-        <v>114993</v>
+        <v>112059</v>
       </c>
       <c r="AT45" s="15">
-        <v>120925</v>
+        <v>104351</v>
       </c>
       <c r="AU45" s="15">
-        <v>112059</v>
+        <v>120535</v>
       </c>
       <c r="AV45" s="15">
-        <v>104351</v>
+        <v>115689</v>
       </c>
       <c r="AW45" s="15">
-        <v>120535</v>
+        <v>124504</v>
       </c>
       <c r="AX45" s="15">
-        <v>115689</v>
+        <v>86257</v>
       </c>
       <c r="AY45" s="15">
-        <v>124504</v>
+        <v>125130</v>
       </c>
       <c r="AZ45" s="15">
-        <v>86257</v>
+        <v>126201</v>
       </c>
       <c r="BA45" s="15">
-        <v>125130</v>
+        <v>143029</v>
       </c>
       <c r="BB45" s="15">
-        <v>126201</v>
+        <v>156291</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -6347,7 +6341,7 @@
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>57</v>
@@ -6413,38 +6407,38 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>84355</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>166398</v>
       </c>
       <c r="AA47" s="11">
-        <v>84355</v>
+        <v>125909</v>
       </c>
       <c r="AB47" s="11">
-        <v>166398</v>
+        <v>60458</v>
       </c>
       <c r="AC47" s="11">
-        <v>125909</v>
+        <v>76382</v>
       </c>
       <c r="AD47" s="11">
-        <v>60458</v>
+        <v>87816</v>
       </c>
       <c r="AE47" s="11">
-        <v>76382</v>
+        <v>68042</v>
       </c>
       <c r="AF47" s="11">
-        <v>87816</v>
+        <v>88671</v>
       </c>
       <c r="AG47" s="11">
-        <v>68042</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>88671</v>
-      </c>
-      <c r="AI47" s="11">
         <v>133759</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ47" s="11" t="s">
         <v>58</v>
@@ -6599,47 +6593,47 @@
       <c r="AG48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI48" s="13" t="s">
-        <v>58</v>
+      <c r="AH48" s="13">
+        <v>79292</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>101570</v>
       </c>
       <c r="AJ48" s="13">
-        <v>79292</v>
+        <v>58129</v>
       </c>
       <c r="AK48" s="13">
-        <v>101570</v>
+        <v>30651</v>
       </c>
       <c r="AL48" s="13">
-        <v>58129</v>
+        <v>27000</v>
       </c>
       <c r="AM48" s="13">
-        <v>30651</v>
+        <v>115491</v>
       </c>
       <c r="AN48" s="13">
-        <v>27000</v>
+        <v>105237</v>
       </c>
       <c r="AO48" s="13">
-        <v>115491</v>
+        <v>134001</v>
       </c>
       <c r="AP48" s="13">
-        <v>105237</v>
+        <v>149635</v>
       </c>
       <c r="AQ48" s="13">
-        <v>134001</v>
+        <v>103486</v>
       </c>
       <c r="AR48" s="13">
-        <v>149635</v>
+        <v>74404</v>
       </c>
       <c r="AS48" s="13">
-        <v>103486</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>74404</v>
-      </c>
-      <c r="AU48" s="13">
         <v>73341</v>
+      </c>
+      <c r="AT48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV48" s="13" t="s">
         <v>58</v>
@@ -6665,7 +6659,7 @@
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>57</v>
@@ -6794,37 +6788,37 @@
       <c r="AS49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU49" s="11" t="s">
-        <v>58</v>
+      <c r="AT49" s="11">
+        <v>50500</v>
+      </c>
+      <c r="AU49" s="11">
+        <v>20000</v>
       </c>
       <c r="AV49" s="11">
-        <v>50500</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="11">
         <v>0</v>
       </c>
       <c r="AY49" s="11">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="BA49" s="11">
-        <v>25000</v>
+        <v>38500</v>
       </c>
       <c r="BB49" s="11">
-        <v>27000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>57</v>
@@ -6953,37 +6947,37 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU50" s="13" t="s">
-        <v>58</v>
+      <c r="AT50" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>7000</v>
       </c>
       <c r="AV50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="13">
         <v>10000</v>
       </c>
-      <c r="AW50" s="13">
-        <v>7000</v>
-      </c>
-      <c r="AX50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY50" s="13">
-        <v>0</v>
-      </c>
       <c r="AZ50" s="13">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="BA50" s="13">
-        <v>10000</v>
+        <v>28500</v>
       </c>
       <c r="BB50" s="13">
-        <v>8000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>57</v>
@@ -7112,11 +7106,11 @@
       <c r="AS51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU51" s="11" t="s">
-        <v>58</v>
+      <c r="AT51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="11">
+        <v>0</v>
       </c>
       <c r="AV51" s="11">
         <v>0</v>
@@ -7142,7 +7136,7 @@
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>57</v>
@@ -7271,37 +7265,37 @@
       <c r="AS52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU52" s="13" t="s">
-        <v>58</v>
+      <c r="AT52" s="13">
+        <v>60360</v>
+      </c>
+      <c r="AU52" s="13">
+        <v>48384</v>
       </c>
       <c r="AV52" s="13">
-        <v>60360</v>
+        <v>40882</v>
       </c>
       <c r="AW52" s="13">
-        <v>48384</v>
+        <v>36245</v>
       </c>
       <c r="AX52" s="13">
-        <v>40882</v>
+        <v>61048</v>
       </c>
       <c r="AY52" s="13">
-        <v>36245</v>
+        <v>85770</v>
       </c>
       <c r="AZ52" s="13">
-        <v>61048</v>
+        <v>55156</v>
       </c>
       <c r="BA52" s="13">
-        <v>85770</v>
+        <v>62557</v>
       </c>
       <c r="BB52" s="13">
-        <v>55156</v>
+        <v>33174</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -7366,99 +7360,99 @@
         <v>0</v>
       </c>
       <c r="Y53" s="15">
-        <v>0</v>
+        <v>84355</v>
       </c>
       <c r="Z53" s="15">
-        <v>0</v>
+        <v>166398</v>
       </c>
       <c r="AA53" s="15">
-        <v>84355</v>
+        <v>125909</v>
       </c>
       <c r="AB53" s="15">
-        <v>166398</v>
+        <v>60458</v>
       </c>
       <c r="AC53" s="15">
-        <v>125909</v>
+        <v>76382</v>
       </c>
       <c r="AD53" s="15">
-        <v>60458</v>
+        <v>87816</v>
       </c>
       <c r="AE53" s="15">
-        <v>76382</v>
+        <v>68042</v>
       </c>
       <c r="AF53" s="15">
-        <v>87816</v>
+        <v>88671</v>
       </c>
       <c r="AG53" s="15">
-        <v>68042</v>
+        <v>133759</v>
       </c>
       <c r="AH53" s="15">
-        <v>88671</v>
+        <v>79292</v>
       </c>
       <c r="AI53" s="15">
-        <v>133759</v>
+        <v>101570</v>
       </c>
       <c r="AJ53" s="15">
-        <v>79292</v>
+        <v>58129</v>
       </c>
       <c r="AK53" s="15">
-        <v>101570</v>
+        <v>30651</v>
       </c>
       <c r="AL53" s="15">
-        <v>58129</v>
+        <v>27000</v>
       </c>
       <c r="AM53" s="15">
-        <v>30651</v>
+        <v>115491</v>
       </c>
       <c r="AN53" s="15">
-        <v>27000</v>
+        <v>105237</v>
       </c>
       <c r="AO53" s="15">
-        <v>115491</v>
+        <v>134001</v>
       </c>
       <c r="AP53" s="15">
-        <v>105237</v>
+        <v>149635</v>
       </c>
       <c r="AQ53" s="15">
-        <v>134001</v>
+        <v>103486</v>
       </c>
       <c r="AR53" s="15">
-        <v>149635</v>
+        <v>74404</v>
       </c>
       <c r="AS53" s="15">
-        <v>103486</v>
+        <v>73341</v>
       </c>
       <c r="AT53" s="15">
-        <v>74404</v>
+        <v>120860</v>
       </c>
       <c r="AU53" s="15">
-        <v>73341</v>
+        <v>75384</v>
       </c>
       <c r="AV53" s="15">
-        <v>120860</v>
+        <v>40882</v>
       </c>
       <c r="AW53" s="15">
-        <v>75384</v>
+        <v>36245</v>
       </c>
       <c r="AX53" s="15">
-        <v>40882</v>
+        <v>61048</v>
       </c>
       <c r="AY53" s="15">
-        <v>36245</v>
+        <v>120770</v>
       </c>
       <c r="AZ53" s="15">
-        <v>61048</v>
+        <v>90156</v>
       </c>
       <c r="BA53" s="15">
-        <v>120770</v>
+        <v>129557</v>
       </c>
       <c r="BB53" s="15">
-        <v>90156</v>
+        <v>100174</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -7515,7 +7509,7 @@
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -7579,11 +7573,11 @@
       <c r="X55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>58</v>
+      <c r="Y55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="15">
+        <v>0</v>
       </c>
       <c r="AA55" s="15">
         <v>0</v>
@@ -7672,7 +7666,7 @@
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -7729,7 +7723,7 @@
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -7793,11 +7787,11 @@
       <c r="X57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="15" t="s">
-        <v>58</v>
+      <c r="Y57" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="15">
+        <v>0</v>
       </c>
       <c r="AA57" s="15">
         <v>0</v>
@@ -7886,7 +7880,7 @@
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -7951,94 +7945,94 @@
         <v>0</v>
       </c>
       <c r="Y58" s="19">
-        <v>0</v>
+        <v>222106</v>
       </c>
       <c r="Z58" s="19">
-        <v>0</v>
+        <v>250261</v>
       </c>
       <c r="AA58" s="19">
-        <v>222106</v>
+        <v>235441</v>
       </c>
       <c r="AB58" s="19">
-        <v>250261</v>
+        <v>184958</v>
       </c>
       <c r="AC58" s="19">
-        <v>235441</v>
+        <v>231642</v>
       </c>
       <c r="AD58" s="19">
-        <v>184958</v>
+        <v>206984</v>
       </c>
       <c r="AE58" s="19">
-        <v>231642</v>
+        <v>197306</v>
       </c>
       <c r="AF58" s="19">
-        <v>206984</v>
+        <v>196162</v>
       </c>
       <c r="AG58" s="19">
-        <v>197306</v>
+        <v>273249</v>
       </c>
       <c r="AH58" s="19">
-        <v>196162</v>
+        <v>168217</v>
       </c>
       <c r="AI58" s="19">
-        <v>273249</v>
+        <v>231790</v>
       </c>
       <c r="AJ58" s="19">
-        <v>168217</v>
+        <v>181091</v>
       </c>
       <c r="AK58" s="19">
-        <v>231790</v>
+        <v>86226</v>
       </c>
       <c r="AL58" s="19">
-        <v>181091</v>
+        <v>123042</v>
       </c>
       <c r="AM58" s="19">
-        <v>86226</v>
+        <v>252853</v>
       </c>
       <c r="AN58" s="19">
-        <v>123042</v>
+        <v>234264</v>
       </c>
       <c r="AO58" s="19">
-        <v>252853</v>
+        <v>280477</v>
       </c>
       <c r="AP58" s="19">
-        <v>234264</v>
+        <v>283405</v>
       </c>
       <c r="AQ58" s="19">
-        <v>280477</v>
+        <v>218479</v>
       </c>
       <c r="AR58" s="19">
-        <v>283405</v>
+        <v>195329</v>
       </c>
       <c r="AS58" s="19">
-        <v>218479</v>
+        <v>185400</v>
       </c>
       <c r="AT58" s="19">
-        <v>195329</v>
+        <v>225211</v>
       </c>
       <c r="AU58" s="19">
-        <v>185400</v>
+        <v>195919</v>
       </c>
       <c r="AV58" s="19">
-        <v>225211</v>
+        <v>156571</v>
       </c>
       <c r="AW58" s="19">
-        <v>195919</v>
+        <v>160749</v>
       </c>
       <c r="AX58" s="19">
-        <v>156571</v>
+        <v>147305</v>
       </c>
       <c r="AY58" s="19">
-        <v>160749</v>
+        <v>245900</v>
       </c>
       <c r="AZ58" s="19">
-        <v>147305</v>
+        <v>216357</v>
       </c>
       <c r="BA58" s="19">
-        <v>245900</v>
+        <v>272586</v>
       </c>
       <c r="BB58" s="19">
-        <v>216357</v>
+        <v>256465</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8208,7 +8202,7 @@
     </row>
     <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -8420,7 +8414,7 @@
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -8480,7 +8474,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
@@ -8543,11 +8537,11 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>0</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
@@ -8639,7 +8633,7 @@
         <v>59</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
@@ -8702,11 +8696,11 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>0</v>
       </c>
       <c r="AA66" s="13">
         <v>0</v>
@@ -8798,7 +8792,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
@@ -8924,32 +8918,32 @@
       <c r="AS67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU67" s="11" t="s">
-        <v>58</v>
+      <c r="AT67" s="11">
+        <v>15951</v>
+      </c>
+      <c r="AU67" s="11">
+        <v>27656</v>
       </c>
       <c r="AV67" s="11">
-        <v>200040</v>
+        <v>35488</v>
       </c>
       <c r="AW67" s="11">
-        <v>206246</v>
+        <v>40761</v>
       </c>
       <c r="AX67" s="11">
-        <v>208862</v>
+        <v>16790</v>
       </c>
       <c r="AY67" s="11">
-        <v>328561</v>
+        <v>37978</v>
       </c>
       <c r="AZ67" s="11">
-        <v>237733</v>
+        <v>82648</v>
       </c>
       <c r="BA67" s="11">
-        <v>281520</v>
+        <v>57120</v>
       </c>
       <c r="BB67" s="11">
-        <v>212260</v>
+        <v>75996</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8957,7 +8951,7 @@
         <v>61</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
@@ -9083,32 +9077,32 @@
       <c r="AS68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU68" s="13" t="s">
-        <v>58</v>
+      <c r="AT68" s="13">
+        <v>316878</v>
+      </c>
+      <c r="AU68" s="13">
+        <v>368851</v>
       </c>
       <c r="AV68" s="13">
-        <v>15951</v>
+        <v>333513</v>
       </c>
       <c r="AW68" s="13">
-        <v>27656</v>
+        <v>459273</v>
       </c>
       <c r="AX68" s="13">
-        <v>35488</v>
+        <v>280899</v>
       </c>
       <c r="AY68" s="13">
-        <v>40761</v>
+        <v>398610</v>
       </c>
       <c r="AZ68" s="13">
-        <v>16790</v>
+        <v>377322</v>
       </c>
       <c r="BA68" s="13">
-        <v>37978</v>
+        <v>559493</v>
       </c>
       <c r="BB68" s="13">
-        <v>82648</v>
+        <v>554508</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9116,7 +9110,7 @@
         <v>62</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -9179,32 +9173,32 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>320063</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>193059</v>
+      </c>
+      <c r="AA69" s="11">
+        <v>260759</v>
+      </c>
+      <c r="AB69" s="11">
+        <v>323171</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>425775</v>
+      </c>
+      <c r="AD69" s="11">
+        <v>325136</v>
+      </c>
+      <c r="AE69" s="11">
+        <v>349645</v>
+      </c>
+      <c r="AF69" s="11">
+        <v>284538</v>
+      </c>
+      <c r="AG69" s="11">
+        <v>366241</v>
       </c>
       <c r="AH69" s="11" t="s">
         <v>58</v>
@@ -9248,26 +9242,26 @@
       <c r="AU69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV69" s="11">
-        <v>316878</v>
-      </c>
-      <c r="AW69" s="11">
-        <v>368851</v>
-      </c>
-      <c r="AX69" s="11">
-        <v>333513</v>
-      </c>
-      <c r="AY69" s="11">
-        <v>459273</v>
-      </c>
-      <c r="AZ69" s="11">
-        <v>280899</v>
-      </c>
-      <c r="BA69" s="11">
-        <v>398610</v>
-      </c>
-      <c r="BB69" s="11">
-        <v>377322</v>
+      <c r="AV69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB69" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9275,7 +9269,7 @@
         <v>63</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
@@ -9365,41 +9359,41 @@
       <c r="AG70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS70" s="13" t="s">
-        <v>58</v>
+      <c r="AH70" s="13">
+        <v>236434</v>
+      </c>
+      <c r="AI70" s="13">
+        <v>481290</v>
+      </c>
+      <c r="AJ70" s="13">
+        <v>471921</v>
+      </c>
+      <c r="AK70" s="13">
+        <v>221291</v>
+      </c>
+      <c r="AL70" s="13">
+        <v>448266</v>
+      </c>
+      <c r="AM70" s="13">
+        <v>637426</v>
+      </c>
+      <c r="AN70" s="13">
+        <v>549913</v>
+      </c>
+      <c r="AO70" s="13">
+        <v>619945</v>
+      </c>
+      <c r="AP70" s="13">
+        <v>626143</v>
+      </c>
+      <c r="AQ70" s="13">
+        <v>551198</v>
+      </c>
+      <c r="AR70" s="13">
+        <v>557384</v>
+      </c>
+      <c r="AS70" s="13">
+        <v>554624</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>58</v>
@@ -9407,26 +9401,26 @@
       <c r="AU70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV70" s="13">
-        <v>36950</v>
-      </c>
-      <c r="AW70" s="13">
-        <v>58789</v>
-      </c>
-      <c r="AX70" s="13">
-        <v>81680</v>
-      </c>
-      <c r="AY70" s="13">
-        <v>77458</v>
-      </c>
-      <c r="AZ70" s="13">
-        <v>65418</v>
-      </c>
-      <c r="BA70" s="13">
-        <v>138346</v>
-      </c>
-      <c r="BB70" s="13">
-        <v>175706</v>
+      <c r="AV70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB70" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9434,7 +9428,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
@@ -9503,32 +9497,32 @@
       <c r="Z71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA71" s="11">
-        <v>320063</v>
-      </c>
-      <c r="AB71" s="11">
-        <v>193059</v>
-      </c>
-      <c r="AC71" s="11">
-        <v>260759</v>
-      </c>
-      <c r="AD71" s="11">
-        <v>323171</v>
-      </c>
-      <c r="AE71" s="11">
-        <v>425775</v>
-      </c>
-      <c r="AF71" s="11">
-        <v>325136</v>
-      </c>
-      <c r="AG71" s="11">
-        <v>349645</v>
-      </c>
-      <c r="AH71" s="11">
-        <v>284538</v>
-      </c>
-      <c r="AI71" s="11">
-        <v>366241</v>
+      <c r="AA71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ71" s="11" t="s">
         <v>58</v>
@@ -9560,32 +9554,32 @@
       <c r="AS71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB71" s="11" t="s">
-        <v>58</v>
+      <c r="AT71" s="11">
+        <v>200040</v>
+      </c>
+      <c r="AU71" s="11">
+        <v>206246</v>
+      </c>
+      <c r="AV71" s="11">
+        <v>208862</v>
+      </c>
+      <c r="AW71" s="11">
+        <v>328561</v>
+      </c>
+      <c r="AX71" s="11">
+        <v>237733</v>
+      </c>
+      <c r="AY71" s="11">
+        <v>281520</v>
+      </c>
+      <c r="AZ71" s="11">
+        <v>212260</v>
+      </c>
+      <c r="BA71" s="11">
+        <v>300705</v>
+      </c>
+      <c r="BB71" s="11">
+        <v>387549</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9593,7 +9587,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
@@ -9689,67 +9683,67 @@
       <c r="AI72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ72" s="13">
-        <v>236434</v>
-      </c>
-      <c r="AK72" s="13">
-        <v>481290</v>
-      </c>
-      <c r="AL72" s="13">
-        <v>471921</v>
-      </c>
-      <c r="AM72" s="13">
-        <v>221291</v>
-      </c>
-      <c r="AN72" s="13">
-        <v>448266</v>
-      </c>
-      <c r="AO72" s="13">
-        <v>637426</v>
-      </c>
-      <c r="AP72" s="13">
-        <v>549913</v>
-      </c>
-      <c r="AQ72" s="13">
-        <v>619945</v>
-      </c>
-      <c r="AR72" s="13">
-        <v>626143</v>
-      </c>
-      <c r="AS72" s="13">
-        <v>551198</v>
+      <c r="AJ72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT72" s="13">
-        <v>557384</v>
+        <v>36950</v>
       </c>
       <c r="AU72" s="13">
-        <v>554624</v>
-      </c>
-      <c r="AV72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB72" s="13" t="s">
-        <v>58</v>
+        <v>58789</v>
+      </c>
+      <c r="AV72" s="13">
+        <v>81680</v>
+      </c>
+      <c r="AW72" s="13">
+        <v>77458</v>
+      </c>
+      <c r="AX72" s="13">
+        <v>65418</v>
+      </c>
+      <c r="AY72" s="13">
+        <v>138346</v>
+      </c>
+      <c r="AZ72" s="13">
+        <v>175706</v>
+      </c>
+      <c r="BA72" s="13">
+        <v>124192</v>
+      </c>
+      <c r="BB72" s="13">
+        <v>139930</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -9814,99 +9808,99 @@
         <v>0</v>
       </c>
       <c r="Y73" s="15">
-        <v>0</v>
+        <v>320063</v>
       </c>
       <c r="Z73" s="15">
-        <v>0</v>
+        <v>193059</v>
       </c>
       <c r="AA73" s="15">
-        <v>320063</v>
+        <v>260759</v>
       </c>
       <c r="AB73" s="15">
-        <v>193059</v>
+        <v>323171</v>
       </c>
       <c r="AC73" s="15">
-        <v>260759</v>
+        <v>425775</v>
       </c>
       <c r="AD73" s="15">
-        <v>323171</v>
+        <v>325136</v>
       </c>
       <c r="AE73" s="15">
-        <v>425775</v>
+        <v>349645</v>
       </c>
       <c r="AF73" s="15">
-        <v>325136</v>
+        <v>284538</v>
       </c>
       <c r="AG73" s="15">
-        <v>349645</v>
+        <v>366241</v>
       </c>
       <c r="AH73" s="15">
-        <v>284538</v>
+        <v>236434</v>
       </c>
       <c r="AI73" s="15">
-        <v>366241</v>
+        <v>481290</v>
       </c>
       <c r="AJ73" s="15">
-        <v>236434</v>
+        <v>471921</v>
       </c>
       <c r="AK73" s="15">
-        <v>481290</v>
+        <v>221291</v>
       </c>
       <c r="AL73" s="15">
-        <v>471921</v>
+        <v>448266</v>
       </c>
       <c r="AM73" s="15">
-        <v>221291</v>
+        <v>637426</v>
       </c>
       <c r="AN73" s="15">
-        <v>448266</v>
+        <v>549913</v>
       </c>
       <c r="AO73" s="15">
-        <v>637426</v>
+        <v>619945</v>
       </c>
       <c r="AP73" s="15">
-        <v>549913</v>
+        <v>626143</v>
       </c>
       <c r="AQ73" s="15">
-        <v>619945</v>
+        <v>551198</v>
       </c>
       <c r="AR73" s="15">
-        <v>626143</v>
+        <v>557384</v>
       </c>
       <c r="AS73" s="15">
-        <v>551198</v>
+        <v>554624</v>
       </c>
       <c r="AT73" s="15">
-        <v>557384</v>
+        <v>569819</v>
       </c>
       <c r="AU73" s="15">
-        <v>554624</v>
+        <v>661542</v>
       </c>
       <c r="AV73" s="15">
-        <v>569819</v>
+        <v>659543</v>
       </c>
       <c r="AW73" s="15">
-        <v>661542</v>
+        <v>906053</v>
       </c>
       <c r="AX73" s="15">
-        <v>659543</v>
+        <v>600840</v>
       </c>
       <c r="AY73" s="15">
-        <v>906053</v>
+        <v>856454</v>
       </c>
       <c r="AZ73" s="15">
-        <v>600840</v>
+        <v>847936</v>
       </c>
       <c r="BA73" s="15">
-        <v>856454</v>
+        <v>1041510</v>
       </c>
       <c r="BB73" s="15">
-        <v>847936</v>
+        <v>1157983</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -9963,10 +9957,10 @@
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
@@ -10029,38 +10023,38 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>276110</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>744122</v>
       </c>
       <c r="AA75" s="11">
-        <v>276110</v>
+        <v>551344</v>
       </c>
       <c r="AB75" s="11">
-        <v>744122</v>
+        <v>250351</v>
       </c>
       <c r="AC75" s="11">
-        <v>551344</v>
+        <v>398494</v>
       </c>
       <c r="AD75" s="11">
-        <v>250351</v>
+        <v>431004</v>
       </c>
       <c r="AE75" s="11">
-        <v>398494</v>
+        <v>389440</v>
       </c>
       <c r="AF75" s="11">
-        <v>431004</v>
+        <v>458141</v>
       </c>
       <c r="AG75" s="11">
-        <v>389440</v>
-      </c>
-      <c r="AH75" s="11">
-        <v>458141</v>
-      </c>
-      <c r="AI75" s="11">
         <v>593912</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ75" s="11" t="s">
         <v>58</v>
@@ -10125,7 +10119,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
@@ -10215,47 +10209,47 @@
       <c r="AG76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI76" s="13" t="s">
-        <v>58</v>
+      <c r="AH76" s="13">
+        <v>410543</v>
+      </c>
+      <c r="AI76" s="13">
+        <v>486464</v>
       </c>
       <c r="AJ76" s="13">
-        <v>410543</v>
+        <v>294131</v>
       </c>
       <c r="AK76" s="13">
-        <v>486464</v>
+        <v>195680</v>
       </c>
       <c r="AL76" s="13">
-        <v>294131</v>
+        <v>202745</v>
       </c>
       <c r="AM76" s="13">
-        <v>195680</v>
+        <v>813197</v>
       </c>
       <c r="AN76" s="13">
-        <v>202745</v>
+        <v>759445</v>
       </c>
       <c r="AO76" s="13">
-        <v>813197</v>
+        <v>924241</v>
       </c>
       <c r="AP76" s="13">
-        <v>759445</v>
+        <v>1051376</v>
       </c>
       <c r="AQ76" s="13">
-        <v>924241</v>
+        <v>726992</v>
       </c>
       <c r="AR76" s="13">
-        <v>1051376</v>
+        <v>510285</v>
       </c>
       <c r="AS76" s="13">
-        <v>726992</v>
-      </c>
-      <c r="AT76" s="13">
-        <v>510285</v>
-      </c>
-      <c r="AU76" s="13">
         <v>493183</v>
+      </c>
+      <c r="AT76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV76" s="13" t="s">
         <v>58</v>
@@ -10281,10 +10275,10 @@
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
@@ -10410,40 +10404,40 @@
       <c r="AS77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU77" s="11" t="s">
-        <v>58</v>
+      <c r="AT77" s="11">
+        <v>354483</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>157813</v>
       </c>
       <c r="AV77" s="11">
-        <v>354483</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="11">
-        <v>157813</v>
+        <v>0</v>
       </c>
       <c r="AX77" s="11">
         <v>0</v>
       </c>
       <c r="AY77" s="11">
-        <v>0</v>
+        <v>214461</v>
       </c>
       <c r="AZ77" s="11">
-        <v>0</v>
+        <v>247416</v>
       </c>
       <c r="BA77" s="11">
-        <v>214461</v>
+        <v>363974</v>
       </c>
       <c r="BB77" s="11">
-        <v>247416</v>
+        <v>417673</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
@@ -10569,40 +10563,40 @@
       <c r="AS78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU78" s="13" t="s">
-        <v>58</v>
+      <c r="AT78" s="13">
+        <v>75345</v>
+      </c>
+      <c r="AU78" s="13">
+        <v>58798</v>
       </c>
       <c r="AV78" s="13">
-        <v>75345</v>
+        <v>0</v>
       </c>
       <c r="AW78" s="13">
-        <v>58798</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="13">
         <v>0</v>
       </c>
       <c r="AY78" s="13">
-        <v>0</v>
+        <v>91146</v>
       </c>
       <c r="AZ78" s="13">
-        <v>0</v>
+        <v>77890</v>
       </c>
       <c r="BA78" s="13">
-        <v>91146</v>
+        <v>289249</v>
       </c>
       <c r="BB78" s="13">
-        <v>77890</v>
+        <v>263516</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
@@ -10728,11 +10722,11 @@
       <c r="AS79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>58</v>
+      <c r="AT79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>0</v>
       </c>
       <c r="AV79" s="11">
         <v>0</v>
@@ -10758,10 +10752,10 @@
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
@@ -10887,37 +10881,37 @@
       <c r="AS80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU80" s="13" t="s">
-        <v>58</v>
+      <c r="AT80" s="13">
+        <v>393945</v>
+      </c>
+      <c r="AU80" s="13">
+        <v>333814</v>
       </c>
       <c r="AV80" s="13">
-        <v>393945</v>
+        <v>279551</v>
       </c>
       <c r="AW80" s="13">
-        <v>333814</v>
+        <v>300194</v>
       </c>
       <c r="AX80" s="13">
-        <v>279551</v>
+        <v>523288</v>
       </c>
       <c r="AY80" s="13">
-        <v>300194</v>
+        <v>747034</v>
       </c>
       <c r="AZ80" s="13">
-        <v>523288</v>
+        <v>490493</v>
       </c>
       <c r="BA80" s="13">
-        <v>747034</v>
+        <v>566384</v>
       </c>
       <c r="BB80" s="13">
-        <v>490493</v>
+        <v>301060</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -10982,99 +10976,99 @@
         <v>0</v>
       </c>
       <c r="Y81" s="15">
-        <v>0</v>
+        <v>276110</v>
       </c>
       <c r="Z81" s="15">
-        <v>0</v>
+        <v>744122</v>
       </c>
       <c r="AA81" s="15">
-        <v>276110</v>
+        <v>551344</v>
       </c>
       <c r="AB81" s="15">
-        <v>744122</v>
+        <v>250351</v>
       </c>
       <c r="AC81" s="15">
-        <v>551344</v>
+        <v>398494</v>
       </c>
       <c r="AD81" s="15">
-        <v>250351</v>
+        <v>431004</v>
       </c>
       <c r="AE81" s="15">
-        <v>398494</v>
+        <v>389440</v>
       </c>
       <c r="AF81" s="15">
-        <v>431004</v>
+        <v>458141</v>
       </c>
       <c r="AG81" s="15">
-        <v>389440</v>
+        <v>593912</v>
       </c>
       <c r="AH81" s="15">
-        <v>458141</v>
+        <v>410543</v>
       </c>
       <c r="AI81" s="15">
-        <v>593912</v>
+        <v>486464</v>
       </c>
       <c r="AJ81" s="15">
-        <v>410543</v>
+        <v>294131</v>
       </c>
       <c r="AK81" s="15">
-        <v>486464</v>
+        <v>195680</v>
       </c>
       <c r="AL81" s="15">
-        <v>294131</v>
+        <v>202745</v>
       </c>
       <c r="AM81" s="15">
-        <v>195680</v>
+        <v>813197</v>
       </c>
       <c r="AN81" s="15">
-        <v>202745</v>
+        <v>759445</v>
       </c>
       <c r="AO81" s="15">
-        <v>813197</v>
+        <v>924241</v>
       </c>
       <c r="AP81" s="15">
-        <v>759445</v>
+        <v>1051376</v>
       </c>
       <c r="AQ81" s="15">
-        <v>924241</v>
+        <v>726992</v>
       </c>
       <c r="AR81" s="15">
-        <v>1051376</v>
+        <v>510285</v>
       </c>
       <c r="AS81" s="15">
-        <v>726992</v>
+        <v>493183</v>
       </c>
       <c r="AT81" s="15">
-        <v>510285</v>
+        <v>823773</v>
       </c>
       <c r="AU81" s="15">
-        <v>493183</v>
+        <v>550425</v>
       </c>
       <c r="AV81" s="15">
-        <v>823773</v>
+        <v>279551</v>
       </c>
       <c r="AW81" s="15">
-        <v>550425</v>
+        <v>300194</v>
       </c>
       <c r="AX81" s="15">
-        <v>279551</v>
+        <v>523288</v>
       </c>
       <c r="AY81" s="15">
-        <v>300194</v>
+        <v>1052641</v>
       </c>
       <c r="AZ81" s="15">
-        <v>523288</v>
+        <v>815799</v>
       </c>
       <c r="BA81" s="15">
-        <v>1052641</v>
+        <v>1219607</v>
       </c>
       <c r="BB81" s="15">
-        <v>815799</v>
+        <v>982249</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -11131,10 +11125,10 @@
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
@@ -11197,11 +11191,11 @@
       <c r="X83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="15" t="s">
-        <v>58</v>
+      <c r="Y83" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="15">
+        <v>0</v>
       </c>
       <c r="AA83" s="15">
         <v>0</v>
@@ -11290,7 +11284,7 @@
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -11347,10 +11341,10 @@
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
@@ -11413,11 +11407,11 @@
       <c r="X85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z85" s="15" t="s">
-        <v>58</v>
+      <c r="Y85" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="15">
+        <v>0</v>
       </c>
       <c r="AA85" s="15">
         <v>0</v>
@@ -11506,7 +11500,7 @@
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -11563,10 +11557,10 @@
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -11629,11 +11623,11 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="11">
+        <v>0</v>
       </c>
       <c r="AA87" s="11">
         <v>0</v>
@@ -11722,7 +11716,7 @@
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -11787,94 +11781,94 @@
         <v>0</v>
       </c>
       <c r="Y88" s="19">
-        <v>0</v>
+        <v>596173</v>
       </c>
       <c r="Z88" s="19">
-        <v>0</v>
+        <v>937181</v>
       </c>
       <c r="AA88" s="19">
-        <v>596173</v>
+        <v>812103</v>
       </c>
       <c r="AB88" s="19">
-        <v>937181</v>
+        <v>573522</v>
       </c>
       <c r="AC88" s="19">
-        <v>812103</v>
+        <v>824269</v>
       </c>
       <c r="AD88" s="19">
-        <v>573522</v>
+        <v>756140</v>
       </c>
       <c r="AE88" s="19">
-        <v>824269</v>
+        <v>739085</v>
       </c>
       <c r="AF88" s="19">
-        <v>756140</v>
+        <v>742679</v>
       </c>
       <c r="AG88" s="19">
-        <v>739085</v>
+        <v>960153</v>
       </c>
       <c r="AH88" s="19">
-        <v>742679</v>
+        <v>646977</v>
       </c>
       <c r="AI88" s="19">
-        <v>960153</v>
+        <v>967754</v>
       </c>
       <c r="AJ88" s="19">
-        <v>646977</v>
+        <v>766052</v>
       </c>
       <c r="AK88" s="19">
-        <v>967754</v>
+        <v>416971</v>
       </c>
       <c r="AL88" s="19">
-        <v>766052</v>
+        <v>651011</v>
       </c>
       <c r="AM88" s="19">
-        <v>416971</v>
+        <v>1450623</v>
       </c>
       <c r="AN88" s="19">
-        <v>651011</v>
+        <v>1309358</v>
       </c>
       <c r="AO88" s="19">
-        <v>1450623</v>
+        <v>1544186</v>
       </c>
       <c r="AP88" s="19">
-        <v>1309358</v>
+        <v>1677519</v>
       </c>
       <c r="AQ88" s="19">
-        <v>1544186</v>
+        <v>1278190</v>
       </c>
       <c r="AR88" s="19">
-        <v>1677519</v>
+        <v>1067669</v>
       </c>
       <c r="AS88" s="19">
-        <v>1278190</v>
+        <v>1047807</v>
       </c>
       <c r="AT88" s="19">
-        <v>1067669</v>
+        <v>1393592</v>
       </c>
       <c r="AU88" s="19">
-        <v>1047807</v>
+        <v>1211967</v>
       </c>
       <c r="AV88" s="19">
-        <v>1393592</v>
+        <v>939094</v>
       </c>
       <c r="AW88" s="19">
-        <v>1211967</v>
+        <v>1206247</v>
       </c>
       <c r="AX88" s="19">
-        <v>939094</v>
+        <v>1124128</v>
       </c>
       <c r="AY88" s="19">
-        <v>1206247</v>
+        <v>1909095</v>
       </c>
       <c r="AZ88" s="19">
-        <v>1124128</v>
+        <v>1663735</v>
       </c>
       <c r="BA88" s="19">
-        <v>1909095</v>
+        <v>2261117</v>
       </c>
       <c r="BB88" s="19">
-        <v>1663735</v>
+        <v>2140232</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12044,7 +12038,7 @@
     </row>
     <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -12256,7 +12250,7 @@
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -12316,7 +12310,7 @@
         <v>60</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
@@ -12442,32 +12436,32 @@
       <c r="AS95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU95" s="11" t="s">
-        <v>58</v>
+      <c r="AT95" s="11">
+        <v>5731585</v>
+      </c>
+      <c r="AU95" s="11">
+        <v>5623424</v>
       </c>
       <c r="AV95" s="11">
-        <v>4594079</v>
+        <v>6110193</v>
       </c>
       <c r="AW95" s="11">
-        <v>4649578</v>
+        <v>7152307</v>
       </c>
       <c r="AX95" s="11">
-        <v>4871531</v>
+        <v>7159915</v>
       </c>
       <c r="AY95" s="11">
-        <v>7473240</v>
+        <v>6512003</v>
       </c>
       <c r="AZ95" s="11">
-        <v>7033105</v>
+        <v>5913143</v>
       </c>
       <c r="BA95" s="11">
-        <v>6983355</v>
+        <v>6709738</v>
       </c>
       <c r="BB95" s="11">
-        <v>7072740</v>
+        <v>7165378</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12475,7 +12469,7 @@
         <v>61</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
@@ -12601,32 +12595,32 @@
       <c r="AS96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU96" s="13" t="s">
-        <v>58</v>
+      <c r="AT96" s="13">
+        <v>6313694</v>
+      </c>
+      <c r="AU96" s="13">
+        <v>6336231</v>
       </c>
       <c r="AV96" s="13">
-        <v>5731585</v>
+        <v>6599905</v>
       </c>
       <c r="AW96" s="13">
-        <v>5623424</v>
+        <v>7360852</v>
       </c>
       <c r="AX96" s="13">
-        <v>6110193</v>
+        <v>7051209</v>
       </c>
       <c r="AY96" s="13">
-        <v>7152307</v>
+        <v>6966514</v>
       </c>
       <c r="AZ96" s="13">
-        <v>7159915</v>
+        <v>7091452</v>
       </c>
       <c r="BA96" s="13">
-        <v>6512003</v>
+        <v>7397765</v>
       </c>
       <c r="BB96" s="13">
-        <v>5913143</v>
+        <v>7698292</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12634,7 +12628,7 @@
         <v>62</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -12697,32 +12691,32 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>2323489</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>2302076</v>
+      </c>
+      <c r="AA97" s="11">
+        <v>2380665</v>
+      </c>
+      <c r="AB97" s="11">
+        <v>2595751</v>
+      </c>
+      <c r="AC97" s="11">
+        <v>2742335</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>2728383</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>2704891</v>
+      </c>
+      <c r="AF97" s="11">
+        <v>2647087</v>
+      </c>
+      <c r="AG97" s="11">
+        <v>2625572</v>
       </c>
       <c r="AH97" s="11" t="s">
         <v>58</v>
@@ -12766,26 +12760,26 @@
       <c r="AU97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV97" s="11">
-        <v>6313694</v>
-      </c>
-      <c r="AW97" s="11">
-        <v>6336231</v>
-      </c>
-      <c r="AX97" s="11">
-        <v>6599905</v>
-      </c>
-      <c r="AY97" s="11">
-        <v>7360852</v>
-      </c>
-      <c r="AZ97" s="11">
-        <v>7051209</v>
-      </c>
-      <c r="BA97" s="11">
-        <v>6966514</v>
-      </c>
-      <c r="BB97" s="11">
-        <v>7091452</v>
+      <c r="AV97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB97" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12793,7 +12787,7 @@
         <v>63</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
@@ -12883,41 +12877,41 @@
       <c r="AG98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS98" s="13" t="s">
-        <v>58</v>
+      <c r="AH98" s="13">
+        <v>2658802</v>
+      </c>
+      <c r="AI98" s="13">
+        <v>3695976</v>
+      </c>
+      <c r="AJ98" s="13">
+        <v>3837942</v>
+      </c>
+      <c r="AK98" s="13">
+        <v>3981844</v>
+      </c>
+      <c r="AL98" s="13">
+        <v>4667396</v>
+      </c>
+      <c r="AM98" s="13">
+        <v>4640483</v>
+      </c>
+      <c r="AN98" s="13">
+        <v>4261999</v>
+      </c>
+      <c r="AO98" s="13">
+        <v>4232400</v>
+      </c>
+      <c r="AP98" s="13">
+        <v>4680743</v>
+      </c>
+      <c r="AQ98" s="13">
+        <v>4793318</v>
+      </c>
+      <c r="AR98" s="13">
+        <v>4609336</v>
+      </c>
+      <c r="AS98" s="13">
+        <v>4949393</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>58</v>
@@ -12925,26 +12919,26 @@
       <c r="AU98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV98" s="13">
-        <v>4715416</v>
-      </c>
-      <c r="AW98" s="13">
-        <v>4506285</v>
-      </c>
-      <c r="AX98" s="13">
-        <v>4958116</v>
-      </c>
-      <c r="AY98" s="13">
-        <v>6223526</v>
-      </c>
-      <c r="AZ98" s="13">
-        <v>6367955</v>
-      </c>
-      <c r="BA98" s="13">
-        <v>6355768</v>
-      </c>
-      <c r="BB98" s="13">
-        <v>6057783</v>
+      <c r="AV98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB98" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -12952,7 +12946,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
@@ -13021,32 +13015,32 @@
       <c r="Z99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA99" s="11">
-        <v>2323489</v>
-      </c>
-      <c r="AB99" s="11">
-        <v>2302076</v>
-      </c>
-      <c r="AC99" s="11">
-        <v>2380665</v>
-      </c>
-      <c r="AD99" s="11">
-        <v>2595751</v>
-      </c>
-      <c r="AE99" s="11">
-        <v>2742335</v>
-      </c>
-      <c r="AF99" s="11">
-        <v>2728383</v>
-      </c>
-      <c r="AG99" s="11">
-        <v>2704891</v>
-      </c>
-      <c r="AH99" s="11">
-        <v>2647087</v>
-      </c>
-      <c r="AI99" s="11">
-        <v>2625572</v>
+      <c r="AA99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ99" s="11" t="s">
         <v>58</v>
@@ -13078,32 +13072,32 @@
       <c r="AS99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB99" s="11" t="s">
-        <v>58</v>
+      <c r="AT99" s="11">
+        <v>4594079</v>
+      </c>
+      <c r="AU99" s="11">
+        <v>4649578</v>
+      </c>
+      <c r="AV99" s="11">
+        <v>4871531</v>
+      </c>
+      <c r="AW99" s="11">
+        <v>7473240</v>
+      </c>
+      <c r="AX99" s="11">
+        <v>7033105</v>
+      </c>
+      <c r="AY99" s="11">
+        <v>6983355</v>
+      </c>
+      <c r="AZ99" s="11">
+        <v>7072740</v>
+      </c>
+      <c r="BA99" s="11">
+        <v>7240844</v>
+      </c>
+      <c r="BB99" s="11">
+        <v>7170725</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13111,7 +13105,7 @@
         <v>65</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
@@ -13207,67 +13201,67 @@
       <c r="AI100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ100" s="13">
-        <v>2658802</v>
-      </c>
-      <c r="AK100" s="13">
-        <v>3695976</v>
-      </c>
-      <c r="AL100" s="13">
-        <v>3837942</v>
-      </c>
-      <c r="AM100" s="13">
-        <v>3981844</v>
-      </c>
-      <c r="AN100" s="13">
-        <v>4667396</v>
-      </c>
-      <c r="AO100" s="13">
-        <v>4640483</v>
-      </c>
-      <c r="AP100" s="13">
-        <v>4261999</v>
-      </c>
-      <c r="AQ100" s="13">
-        <v>4232400</v>
-      </c>
-      <c r="AR100" s="13">
-        <v>4680743</v>
-      </c>
-      <c r="AS100" s="13">
-        <v>4793318</v>
+      <c r="AJ100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT100" s="13">
-        <v>4609336</v>
+        <v>4715416</v>
       </c>
       <c r="AU100" s="13">
-        <v>4949393</v>
-      </c>
-      <c r="AV100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB100" s="13" t="s">
-        <v>58</v>
+        <v>4506285</v>
+      </c>
+      <c r="AV100" s="13">
+        <v>4958116</v>
+      </c>
+      <c r="AW100" s="13">
+        <v>6223526</v>
+      </c>
+      <c r="AX100" s="13">
+        <v>6367955</v>
+      </c>
+      <c r="AY100" s="13">
+        <v>6355768</v>
+      </c>
+      <c r="AZ100" s="13">
+        <v>6057783</v>
+      </c>
+      <c r="BA100" s="13">
+        <v>7155154</v>
+      </c>
+      <c r="BB100" s="13">
+        <v>7136009</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -13324,10 +13318,10 @@
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
@@ -13390,38 +13384,38 @@
       <c r="X102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z102" s="11" t="s">
-        <v>58</v>
+      <c r="Y102" s="11">
+        <v>3273191</v>
+      </c>
+      <c r="Z102" s="11">
+        <v>4471941</v>
       </c>
       <c r="AA102" s="11">
-        <v>3273191</v>
+        <v>4378909</v>
       </c>
       <c r="AB102" s="11">
-        <v>4471941</v>
+        <v>4140908</v>
       </c>
       <c r="AC102" s="11">
-        <v>4378909</v>
+        <v>5217119</v>
       </c>
       <c r="AD102" s="11">
-        <v>4140908</v>
+        <v>4908035</v>
       </c>
       <c r="AE102" s="11">
-        <v>5217119</v>
+        <v>5723524</v>
       </c>
       <c r="AF102" s="11">
-        <v>4908035</v>
+        <v>5166751</v>
       </c>
       <c r="AG102" s="11">
-        <v>5723524</v>
-      </c>
-      <c r="AH102" s="11">
-        <v>5166751</v>
-      </c>
-      <c r="AI102" s="11">
         <v>4440165</v>
+      </c>
+      <c r="AH102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI102" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ102" s="11" t="s">
         <v>58</v>
@@ -13486,7 +13480,7 @@
         <v>68</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13" t="s">
@@ -13576,47 +13570,47 @@
       <c r="AG103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI103" s="13" t="s">
-        <v>58</v>
+      <c r="AH103" s="13">
+        <v>5177609</v>
+      </c>
+      <c r="AI103" s="13">
+        <v>4789446</v>
       </c>
       <c r="AJ103" s="13">
-        <v>5177609</v>
+        <v>5059970</v>
       </c>
       <c r="AK103" s="13">
-        <v>4789446</v>
+        <v>6384131</v>
       </c>
       <c r="AL103" s="13">
-        <v>5059970</v>
+        <v>7509074</v>
       </c>
       <c r="AM103" s="13">
-        <v>6384131</v>
+        <v>7041215</v>
       </c>
       <c r="AN103" s="13">
-        <v>7509074</v>
+        <v>7216521</v>
       </c>
       <c r="AO103" s="13">
-        <v>7041215</v>
+        <v>6897269</v>
       </c>
       <c r="AP103" s="13">
-        <v>7216521</v>
+        <v>7026271</v>
       </c>
       <c r="AQ103" s="13">
-        <v>6897269</v>
+        <v>7025028</v>
       </c>
       <c r="AR103" s="13">
-        <v>7026271</v>
+        <v>6858301</v>
       </c>
       <c r="AS103" s="13">
-        <v>7025028</v>
-      </c>
-      <c r="AT103" s="13">
-        <v>6858301</v>
-      </c>
-      <c r="AU103" s="13">
         <v>6724520</v>
+      </c>
+      <c r="AT103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV103" s="13" t="s">
         <v>58</v>
@@ -13642,10 +13636,10 @@
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
@@ -13771,40 +13765,40 @@
       <c r="AS104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV104" s="11">
+      <c r="AT104" s="11">
         <v>7019465</v>
       </c>
-      <c r="AW104" s="11">
+      <c r="AU104" s="11">
         <v>7890650</v>
       </c>
+      <c r="AV104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW104" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ104" s="11" t="s">
-        <v>58</v>
+      <c r="AY104" s="11">
+        <v>8578440</v>
+      </c>
+      <c r="AZ104" s="11">
+        <v>9163556</v>
       </c>
       <c r="BA104" s="11">
-        <v>8578440</v>
+        <v>9453870</v>
       </c>
       <c r="BB104" s="11">
-        <v>9163556</v>
+        <v>9944595</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
@@ -13930,40 +13924,40 @@
       <c r="AS105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV105" s="13">
+      <c r="AT105" s="13">
         <v>7534500</v>
       </c>
-      <c r="AW105" s="13">
+      <c r="AU105" s="13">
         <v>8399714</v>
       </c>
+      <c r="AV105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW105" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ105" s="13" t="s">
-        <v>58</v>
+      <c r="AY105" s="13">
+        <v>9114600</v>
+      </c>
+      <c r="AZ105" s="13">
+        <v>9736250</v>
       </c>
       <c r="BA105" s="13">
-        <v>9114600</v>
+        <v>10149088</v>
       </c>
       <c r="BB105" s="13">
-        <v>9736250</v>
+        <v>10540640</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
@@ -14089,32 +14083,32 @@
       <c r="AS106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU106" s="11" t="s">
-        <v>58</v>
+      <c r="AT106" s="11">
+        <v>6526590</v>
+      </c>
+      <c r="AU106" s="11">
+        <v>6899264</v>
       </c>
       <c r="AV106" s="11">
-        <v>6526590</v>
+        <v>6837997</v>
       </c>
       <c r="AW106" s="11">
-        <v>6899264</v>
+        <v>8282356</v>
       </c>
       <c r="AX106" s="11">
-        <v>6837997</v>
+        <v>8571747</v>
       </c>
       <c r="AY106" s="11">
-        <v>8282356</v>
+        <v>8709735</v>
       </c>
       <c r="AZ106" s="11">
-        <v>8571747</v>
+        <v>8892831</v>
       </c>
       <c r="BA106" s="11">
-        <v>8709735</v>
+        <v>9053887</v>
       </c>
       <c r="BB106" s="11">
-        <v>8892831</v>
+        <v>9075179</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F295B-7254-4705-88A2-56CEDAD86F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخوز-سیمان خوزستان</t>
@@ -307,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,7 +499,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -512,7 +511,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -559,23 +558,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -611,23 +593,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -779,17 +744,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +809,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +866,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +923,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +978,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1035,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1092,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1147,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1359,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1416,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1610,7 +1575,7 @@
         <v>233530</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1769,7 +1734,7 @@
         <v>212086</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1928,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2087,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2246,7 +2211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2405,7 +2370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2564,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2723,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2880,7 +2845,7 @@
         <v>445616</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>67</v>
       </c>
@@ -2937,7 +2902,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
@@ -3096,7 +3061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3255,7 +3220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>64</v>
       </c>
@@ -3414,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>65</v>
       </c>
@@ -3573,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>70</v>
       </c>
@@ -3891,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>71</v>
       </c>
@@ -4048,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>72</v>
       </c>
@@ -4105,7 +4070,7 @@
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>73</v>
       </c>
@@ -4262,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>74</v>
       </c>
@@ -4419,7 +4384,7 @@
         <v>445616</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4474,7 +4439,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4529,7 +4494,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4584,7 +4549,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>75</v>
       </c>
@@ -4741,7 +4706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4796,7 +4761,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>76</v>
       </c>
@@ -4853,7 +4818,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -5012,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5171,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5330,7 +5295,7 @@
         <v>10606</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5489,7 +5454,7 @@
         <v>72030</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
@@ -5648,7 +5613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
@@ -5807,7 +5772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5966,7 +5931,7 @@
         <v>54046</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
@@ -6125,7 +6090,7 @@
         <v>19609</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>77</v>
       </c>
@@ -6282,7 +6247,7 @@
         <v>156291</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
@@ -6339,7 +6304,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>62</v>
       </c>
@@ -6498,7 +6463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>68</v>
       </c>
@@ -6657,7 +6622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>64</v>
       </c>
@@ -6816,7 +6781,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>65</v>
       </c>
@@ -6975,7 +6940,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>69</v>
       </c>
@@ -7134,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>70</v>
       </c>
@@ -7293,7 +7258,7 @@
         <v>33174</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>79</v>
       </c>
@@ -7450,7 +7415,7 @@
         <v>100174</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>72</v>
       </c>
@@ -7507,7 +7472,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>73</v>
       </c>
@@ -7664,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>80</v>
       </c>
@@ -7721,7 +7686,7 @@
       <c r="BA56" s="17"/>
       <c r="BB56" s="17"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>81</v>
       </c>
@@ -7878,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
@@ -8035,7 +8000,7 @@
         <v>256465</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -8090,7 +8055,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8145,7 +8110,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8200,7 +8165,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>82</v>
       </c>
@@ -8357,7 +8322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8412,7 +8377,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>83</v>
       </c>
@@ -8469,7 +8434,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
@@ -8628,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>59</v>
       </c>
@@ -8787,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -8946,7 +8911,7 @@
         <v>75996</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -9105,7 +9070,7 @@
         <v>554508</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
@@ -9264,7 +9229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>63</v>
       </c>
@@ -9423,7 +9388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>64</v>
       </c>
@@ -9582,7 +9547,7 @@
         <v>387549</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>65</v>
       </c>
@@ -9741,7 +9706,7 @@
         <v>139930</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>77</v>
       </c>
@@ -9898,7 +9863,7 @@
         <v>1157983</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>85</v>
       </c>
@@ -9955,7 +9920,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
@@ -10114,7 +10079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>68</v>
       </c>
@@ -10273,7 +10238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>64</v>
       </c>
@@ -10432,7 +10397,7 @@
         <v>417673</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>65</v>
       </c>
@@ -10591,7 +10556,7 @@
         <v>263516</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>69</v>
       </c>
@@ -10750,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>70</v>
       </c>
@@ -10909,7 +10874,7 @@
         <v>301060</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
         <v>79</v>
       </c>
@@ -11066,7 +11031,7 @@
         <v>982249</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
         <v>86</v>
       </c>
@@ -11123,7 +11088,7 @@
       <c r="BA82" s="17"/>
       <c r="BB82" s="17"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>73</v>
       </c>
@@ -11282,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>87</v>
       </c>
@@ -11339,7 +11304,7 @@
       <c r="BA84" s="17"/>
       <c r="BB84" s="17"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>81</v>
       </c>
@@ -11498,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
@@ -11555,7 +11520,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>89</v>
       </c>
@@ -11714,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
         <v>74</v>
       </c>
@@ -11871,7 +11836,7 @@
         <v>2140232</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11926,7 +11891,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11981,7 +11946,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12036,7 +12001,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>90</v>
       </c>
@@ -12193,7 +12158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12248,7 +12213,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>91</v>
       </c>
@@ -12305,7 +12270,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>60</v>
       </c>
@@ -12464,7 +12429,7 @@
         <v>7165378</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>61</v>
       </c>
@@ -12623,7 +12588,7 @@
         <v>7698292</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>62</v>
       </c>
@@ -12782,7 +12747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>63</v>
       </c>
@@ -12941,7 +12906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>64</v>
       </c>
@@ -13100,7 +13065,7 @@
         <v>7170725</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>65</v>
       </c>
@@ -13259,7 +13224,7 @@
         <v>7136009</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>93</v>
       </c>
@@ -13316,7 +13281,7 @@
       <c r="BA101" s="9"/>
       <c r="BB101" s="9"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>62</v>
       </c>
@@ -13475,7 +13440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>68</v>
       </c>
@@ -13634,7 +13599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>64</v>
       </c>
@@ -13793,7 +13758,7 @@
         <v>9944595</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>65</v>
       </c>
@@ -13952,7 +13917,7 @@
         <v>10540640</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>70</v>
       </c>

--- a/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F0342-C028-4CB8-A1EA-D071CE6CE070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +181,12 @@
     <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -306,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +500,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -511,7 +512,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -558,6 +559,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -593,6 +611,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1478,101 +1513,101 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>160871</v>
+      </c>
+      <c r="X11" s="11">
+        <v>218937</v>
       </c>
       <c r="Y11" s="11">
-        <v>160871</v>
+        <v>233379</v>
       </c>
       <c r="Z11" s="11">
-        <v>218937</v>
+        <v>198862</v>
       </c>
       <c r="AA11" s="11">
-        <v>233379</v>
+        <v>206822</v>
       </c>
       <c r="AB11" s="11">
-        <v>198862</v>
+        <v>197338</v>
       </c>
       <c r="AC11" s="11">
-        <v>206822</v>
+        <v>184979</v>
       </c>
       <c r="AD11" s="11">
-        <v>197338</v>
+        <v>195928</v>
       </c>
       <c r="AE11" s="11">
-        <v>184979</v>
+        <v>229622</v>
       </c>
       <c r="AF11" s="11">
-        <v>195928</v>
+        <v>207845</v>
       </c>
       <c r="AG11" s="11">
-        <v>229622</v>
+        <v>199773</v>
       </c>
       <c r="AH11" s="11">
-        <v>207845</v>
+        <v>216943</v>
       </c>
       <c r="AI11" s="11">
-        <v>199773</v>
+        <v>70917</v>
       </c>
       <c r="AJ11" s="11">
-        <v>216943</v>
+        <v>177576</v>
       </c>
       <c r="AK11" s="11">
-        <v>70917</v>
+        <v>230670</v>
       </c>
       <c r="AL11" s="11">
-        <v>177576</v>
+        <v>222266</v>
       </c>
       <c r="AM11" s="11">
-        <v>230670</v>
+        <v>221725</v>
       </c>
       <c r="AN11" s="11">
-        <v>222266</v>
+        <v>223845</v>
       </c>
       <c r="AO11" s="11">
-        <v>221725</v>
+        <v>216540</v>
       </c>
       <c r="AP11" s="11">
-        <v>223845</v>
+        <v>173373</v>
       </c>
       <c r="AQ11" s="11">
-        <v>216540</v>
+        <v>167997</v>
       </c>
       <c r="AR11" s="11">
-        <v>173373</v>
+        <v>215825</v>
       </c>
       <c r="AS11" s="11">
-        <v>167997</v>
+        <v>187895</v>
       </c>
       <c r="AT11" s="11">
-        <v>215825</v>
+        <v>187170</v>
       </c>
       <c r="AU11" s="11">
-        <v>187895</v>
+        <v>193920</v>
       </c>
       <c r="AV11" s="11">
-        <v>187170</v>
+        <v>166810</v>
       </c>
       <c r="AW11" s="11">
-        <v>193920</v>
+        <v>213003</v>
       </c>
       <c r="AX11" s="11">
-        <v>166810</v>
+        <v>206175</v>
       </c>
       <c r="AY11" s="11">
-        <v>213003</v>
+        <v>218421</v>
       </c>
       <c r="AZ11" s="11">
-        <v>206175</v>
+        <v>233530</v>
       </c>
       <c r="BA11" s="11">
-        <v>218421</v>
+        <v>219115</v>
       </c>
       <c r="BB11" s="11">
-        <v>233530</v>
+        <v>190105</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1637,101 +1672,101 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>138611</v>
+      </c>
+      <c r="X12" s="13">
+        <v>137448</v>
       </c>
       <c r="Y12" s="13">
-        <v>138611</v>
+        <v>165319</v>
       </c>
       <c r="Z12" s="13">
-        <v>137448</v>
+        <v>148209</v>
       </c>
       <c r="AA12" s="13">
-        <v>165319</v>
+        <v>193078</v>
       </c>
       <c r="AB12" s="13">
-        <v>148209</v>
+        <v>123270</v>
       </c>
       <c r="AC12" s="13">
-        <v>193078</v>
+        <v>137075</v>
       </c>
       <c r="AD12" s="13">
-        <v>123270</v>
+        <v>170809</v>
       </c>
       <c r="AE12" s="13">
-        <v>137075</v>
+        <v>169566</v>
       </c>
       <c r="AF12" s="13">
-        <v>170809</v>
+        <v>121106</v>
       </c>
       <c r="AG12" s="13">
-        <v>169566</v>
+        <v>127014</v>
       </c>
       <c r="AH12" s="13">
-        <v>121106</v>
+        <v>124468</v>
       </c>
       <c r="AI12" s="13">
-        <v>127014</v>
+        <v>92253</v>
       </c>
       <c r="AJ12" s="13">
-        <v>124468</v>
+        <v>116609</v>
       </c>
       <c r="AK12" s="13">
-        <v>92253</v>
+        <v>183389</v>
       </c>
       <c r="AL12" s="13">
-        <v>116609</v>
+        <v>165271</v>
       </c>
       <c r="AM12" s="13">
-        <v>183389</v>
+        <v>176681</v>
       </c>
       <c r="AN12" s="13">
-        <v>165271</v>
+        <v>191349</v>
       </c>
       <c r="AO12" s="13">
-        <v>176681</v>
+        <v>162860</v>
       </c>
       <c r="AP12" s="13">
-        <v>191349</v>
+        <v>140080</v>
       </c>
       <c r="AQ12" s="13">
-        <v>162860</v>
+        <v>142800</v>
       </c>
       <c r="AR12" s="13">
-        <v>140080</v>
+        <v>166445</v>
       </c>
       <c r="AS12" s="13">
-        <v>142800</v>
+        <v>144696</v>
       </c>
       <c r="AT12" s="13">
-        <v>166445</v>
+        <v>126349</v>
       </c>
       <c r="AU12" s="13">
-        <v>144696</v>
+        <v>139954</v>
       </c>
       <c r="AV12" s="13">
-        <v>126349</v>
+        <v>73028</v>
       </c>
       <c r="AW12" s="13">
-        <v>139954</v>
+        <v>177939</v>
       </c>
       <c r="AX12" s="13">
-        <v>73028</v>
+        <v>157258</v>
       </c>
       <c r="AY12" s="13">
-        <v>177939</v>
+        <v>195423</v>
       </c>
       <c r="AZ12" s="13">
-        <v>157258</v>
+        <v>212086</v>
       </c>
       <c r="BA12" s="13">
-        <v>195423</v>
+        <v>180905</v>
       </c>
       <c r="BB12" s="13">
-        <v>212086</v>
+        <v>196213</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1859,11 +1894,11 @@
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
+      <c r="AR13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
@@ -2018,11 +2053,11 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
         <v>0</v>
@@ -2114,11 +2149,11 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
       </c>
       <c r="Y15" s="11">
         <v>0</v>
@@ -2141,11 +2176,11 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2300,14 +2335,14 @@
       <c r="AE16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="13" t="s">
-        <v>58</v>
+      <c r="AF16" s="13">
+        <v>0</v>
       </c>
       <c r="AG16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2495,11 +2530,11 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
         <v>0</v>
@@ -2654,11 +2689,11 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
         <v>0</v>
@@ -2749,100 +2784,100 @@
         <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>299482</v>
       </c>
       <c r="X19" s="15">
-        <v>0</v>
+        <v>356385</v>
       </c>
       <c r="Y19" s="15">
-        <v>299482</v>
+        <v>398698</v>
       </c>
       <c r="Z19" s="15">
-        <v>356385</v>
+        <v>347071</v>
       </c>
       <c r="AA19" s="15">
-        <v>398698</v>
+        <v>399900</v>
       </c>
       <c r="AB19" s="15">
-        <v>347071</v>
+        <v>320608</v>
       </c>
       <c r="AC19" s="15">
-        <v>399900</v>
+        <v>322054</v>
       </c>
       <c r="AD19" s="15">
-        <v>320608</v>
+        <v>366737</v>
       </c>
       <c r="AE19" s="15">
-        <v>322054</v>
+        <v>399188</v>
       </c>
       <c r="AF19" s="15">
-        <v>366737</v>
+        <v>328951</v>
       </c>
       <c r="AG19" s="15">
-        <v>399188</v>
+        <v>326787</v>
       </c>
       <c r="AH19" s="15">
-        <v>328951</v>
+        <v>341411</v>
       </c>
       <c r="AI19" s="15">
-        <v>326787</v>
+        <v>163170</v>
       </c>
       <c r="AJ19" s="15">
-        <v>341411</v>
+        <v>294185</v>
       </c>
       <c r="AK19" s="15">
-        <v>163170</v>
+        <v>414059</v>
       </c>
       <c r="AL19" s="15">
-        <v>294185</v>
+        <v>387537</v>
       </c>
       <c r="AM19" s="15">
-        <v>414059</v>
+        <v>398406</v>
       </c>
       <c r="AN19" s="15">
-        <v>387537</v>
+        <v>415194</v>
       </c>
       <c r="AO19" s="15">
-        <v>398406</v>
+        <v>379400</v>
       </c>
       <c r="AP19" s="15">
-        <v>415194</v>
+        <v>313453</v>
       </c>
       <c r="AQ19" s="15">
-        <v>379400</v>
+        <v>310797</v>
       </c>
       <c r="AR19" s="15">
-        <v>313453</v>
+        <v>382270</v>
       </c>
       <c r="AS19" s="15">
-        <v>310797</v>
+        <v>332591</v>
       </c>
       <c r="AT19" s="15">
-        <v>382270</v>
+        <v>313519</v>
       </c>
       <c r="AU19" s="15">
-        <v>332591</v>
+        <v>333874</v>
       </c>
       <c r="AV19" s="15">
-        <v>313519</v>
+        <v>239838</v>
       </c>
       <c r="AW19" s="15">
-        <v>333874</v>
+        <v>390942</v>
       </c>
       <c r="AX19" s="15">
-        <v>239838</v>
+        <v>363433</v>
       </c>
       <c r="AY19" s="15">
-        <v>390942</v>
+        <v>413844</v>
       </c>
       <c r="AZ19" s="15">
-        <v>363433</v>
+        <v>445616</v>
       </c>
       <c r="BA19" s="15">
-        <v>413844</v>
+        <v>400020</v>
       </c>
       <c r="BB19" s="15">
-        <v>445616</v>
+        <v>386318</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
@@ -2964,11 +2999,11 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -2991,11 +3026,11 @@
       <c r="AE21" s="11">
         <v>0</v>
       </c>
-      <c r="AF21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AF21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>58</v>
@@ -3150,14 +3185,14 @@
       <c r="AE22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>58</v>
+      <c r="AF22" s="13">
+        <v>0</v>
       </c>
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13">
-        <v>0</v>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
@@ -3345,11 +3380,11 @@
       <c r="AQ23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>0</v>
       </c>
       <c r="AT23" s="11">
         <v>0</v>
@@ -3504,11 +3539,11 @@
       <c r="AQ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>0</v>
       </c>
       <c r="AT24" s="13">
         <v>0</v>
@@ -3663,11 +3698,11 @@
       <c r="AQ25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS25" s="11" t="s">
-        <v>58</v>
+      <c r="AR25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
         <v>0</v>
@@ -3822,11 +3857,11 @@
       <c r="AQ26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS26" s="13" t="s">
-        <v>58</v>
+      <c r="AR26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>0</v>
       </c>
       <c r="AT26" s="13">
         <v>0</v>
@@ -4130,11 +4165,11 @@
       <c r="V29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>58</v>
+      <c r="W29" s="15">
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <v>0</v>
       </c>
       <c r="Y29" s="15">
         <v>0</v>
@@ -4288,100 +4323,100 @@
         <v>0</v>
       </c>
       <c r="W30" s="19">
-        <v>0</v>
+        <v>299482</v>
       </c>
       <c r="X30" s="19">
-        <v>0</v>
+        <v>356385</v>
       </c>
       <c r="Y30" s="19">
-        <v>299482</v>
+        <v>398698</v>
       </c>
       <c r="Z30" s="19">
-        <v>356385</v>
+        <v>347071</v>
       </c>
       <c r="AA30" s="19">
-        <v>398698</v>
+        <v>399900</v>
       </c>
       <c r="AB30" s="19">
-        <v>347071</v>
+        <v>320608</v>
       </c>
       <c r="AC30" s="19">
-        <v>399900</v>
+        <v>322054</v>
       </c>
       <c r="AD30" s="19">
-        <v>320608</v>
+        <v>366737</v>
       </c>
       <c r="AE30" s="19">
-        <v>322054</v>
+        <v>399188</v>
       </c>
       <c r="AF30" s="19">
-        <v>366737</v>
+        <v>328951</v>
       </c>
       <c r="AG30" s="19">
-        <v>399188</v>
+        <v>326787</v>
       </c>
       <c r="AH30" s="19">
-        <v>328951</v>
+        <v>341411</v>
       </c>
       <c r="AI30" s="19">
-        <v>326787</v>
+        <v>163170</v>
       </c>
       <c r="AJ30" s="19">
-        <v>341411</v>
+        <v>294185</v>
       </c>
       <c r="AK30" s="19">
-        <v>163170</v>
+        <v>414059</v>
       </c>
       <c r="AL30" s="19">
-        <v>294185</v>
+        <v>387537</v>
       </c>
       <c r="AM30" s="19">
-        <v>414059</v>
+        <v>398406</v>
       </c>
       <c r="AN30" s="19">
-        <v>387537</v>
+        <v>415194</v>
       </c>
       <c r="AO30" s="19">
-        <v>398406</v>
+        <v>379400</v>
       </c>
       <c r="AP30" s="19">
-        <v>415194</v>
+        <v>313453</v>
       </c>
       <c r="AQ30" s="19">
-        <v>379400</v>
+        <v>310797</v>
       </c>
       <c r="AR30" s="19">
-        <v>313453</v>
+        <v>382270</v>
       </c>
       <c r="AS30" s="19">
-        <v>310797</v>
+        <v>332591</v>
       </c>
       <c r="AT30" s="19">
-        <v>382270</v>
+        <v>313519</v>
       </c>
       <c r="AU30" s="19">
-        <v>332591</v>
+        <v>333874</v>
       </c>
       <c r="AV30" s="19">
-        <v>313519</v>
+        <v>239838</v>
       </c>
       <c r="AW30" s="19">
-        <v>333874</v>
+        <v>390942</v>
       </c>
       <c r="AX30" s="19">
-        <v>239838</v>
+        <v>363433</v>
       </c>
       <c r="AY30" s="19">
-        <v>390942</v>
+        <v>413844</v>
       </c>
       <c r="AZ30" s="19">
-        <v>363433</v>
+        <v>445616</v>
       </c>
       <c r="BA30" s="19">
-        <v>413844</v>
+        <v>400020</v>
       </c>
       <c r="BB30" s="19">
-        <v>445616</v>
+        <v>386318</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
@@ -4880,11 +4915,11 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
@@ -4910,20 +4945,20 @@
       <c r="AF37" s="11">
         <v>0</v>
       </c>
-      <c r="AG37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="11" t="s">
-        <v>58</v>
+      <c r="AG37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>0</v>
       </c>
       <c r="AJ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK37" s="11">
-        <v>0</v>
+      <c r="AK37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL37" s="11" t="s">
         <v>58</v>
@@ -4943,11 +4978,11 @@
       <c r="AQ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AR37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>0</v>
       </c>
       <c r="AT37" s="11">
         <v>0</v>
@@ -5039,11 +5074,11 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
       </c>
       <c r="Y38" s="13">
         <v>0</v>
@@ -5069,11 +5104,11 @@
       <c r="AF38" s="13">
         <v>0</v>
       </c>
-      <c r="AG38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>0</v>
+      <c r="AG38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -5102,11 +5137,11 @@
       <c r="AQ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="13" t="s">
-        <v>58</v>
+      <c r="AR38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="13">
+        <v>0</v>
       </c>
       <c r="AT38" s="13">
         <v>0</v>
@@ -5261,38 +5296,38 @@
       <c r="AQ39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>58</v>
+      <c r="AR39" s="11">
+        <v>2783</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>4918</v>
       </c>
       <c r="AT39" s="11">
-        <v>2783</v>
+        <v>5808</v>
       </c>
       <c r="AU39" s="11">
-        <v>4918</v>
+        <v>5699</v>
       </c>
       <c r="AV39" s="11">
-        <v>5808</v>
+        <v>2345</v>
       </c>
       <c r="AW39" s="11">
-        <v>5699</v>
+        <v>5832</v>
       </c>
       <c r="AX39" s="11">
-        <v>2345</v>
+        <v>13977</v>
       </c>
       <c r="AY39" s="11">
-        <v>5832</v>
+        <v>8513</v>
       </c>
       <c r="AZ39" s="11">
-        <v>13977</v>
+        <v>10606</v>
       </c>
       <c r="BA39" s="11">
-        <v>8513</v>
+        <v>5696</v>
       </c>
       <c r="BB39" s="11">
-        <v>10606</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -5420,38 +5455,38 @@
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13">
+        <v>50189</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>58213</v>
       </c>
       <c r="AT40" s="13">
-        <v>50189</v>
+        <v>50533</v>
       </c>
       <c r="AU40" s="13">
-        <v>58213</v>
+        <v>62394</v>
       </c>
       <c r="AV40" s="13">
-        <v>50533</v>
+        <v>39837</v>
       </c>
       <c r="AW40" s="13">
-        <v>62394</v>
+        <v>57218</v>
       </c>
       <c r="AX40" s="13">
-        <v>39837</v>
+        <v>53208</v>
       </c>
       <c r="AY40" s="13">
-        <v>57218</v>
+        <v>75630</v>
       </c>
       <c r="AZ40" s="13">
-        <v>53208</v>
+        <v>72030</v>
       </c>
       <c r="BA40" s="13">
-        <v>75630</v>
+        <v>53105</v>
       </c>
       <c r="BB40" s="13">
-        <v>72030</v>
+        <v>71846</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -5516,38 +5551,38 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>137751</v>
+      </c>
+      <c r="X41" s="11">
+        <v>83863</v>
       </c>
       <c r="Y41" s="11">
-        <v>137751</v>
+        <v>109532</v>
       </c>
       <c r="Z41" s="11">
-        <v>83863</v>
+        <v>124500</v>
       </c>
       <c r="AA41" s="11">
-        <v>109532</v>
+        <v>155260</v>
       </c>
       <c r="AB41" s="11">
-        <v>124500</v>
+        <v>119168</v>
       </c>
       <c r="AC41" s="11">
-        <v>155260</v>
+        <v>129264</v>
       </c>
       <c r="AD41" s="11">
-        <v>119168</v>
+        <v>107491</v>
       </c>
       <c r="AE41" s="11">
-        <v>129264</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>107491</v>
-      </c>
-      <c r="AG41" s="11">
         <v>139490</v>
+      </c>
+      <c r="AF41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>58</v>
@@ -5702,47 +5737,47 @@
       <c r="AE42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>58</v>
+      <c r="AF42" s="13">
+        <v>88925</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>130220</v>
       </c>
       <c r="AH42" s="13">
-        <v>88925</v>
+        <v>122962</v>
       </c>
       <c r="AI42" s="13">
-        <v>130220</v>
+        <v>55575</v>
       </c>
       <c r="AJ42" s="13">
-        <v>122962</v>
+        <v>96042</v>
       </c>
       <c r="AK42" s="13">
-        <v>55575</v>
+        <v>137362</v>
       </c>
       <c r="AL42" s="13">
-        <v>96042</v>
+        <v>129027</v>
       </c>
       <c r="AM42" s="13">
-        <v>137362</v>
+        <v>146476</v>
       </c>
       <c r="AN42" s="13">
-        <v>129027</v>
+        <v>133770</v>
       </c>
       <c r="AO42" s="13">
-        <v>146476</v>
+        <v>114993</v>
       </c>
       <c r="AP42" s="13">
-        <v>133770</v>
+        <v>120925</v>
       </c>
       <c r="AQ42" s="13">
-        <v>114993</v>
-      </c>
-      <c r="AR42" s="13">
-        <v>120925</v>
-      </c>
-      <c r="AS42" s="13">
         <v>112059</v>
+      </c>
+      <c r="AR42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>58</v>
@@ -5897,38 +5932,38 @@
       <c r="AQ43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS43" s="11" t="s">
-        <v>58</v>
+      <c r="AR43" s="11">
+        <v>43543</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>44358</v>
       </c>
       <c r="AT43" s="11">
-        <v>43543</v>
+        <v>42874</v>
       </c>
       <c r="AU43" s="11">
-        <v>44358</v>
+        <v>43965</v>
       </c>
       <c r="AV43" s="11">
-        <v>42874</v>
+        <v>33802</v>
       </c>
       <c r="AW43" s="11">
-        <v>43965</v>
+        <v>40313</v>
       </c>
       <c r="AX43" s="11">
-        <v>33802</v>
+        <v>30011</v>
       </c>
       <c r="AY43" s="11">
-        <v>40313</v>
+        <v>41529</v>
       </c>
       <c r="AZ43" s="11">
-        <v>30011</v>
+        <v>54046</v>
       </c>
       <c r="BA43" s="11">
-        <v>41529</v>
+        <v>43409</v>
       </c>
       <c r="BB43" s="11">
-        <v>54046</v>
+        <v>51823</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -6056,38 +6091,38 @@
       <c r="AQ44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS44" s="13" t="s">
-        <v>58</v>
+      <c r="AR44" s="13">
+        <v>7836</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>13046</v>
       </c>
       <c r="AT44" s="13">
-        <v>7836</v>
+        <v>16474</v>
       </c>
       <c r="AU44" s="13">
-        <v>13046</v>
+        <v>12446</v>
       </c>
       <c r="AV44" s="13">
-        <v>16474</v>
+        <v>10273</v>
       </c>
       <c r="AW44" s="13">
-        <v>12446</v>
+        <v>21767</v>
       </c>
       <c r="AX44" s="13">
-        <v>10273</v>
+        <v>29005</v>
       </c>
       <c r="AY44" s="13">
-        <v>21767</v>
+        <v>17357</v>
       </c>
       <c r="AZ44" s="13">
-        <v>29005</v>
+        <v>19609</v>
       </c>
       <c r="BA44" s="13">
-        <v>17357</v>
+        <v>14311</v>
       </c>
       <c r="BB44" s="13">
-        <v>19609</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
@@ -6151,100 +6186,100 @@
         <v>0</v>
       </c>
       <c r="W45" s="15">
-        <v>0</v>
+        <v>137751</v>
       </c>
       <c r="X45" s="15">
-        <v>0</v>
+        <v>83863</v>
       </c>
       <c r="Y45" s="15">
-        <v>137751</v>
+        <v>109532</v>
       </c>
       <c r="Z45" s="15">
-        <v>83863</v>
+        <v>124500</v>
       </c>
       <c r="AA45" s="15">
-        <v>109532</v>
+        <v>155260</v>
       </c>
       <c r="AB45" s="15">
-        <v>124500</v>
+        <v>119168</v>
       </c>
       <c r="AC45" s="15">
-        <v>155260</v>
+        <v>129264</v>
       </c>
       <c r="AD45" s="15">
-        <v>119168</v>
+        <v>107491</v>
       </c>
       <c r="AE45" s="15">
-        <v>129264</v>
+        <v>139490</v>
       </c>
       <c r="AF45" s="15">
-        <v>107491</v>
+        <v>88925</v>
       </c>
       <c r="AG45" s="15">
-        <v>139490</v>
+        <v>130220</v>
       </c>
       <c r="AH45" s="15">
-        <v>88925</v>
+        <v>122962</v>
       </c>
       <c r="AI45" s="15">
-        <v>130220</v>
+        <v>55575</v>
       </c>
       <c r="AJ45" s="15">
-        <v>122962</v>
+        <v>96042</v>
       </c>
       <c r="AK45" s="15">
-        <v>55575</v>
+        <v>137362</v>
       </c>
       <c r="AL45" s="15">
-        <v>96042</v>
+        <v>129027</v>
       </c>
       <c r="AM45" s="15">
-        <v>137362</v>
+        <v>146476</v>
       </c>
       <c r="AN45" s="15">
-        <v>129027</v>
+        <v>133770</v>
       </c>
       <c r="AO45" s="15">
-        <v>146476</v>
+        <v>114993</v>
       </c>
       <c r="AP45" s="15">
-        <v>133770</v>
+        <v>120925</v>
       </c>
       <c r="AQ45" s="15">
-        <v>114993</v>
+        <v>112059</v>
       </c>
       <c r="AR45" s="15">
-        <v>120925</v>
+        <v>104351</v>
       </c>
       <c r="AS45" s="15">
-        <v>112059</v>
+        <v>120535</v>
       </c>
       <c r="AT45" s="15">
-        <v>104351</v>
+        <v>115689</v>
       </c>
       <c r="AU45" s="15">
-        <v>120535</v>
+        <v>124504</v>
       </c>
       <c r="AV45" s="15">
-        <v>115689</v>
+        <v>86257</v>
       </c>
       <c r="AW45" s="15">
-        <v>124504</v>
+        <v>125130</v>
       </c>
       <c r="AX45" s="15">
-        <v>86257</v>
+        <v>126201</v>
       </c>
       <c r="AY45" s="15">
-        <v>125130</v>
+        <v>143029</v>
       </c>
       <c r="AZ45" s="15">
-        <v>126201</v>
+        <v>156291</v>
       </c>
       <c r="BA45" s="15">
-        <v>143029</v>
+        <v>116521</v>
       </c>
       <c r="BB45" s="15">
-        <v>156291</v>
+        <v>146264</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
@@ -6366,38 +6401,38 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>84355</v>
+      </c>
+      <c r="X47" s="11">
+        <v>166398</v>
       </c>
       <c r="Y47" s="11">
-        <v>84355</v>
+        <v>125909</v>
       </c>
       <c r="Z47" s="11">
-        <v>166398</v>
+        <v>60458</v>
       </c>
       <c r="AA47" s="11">
-        <v>125909</v>
+        <v>76382</v>
       </c>
       <c r="AB47" s="11">
-        <v>60458</v>
+        <v>87816</v>
       </c>
       <c r="AC47" s="11">
-        <v>76382</v>
+        <v>68042</v>
       </c>
       <c r="AD47" s="11">
-        <v>87816</v>
+        <v>88671</v>
       </c>
       <c r="AE47" s="11">
-        <v>68042</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>88671</v>
-      </c>
-      <c r="AG47" s="11">
         <v>133759</v>
+      </c>
+      <c r="AF47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>58</v>
@@ -6552,47 +6587,47 @@
       <c r="AE48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>58</v>
+      <c r="AF48" s="13">
+        <v>79292</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>101570</v>
       </c>
       <c r="AH48" s="13">
-        <v>79292</v>
+        <v>58129</v>
       </c>
       <c r="AI48" s="13">
-        <v>101570</v>
+        <v>30651</v>
       </c>
       <c r="AJ48" s="13">
-        <v>58129</v>
+        <v>27000</v>
       </c>
       <c r="AK48" s="13">
-        <v>30651</v>
+        <v>115491</v>
       </c>
       <c r="AL48" s="13">
-        <v>27000</v>
+        <v>105237</v>
       </c>
       <c r="AM48" s="13">
-        <v>115491</v>
+        <v>134001</v>
       </c>
       <c r="AN48" s="13">
-        <v>105237</v>
+        <v>149635</v>
       </c>
       <c r="AO48" s="13">
-        <v>134001</v>
+        <v>103486</v>
       </c>
       <c r="AP48" s="13">
-        <v>149635</v>
+        <v>74404</v>
       </c>
       <c r="AQ48" s="13">
-        <v>103486</v>
-      </c>
-      <c r="AR48" s="13">
-        <v>74404</v>
-      </c>
-      <c r="AS48" s="13">
         <v>73341</v>
+      </c>
+      <c r="AR48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT48" s="13" t="s">
         <v>58</v>
@@ -6747,38 +6782,38 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11">
+        <v>50500</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>20000</v>
       </c>
       <c r="AT49" s="11">
-        <v>50500</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="11">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="11">
         <v>0</v>
       </c>
       <c r="AW49" s="11">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="AX49" s="11">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AY49" s="11">
-        <v>25000</v>
+        <v>38500</v>
       </c>
       <c r="AZ49" s="11">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="BA49" s="11">
-        <v>38500</v>
+        <v>42000</v>
       </c>
       <c r="BB49" s="11">
-        <v>42000</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
@@ -6906,38 +6941,38 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>7000</v>
       </c>
       <c r="AT50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="13">
         <v>10000</v>
       </c>
-      <c r="AU50" s="13">
-        <v>7000</v>
-      </c>
-      <c r="AV50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW50" s="13">
-        <v>0</v>
-      </c>
       <c r="AX50" s="13">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="AY50" s="13">
-        <v>10000</v>
+        <v>28500</v>
       </c>
       <c r="AZ50" s="13">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="BA50" s="13">
-        <v>28500</v>
+        <v>25000</v>
       </c>
       <c r="BB50" s="13">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
@@ -7065,11 +7100,11 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="11" t="s">
-        <v>58</v>
+      <c r="AR51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="11">
+        <v>0</v>
       </c>
       <c r="AT51" s="11">
         <v>0</v>
@@ -7224,38 +7259,38 @@
       <c r="AQ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS52" s="13" t="s">
-        <v>58</v>
+      <c r="AR52" s="13">
+        <v>60360</v>
+      </c>
+      <c r="AS52" s="13">
+        <v>48384</v>
       </c>
       <c r="AT52" s="13">
-        <v>60360</v>
+        <v>40882</v>
       </c>
       <c r="AU52" s="13">
-        <v>48384</v>
+        <v>36245</v>
       </c>
       <c r="AV52" s="13">
-        <v>40882</v>
+        <v>61048</v>
       </c>
       <c r="AW52" s="13">
-        <v>36245</v>
+        <v>85770</v>
       </c>
       <c r="AX52" s="13">
-        <v>61048</v>
+        <v>55156</v>
       </c>
       <c r="AY52" s="13">
-        <v>85770</v>
+        <v>62557</v>
       </c>
       <c r="AZ52" s="13">
-        <v>55156</v>
+        <v>33174</v>
       </c>
       <c r="BA52" s="13">
-        <v>62557</v>
+        <v>37095</v>
       </c>
       <c r="BB52" s="13">
-        <v>33174</v>
+        <v>21255</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -7319,100 +7354,100 @@
         <v>0</v>
       </c>
       <c r="W53" s="15">
-        <v>0</v>
+        <v>84355</v>
       </c>
       <c r="X53" s="15">
-        <v>0</v>
+        <v>166398</v>
       </c>
       <c r="Y53" s="15">
-        <v>84355</v>
+        <v>125909</v>
       </c>
       <c r="Z53" s="15">
-        <v>166398</v>
+        <v>60458</v>
       </c>
       <c r="AA53" s="15">
-        <v>125909</v>
+        <v>76382</v>
       </c>
       <c r="AB53" s="15">
-        <v>60458</v>
+        <v>87816</v>
       </c>
       <c r="AC53" s="15">
-        <v>76382</v>
+        <v>68042</v>
       </c>
       <c r="AD53" s="15">
-        <v>87816</v>
+        <v>88671</v>
       </c>
       <c r="AE53" s="15">
-        <v>68042</v>
+        <v>133759</v>
       </c>
       <c r="AF53" s="15">
-        <v>88671</v>
+        <v>79292</v>
       </c>
       <c r="AG53" s="15">
-        <v>133759</v>
+        <v>101570</v>
       </c>
       <c r="AH53" s="15">
-        <v>79292</v>
+        <v>58129</v>
       </c>
       <c r="AI53" s="15">
-        <v>101570</v>
+        <v>30651</v>
       </c>
       <c r="AJ53" s="15">
-        <v>58129</v>
+        <v>27000</v>
       </c>
       <c r="AK53" s="15">
-        <v>30651</v>
+        <v>115491</v>
       </c>
       <c r="AL53" s="15">
-        <v>27000</v>
+        <v>105237</v>
       </c>
       <c r="AM53" s="15">
-        <v>115491</v>
+        <v>134001</v>
       </c>
       <c r="AN53" s="15">
-        <v>105237</v>
+        <v>149635</v>
       </c>
       <c r="AO53" s="15">
-        <v>134001</v>
+        <v>103486</v>
       </c>
       <c r="AP53" s="15">
-        <v>149635</v>
+        <v>74404</v>
       </c>
       <c r="AQ53" s="15">
-        <v>103486</v>
+        <v>73341</v>
       </c>
       <c r="AR53" s="15">
-        <v>74404</v>
+        <v>120860</v>
       </c>
       <c r="AS53" s="15">
-        <v>73341</v>
+        <v>75384</v>
       </c>
       <c r="AT53" s="15">
-        <v>120860</v>
+        <v>40882</v>
       </c>
       <c r="AU53" s="15">
-        <v>75384</v>
+        <v>36245</v>
       </c>
       <c r="AV53" s="15">
-        <v>40882</v>
+        <v>61048</v>
       </c>
       <c r="AW53" s="15">
-        <v>36245</v>
+        <v>120770</v>
       </c>
       <c r="AX53" s="15">
-        <v>61048</v>
+        <v>90156</v>
       </c>
       <c r="AY53" s="15">
-        <v>120770</v>
+        <v>129557</v>
       </c>
       <c r="AZ53" s="15">
-        <v>90156</v>
+        <v>100174</v>
       </c>
       <c r="BA53" s="15">
-        <v>129557</v>
+        <v>104095</v>
       </c>
       <c r="BB53" s="15">
-        <v>100174</v>
+        <v>88255</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
@@ -7532,11 +7567,11 @@
       <c r="V55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="15" t="s">
-        <v>58</v>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+      <c r="X55" s="15">
+        <v>0</v>
       </c>
       <c r="Y55" s="15">
         <v>0</v>
@@ -7746,11 +7781,11 @@
       <c r="V57" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>58</v>
+      <c r="W57" s="15">
+        <v>0</v>
+      </c>
+      <c r="X57" s="15">
+        <v>0</v>
       </c>
       <c r="Y57" s="15">
         <v>0</v>
@@ -7904,100 +7939,100 @@
         <v>0</v>
       </c>
       <c r="W58" s="19">
-        <v>0</v>
+        <v>222106</v>
       </c>
       <c r="X58" s="19">
-        <v>0</v>
+        <v>250261</v>
       </c>
       <c r="Y58" s="19">
-        <v>222106</v>
+        <v>235441</v>
       </c>
       <c r="Z58" s="19">
-        <v>250261</v>
+        <v>184958</v>
       </c>
       <c r="AA58" s="19">
-        <v>235441</v>
+        <v>231642</v>
       </c>
       <c r="AB58" s="19">
-        <v>184958</v>
+        <v>206984</v>
       </c>
       <c r="AC58" s="19">
-        <v>231642</v>
+        <v>197306</v>
       </c>
       <c r="AD58" s="19">
-        <v>206984</v>
+        <v>196162</v>
       </c>
       <c r="AE58" s="19">
-        <v>197306</v>
+        <v>273249</v>
       </c>
       <c r="AF58" s="19">
-        <v>196162</v>
+        <v>168217</v>
       </c>
       <c r="AG58" s="19">
-        <v>273249</v>
+        <v>231790</v>
       </c>
       <c r="AH58" s="19">
-        <v>168217</v>
+        <v>181091</v>
       </c>
       <c r="AI58" s="19">
-        <v>231790</v>
+        <v>86226</v>
       </c>
       <c r="AJ58" s="19">
-        <v>181091</v>
+        <v>123042</v>
       </c>
       <c r="AK58" s="19">
-        <v>86226</v>
+        <v>252853</v>
       </c>
       <c r="AL58" s="19">
-        <v>123042</v>
+        <v>234264</v>
       </c>
       <c r="AM58" s="19">
-        <v>252853</v>
+        <v>280477</v>
       </c>
       <c r="AN58" s="19">
-        <v>234264</v>
+        <v>283405</v>
       </c>
       <c r="AO58" s="19">
-        <v>280477</v>
+        <v>218479</v>
       </c>
       <c r="AP58" s="19">
-        <v>283405</v>
+        <v>195329</v>
       </c>
       <c r="AQ58" s="19">
-        <v>218479</v>
+        <v>185400</v>
       </c>
       <c r="AR58" s="19">
-        <v>195329</v>
+        <v>225211</v>
       </c>
       <c r="AS58" s="19">
-        <v>185400</v>
+        <v>195919</v>
       </c>
       <c r="AT58" s="19">
-        <v>225211</v>
+        <v>156571</v>
       </c>
       <c r="AU58" s="19">
-        <v>195919</v>
+        <v>160749</v>
       </c>
       <c r="AV58" s="19">
-        <v>156571</v>
+        <v>147305</v>
       </c>
       <c r="AW58" s="19">
-        <v>160749</v>
+        <v>245900</v>
       </c>
       <c r="AX58" s="19">
-        <v>147305</v>
+        <v>216357</v>
       </c>
       <c r="AY58" s="19">
-        <v>245900</v>
+        <v>272586</v>
       </c>
       <c r="AZ58" s="19">
-        <v>216357</v>
+        <v>256465</v>
       </c>
       <c r="BA58" s="19">
-        <v>272586</v>
+        <v>220616</v>
       </c>
       <c r="BB58" s="19">
-        <v>256465</v>
+        <v>234519</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
@@ -8496,11 +8531,11 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>0</v>
+      </c>
+      <c r="X65" s="11">
+        <v>0</v>
       </c>
       <c r="Y65" s="11">
         <v>0</v>
@@ -8655,11 +8690,11 @@
       <c r="V66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="W66" s="13">
+        <v>0</v>
+      </c>
+      <c r="X66" s="13">
+        <v>0</v>
       </c>
       <c r="Y66" s="13">
         <v>0</v>
@@ -8877,38 +8912,38 @@
       <c r="AQ67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS67" s="11" t="s">
-        <v>58</v>
+      <c r="AR67" s="11">
+        <v>15951</v>
+      </c>
+      <c r="AS67" s="11">
+        <v>27656</v>
       </c>
       <c r="AT67" s="11">
-        <v>15951</v>
+        <v>35488</v>
       </c>
       <c r="AU67" s="11">
-        <v>27656</v>
+        <v>40761</v>
       </c>
       <c r="AV67" s="11">
-        <v>35488</v>
+        <v>16790</v>
       </c>
       <c r="AW67" s="11">
-        <v>40761</v>
+        <v>37978</v>
       </c>
       <c r="AX67" s="11">
-        <v>16790</v>
+        <v>82648</v>
       </c>
       <c r="AY67" s="11">
-        <v>37978</v>
+        <v>57120</v>
       </c>
       <c r="AZ67" s="11">
-        <v>82648</v>
+        <v>75996</v>
       </c>
       <c r="BA67" s="11">
-        <v>57120</v>
+        <v>42711</v>
       </c>
       <c r="BB67" s="11">
-        <v>75996</v>
+        <v>61376</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -9036,38 +9071,38 @@
       <c r="AQ68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS68" s="13" t="s">
-        <v>58</v>
+      <c r="AR68" s="13">
+        <v>316878</v>
+      </c>
+      <c r="AS68" s="13">
+        <v>368851</v>
       </c>
       <c r="AT68" s="13">
-        <v>316878</v>
+        <v>333513</v>
       </c>
       <c r="AU68" s="13">
-        <v>368851</v>
+        <v>459273</v>
       </c>
       <c r="AV68" s="13">
-        <v>333513</v>
+        <v>280899</v>
       </c>
       <c r="AW68" s="13">
-        <v>459273</v>
+        <v>398610</v>
       </c>
       <c r="AX68" s="13">
-        <v>280899</v>
+        <v>377322</v>
       </c>
       <c r="AY68" s="13">
-        <v>398610</v>
+        <v>559493</v>
       </c>
       <c r="AZ68" s="13">
-        <v>377322</v>
+        <v>554508</v>
       </c>
       <c r="BA68" s="13">
-        <v>559493</v>
+        <v>425655</v>
       </c>
       <c r="BB68" s="13">
-        <v>554508</v>
+        <v>543198</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.25">
@@ -9132,38 +9167,38 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>320063</v>
+      </c>
+      <c r="X69" s="11">
+        <v>193059</v>
       </c>
       <c r="Y69" s="11">
-        <v>320063</v>
+        <v>260759</v>
       </c>
       <c r="Z69" s="11">
-        <v>193059</v>
+        <v>323171</v>
       </c>
       <c r="AA69" s="11">
-        <v>260759</v>
+        <v>425775</v>
       </c>
       <c r="AB69" s="11">
-        <v>323171</v>
+        <v>325136</v>
       </c>
       <c r="AC69" s="11">
-        <v>425775</v>
+        <v>349645</v>
       </c>
       <c r="AD69" s="11">
-        <v>325136</v>
+        <v>284538</v>
       </c>
       <c r="AE69" s="11">
-        <v>349645</v>
-      </c>
-      <c r="AF69" s="11">
-        <v>284538</v>
-      </c>
-      <c r="AG69" s="11">
         <v>366241</v>
+      </c>
+      <c r="AF69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH69" s="11" t="s">
         <v>58</v>
@@ -9318,47 +9353,47 @@
       <c r="AE70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG70" s="13" t="s">
-        <v>58</v>
+      <c r="AF70" s="13">
+        <v>236434</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>481290</v>
       </c>
       <c r="AH70" s="13">
-        <v>236434</v>
+        <v>471921</v>
       </c>
       <c r="AI70" s="13">
-        <v>481290</v>
+        <v>221291</v>
       </c>
       <c r="AJ70" s="13">
-        <v>471921</v>
+        <v>448266</v>
       </c>
       <c r="AK70" s="13">
-        <v>221291</v>
+        <v>637426</v>
       </c>
       <c r="AL70" s="13">
-        <v>448266</v>
+        <v>549913</v>
       </c>
       <c r="AM70" s="13">
-        <v>637426</v>
+        <v>619945</v>
       </c>
       <c r="AN70" s="13">
-        <v>549913</v>
+        <v>626143</v>
       </c>
       <c r="AO70" s="13">
-        <v>619945</v>
+        <v>551198</v>
       </c>
       <c r="AP70" s="13">
-        <v>626143</v>
+        <v>557384</v>
       </c>
       <c r="AQ70" s="13">
-        <v>551198</v>
-      </c>
-      <c r="AR70" s="13">
-        <v>557384</v>
-      </c>
-      <c r="AS70" s="13">
         <v>554624</v>
+      </c>
+      <c r="AR70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>58</v>
@@ -9513,38 +9548,38 @@
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AR71" s="11">
+        <v>200040</v>
+      </c>
+      <c r="AS71" s="11">
+        <v>206246</v>
       </c>
       <c r="AT71" s="11">
-        <v>200040</v>
+        <v>208862</v>
       </c>
       <c r="AU71" s="11">
-        <v>206246</v>
+        <v>328561</v>
       </c>
       <c r="AV71" s="11">
-        <v>208862</v>
+        <v>237733</v>
       </c>
       <c r="AW71" s="11">
-        <v>328561</v>
+        <v>281520</v>
       </c>
       <c r="AX71" s="11">
-        <v>237733</v>
+        <v>212260</v>
       </c>
       <c r="AY71" s="11">
-        <v>281520</v>
+        <v>300705</v>
       </c>
       <c r="AZ71" s="11">
-        <v>212260</v>
+        <v>387549</v>
       </c>
       <c r="BA71" s="11">
-        <v>300705</v>
+        <v>301603</v>
       </c>
       <c r="BB71" s="11">
-        <v>387549</v>
+        <v>354851</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.25">
@@ -9672,38 +9707,38 @@
       <c r="AQ72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS72" s="13" t="s">
-        <v>58</v>
+      <c r="AR72" s="13">
+        <v>36950</v>
+      </c>
+      <c r="AS72" s="13">
+        <v>58789</v>
       </c>
       <c r="AT72" s="13">
-        <v>36950</v>
+        <v>81680</v>
       </c>
       <c r="AU72" s="13">
-        <v>58789</v>
+        <v>77458</v>
       </c>
       <c r="AV72" s="13">
-        <v>81680</v>
+        <v>65418</v>
       </c>
       <c r="AW72" s="13">
-        <v>77458</v>
+        <v>138346</v>
       </c>
       <c r="AX72" s="13">
-        <v>65418</v>
+        <v>175706</v>
       </c>
       <c r="AY72" s="13">
-        <v>138346</v>
+        <v>124192</v>
       </c>
       <c r="AZ72" s="13">
-        <v>175706</v>
+        <v>139930</v>
       </c>
       <c r="BA72" s="13">
-        <v>124192</v>
+        <v>101000</v>
       </c>
       <c r="BB72" s="13">
-        <v>139930</v>
+        <v>98421</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.25">
@@ -9767,100 +9802,100 @@
         <v>0</v>
       </c>
       <c r="W73" s="15">
-        <v>0</v>
+        <v>320063</v>
       </c>
       <c r="X73" s="15">
-        <v>0</v>
+        <v>193059</v>
       </c>
       <c r="Y73" s="15">
-        <v>320063</v>
+        <v>260759</v>
       </c>
       <c r="Z73" s="15">
-        <v>193059</v>
+        <v>323171</v>
       </c>
       <c r="AA73" s="15">
-        <v>260759</v>
+        <v>425775</v>
       </c>
       <c r="AB73" s="15">
-        <v>323171</v>
+        <v>325136</v>
       </c>
       <c r="AC73" s="15">
-        <v>425775</v>
+        <v>349645</v>
       </c>
       <c r="AD73" s="15">
-        <v>325136</v>
+        <v>284538</v>
       </c>
       <c r="AE73" s="15">
-        <v>349645</v>
+        <v>366241</v>
       </c>
       <c r="AF73" s="15">
-        <v>284538</v>
+        <v>236434</v>
       </c>
       <c r="AG73" s="15">
-        <v>366241</v>
+        <v>481290</v>
       </c>
       <c r="AH73" s="15">
-        <v>236434</v>
+        <v>471921</v>
       </c>
       <c r="AI73" s="15">
-        <v>481290</v>
+        <v>221291</v>
       </c>
       <c r="AJ73" s="15">
-        <v>471921</v>
+        <v>448266</v>
       </c>
       <c r="AK73" s="15">
-        <v>221291</v>
+        <v>637426</v>
       </c>
       <c r="AL73" s="15">
-        <v>448266</v>
+        <v>549913</v>
       </c>
       <c r="AM73" s="15">
-        <v>637426</v>
+        <v>619945</v>
       </c>
       <c r="AN73" s="15">
-        <v>549913</v>
+        <v>626143</v>
       </c>
       <c r="AO73" s="15">
-        <v>619945</v>
+        <v>551198</v>
       </c>
       <c r="AP73" s="15">
-        <v>626143</v>
+        <v>557384</v>
       </c>
       <c r="AQ73" s="15">
-        <v>551198</v>
+        <v>554624</v>
       </c>
       <c r="AR73" s="15">
-        <v>557384</v>
+        <v>569819</v>
       </c>
       <c r="AS73" s="15">
-        <v>554624</v>
+        <v>661542</v>
       </c>
       <c r="AT73" s="15">
-        <v>569819</v>
+        <v>659543</v>
       </c>
       <c r="AU73" s="15">
-        <v>661542</v>
+        <v>906053</v>
       </c>
       <c r="AV73" s="15">
-        <v>659543</v>
+        <v>600840</v>
       </c>
       <c r="AW73" s="15">
-        <v>906053</v>
+        <v>856454</v>
       </c>
       <c r="AX73" s="15">
-        <v>600840</v>
+        <v>847936</v>
       </c>
       <c r="AY73" s="15">
-        <v>856454</v>
+        <v>1041510</v>
       </c>
       <c r="AZ73" s="15">
-        <v>847936</v>
+        <v>1157983</v>
       </c>
       <c r="BA73" s="15">
-        <v>1041510</v>
+        <v>870969</v>
       </c>
       <c r="BB73" s="15">
-        <v>1157983</v>
+        <v>1057846</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
@@ -9982,38 +10017,38 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>276110</v>
+      </c>
+      <c r="X75" s="11">
+        <v>744122</v>
       </c>
       <c r="Y75" s="11">
-        <v>276110</v>
+        <v>551344</v>
       </c>
       <c r="Z75" s="11">
-        <v>744122</v>
+        <v>250351</v>
       </c>
       <c r="AA75" s="11">
-        <v>551344</v>
+        <v>398494</v>
       </c>
       <c r="AB75" s="11">
-        <v>250351</v>
+        <v>431004</v>
       </c>
       <c r="AC75" s="11">
-        <v>398494</v>
+        <v>389440</v>
       </c>
       <c r="AD75" s="11">
-        <v>431004</v>
+        <v>458141</v>
       </c>
       <c r="AE75" s="11">
-        <v>389440</v>
-      </c>
-      <c r="AF75" s="11">
-        <v>458141</v>
-      </c>
-      <c r="AG75" s="11">
         <v>593912</v>
+      </c>
+      <c r="AF75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH75" s="11" t="s">
         <v>58</v>
@@ -10168,47 +10203,47 @@
       <c r="AE76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>58</v>
+      <c r="AF76" s="13">
+        <v>410543</v>
+      </c>
+      <c r="AG76" s="13">
+        <v>486464</v>
       </c>
       <c r="AH76" s="13">
-        <v>410543</v>
+        <v>294131</v>
       </c>
       <c r="AI76" s="13">
-        <v>486464</v>
+        <v>195680</v>
       </c>
       <c r="AJ76" s="13">
-        <v>294131</v>
+        <v>202745</v>
       </c>
       <c r="AK76" s="13">
-        <v>195680</v>
+        <v>813197</v>
       </c>
       <c r="AL76" s="13">
-        <v>202745</v>
+        <v>759445</v>
       </c>
       <c r="AM76" s="13">
-        <v>813197</v>
+        <v>924241</v>
       </c>
       <c r="AN76" s="13">
-        <v>759445</v>
+        <v>1051376</v>
       </c>
       <c r="AO76" s="13">
-        <v>924241</v>
+        <v>726992</v>
       </c>
       <c r="AP76" s="13">
-        <v>1051376</v>
+        <v>510285</v>
       </c>
       <c r="AQ76" s="13">
-        <v>726992</v>
-      </c>
-      <c r="AR76" s="13">
-        <v>510285</v>
-      </c>
-      <c r="AS76" s="13">
         <v>493183</v>
+      </c>
+      <c r="AR76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT76" s="13" t="s">
         <v>58</v>
@@ -10363,38 +10398,38 @@
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="11" t="s">
-        <v>58</v>
+      <c r="AR77" s="11">
+        <v>354483</v>
+      </c>
+      <c r="AS77" s="11">
+        <v>157813</v>
       </c>
       <c r="AT77" s="11">
-        <v>354483</v>
+        <v>0</v>
       </c>
       <c r="AU77" s="11">
-        <v>157813</v>
+        <v>0</v>
       </c>
       <c r="AV77" s="11">
         <v>0</v>
       </c>
       <c r="AW77" s="11">
-        <v>0</v>
+        <v>214461</v>
       </c>
       <c r="AX77" s="11">
-        <v>0</v>
+        <v>247416</v>
       </c>
       <c r="AY77" s="11">
-        <v>214461</v>
+        <v>363974</v>
       </c>
       <c r="AZ77" s="11">
-        <v>247416</v>
+        <v>417673</v>
       </c>
       <c r="BA77" s="11">
-        <v>363974</v>
+        <v>391455</v>
       </c>
       <c r="BB77" s="11">
-        <v>417673</v>
+        <v>680994</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
@@ -10522,38 +10557,38 @@
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>58</v>
+      <c r="AR78" s="13">
+        <v>75345</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>58798</v>
       </c>
       <c r="AT78" s="13">
-        <v>75345</v>
+        <v>0</v>
       </c>
       <c r="AU78" s="13">
-        <v>58798</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="13">
         <v>0</v>
       </c>
       <c r="AW78" s="13">
-        <v>0</v>
+        <v>91146</v>
       </c>
       <c r="AX78" s="13">
-        <v>0</v>
+        <v>77890</v>
       </c>
       <c r="AY78" s="13">
-        <v>91146</v>
+        <v>289249</v>
       </c>
       <c r="AZ78" s="13">
-        <v>77890</v>
+        <v>263516</v>
       </c>
       <c r="BA78" s="13">
-        <v>289249</v>
+        <v>247131</v>
       </c>
       <c r="BB78" s="13">
-        <v>263516</v>
+        <v>307348</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
@@ -10681,11 +10716,11 @@
       <c r="AQ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS79" s="11" t="s">
-        <v>58</v>
+      <c r="AR79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="11">
+        <v>0</v>
       </c>
       <c r="AT79" s="11">
         <v>0</v>
@@ -10840,38 +10875,38 @@
       <c r="AQ80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS80" s="13" t="s">
-        <v>58</v>
+      <c r="AR80" s="13">
+        <v>393945</v>
+      </c>
+      <c r="AS80" s="13">
+        <v>333814</v>
       </c>
       <c r="AT80" s="13">
-        <v>393945</v>
+        <v>279551</v>
       </c>
       <c r="AU80" s="13">
-        <v>333814</v>
+        <v>300194</v>
       </c>
       <c r="AV80" s="13">
-        <v>279551</v>
+        <v>523288</v>
       </c>
       <c r="AW80" s="13">
-        <v>300194</v>
+        <v>747034</v>
       </c>
       <c r="AX80" s="13">
-        <v>523288</v>
+        <v>490493</v>
       </c>
       <c r="AY80" s="13">
-        <v>747034</v>
+        <v>566384</v>
       </c>
       <c r="AZ80" s="13">
-        <v>490493</v>
+        <v>301060</v>
       </c>
       <c r="BA80" s="13">
-        <v>566384</v>
+        <v>351386</v>
       </c>
       <c r="BB80" s="13">
-        <v>301060</v>
+        <v>202888</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.25">
@@ -10935,100 +10970,100 @@
         <v>0</v>
       </c>
       <c r="W81" s="15">
-        <v>0</v>
+        <v>276110</v>
       </c>
       <c r="X81" s="15">
-        <v>0</v>
+        <v>744122</v>
       </c>
       <c r="Y81" s="15">
-        <v>276110</v>
+        <v>551344</v>
       </c>
       <c r="Z81" s="15">
-        <v>744122</v>
+        <v>250351</v>
       </c>
       <c r="AA81" s="15">
-        <v>551344</v>
+        <v>398494</v>
       </c>
       <c r="AB81" s="15">
-        <v>250351</v>
+        <v>431004</v>
       </c>
       <c r="AC81" s="15">
-        <v>398494</v>
+        <v>389440</v>
       </c>
       <c r="AD81" s="15">
-        <v>431004</v>
+        <v>458141</v>
       </c>
       <c r="AE81" s="15">
-        <v>389440</v>
+        <v>593912</v>
       </c>
       <c r="AF81" s="15">
-        <v>458141</v>
+        <v>410543</v>
       </c>
       <c r="AG81" s="15">
-        <v>593912</v>
+        <v>486464</v>
       </c>
       <c r="AH81" s="15">
-        <v>410543</v>
+        <v>294131</v>
       </c>
       <c r="AI81" s="15">
-        <v>486464</v>
+        <v>195680</v>
       </c>
       <c r="AJ81" s="15">
-        <v>294131</v>
+        <v>202745</v>
       </c>
       <c r="AK81" s="15">
-        <v>195680</v>
+        <v>813197</v>
       </c>
       <c r="AL81" s="15">
-        <v>202745</v>
+        <v>759445</v>
       </c>
       <c r="AM81" s="15">
-        <v>813197</v>
+        <v>924241</v>
       </c>
       <c r="AN81" s="15">
-        <v>759445</v>
+        <v>1051376</v>
       </c>
       <c r="AO81" s="15">
-        <v>924241</v>
+        <v>726992</v>
       </c>
       <c r="AP81" s="15">
-        <v>1051376</v>
+        <v>510285</v>
       </c>
       <c r="AQ81" s="15">
-        <v>726992</v>
+        <v>493183</v>
       </c>
       <c r="AR81" s="15">
-        <v>510285</v>
+        <v>823773</v>
       </c>
       <c r="AS81" s="15">
-        <v>493183</v>
+        <v>550425</v>
       </c>
       <c r="AT81" s="15">
-        <v>823773</v>
+        <v>279551</v>
       </c>
       <c r="AU81" s="15">
-        <v>550425</v>
+        <v>300194</v>
       </c>
       <c r="AV81" s="15">
-        <v>279551</v>
+        <v>523288</v>
       </c>
       <c r="AW81" s="15">
-        <v>300194</v>
+        <v>1052641</v>
       </c>
       <c r="AX81" s="15">
-        <v>523288</v>
+        <v>815799</v>
       </c>
       <c r="AY81" s="15">
-        <v>1052641</v>
+        <v>1219607</v>
       </c>
       <c r="AZ81" s="15">
-        <v>815799</v>
+        <v>982249</v>
       </c>
       <c r="BA81" s="15">
-        <v>1219607</v>
+        <v>989972</v>
       </c>
       <c r="BB81" s="15">
-        <v>982249</v>
+        <v>1191230</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.25">
@@ -11150,11 +11185,11 @@
       <c r="V83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="15" t="s">
-        <v>58</v>
+      <c r="W83" s="15">
+        <v>0</v>
+      </c>
+      <c r="X83" s="15">
+        <v>0</v>
       </c>
       <c r="Y83" s="15">
         <v>0</v>
@@ -11366,11 +11401,11 @@
       <c r="V85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="15" t="s">
-        <v>58</v>
+      <c r="W85" s="15">
+        <v>0</v>
+      </c>
+      <c r="X85" s="15">
+        <v>0</v>
       </c>
       <c r="Y85" s="15">
         <v>0</v>
@@ -11582,11 +11617,11 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>0</v>
+      </c>
+      <c r="X87" s="11">
+        <v>0</v>
       </c>
       <c r="Y87" s="11">
         <v>0</v>
@@ -11740,100 +11775,100 @@
         <v>0</v>
       </c>
       <c r="W88" s="19">
-        <v>0</v>
+        <v>596173</v>
       </c>
       <c r="X88" s="19">
-        <v>0</v>
+        <v>937181</v>
       </c>
       <c r="Y88" s="19">
-        <v>596173</v>
+        <v>812103</v>
       </c>
       <c r="Z88" s="19">
-        <v>937181</v>
+        <v>573522</v>
       </c>
       <c r="AA88" s="19">
-        <v>812103</v>
+        <v>824269</v>
       </c>
       <c r="AB88" s="19">
-        <v>573522</v>
+        <v>756140</v>
       </c>
       <c r="AC88" s="19">
-        <v>824269</v>
+        <v>739085</v>
       </c>
       <c r="AD88" s="19">
-        <v>756140</v>
+        <v>742679</v>
       </c>
       <c r="AE88" s="19">
-        <v>739085</v>
+        <v>960153</v>
       </c>
       <c r="AF88" s="19">
-        <v>742679</v>
+        <v>646977</v>
       </c>
       <c r="AG88" s="19">
-        <v>960153</v>
+        <v>967754</v>
       </c>
       <c r="AH88" s="19">
-        <v>646977</v>
+        <v>766052</v>
       </c>
       <c r="AI88" s="19">
-        <v>967754</v>
+        <v>416971</v>
       </c>
       <c r="AJ88" s="19">
-        <v>766052</v>
+        <v>651011</v>
       </c>
       <c r="AK88" s="19">
-        <v>416971</v>
+        <v>1450623</v>
       </c>
       <c r="AL88" s="19">
-        <v>651011</v>
+        <v>1309358</v>
       </c>
       <c r="AM88" s="19">
-        <v>1450623</v>
+        <v>1544186</v>
       </c>
       <c r="AN88" s="19">
-        <v>1309358</v>
+        <v>1677519</v>
       </c>
       <c r="AO88" s="19">
-        <v>1544186</v>
+        <v>1278190</v>
       </c>
       <c r="AP88" s="19">
-        <v>1677519</v>
+        <v>1067669</v>
       </c>
       <c r="AQ88" s="19">
-        <v>1278190</v>
+        <v>1047807</v>
       </c>
       <c r="AR88" s="19">
-        <v>1067669</v>
+        <v>1393592</v>
       </c>
       <c r="AS88" s="19">
-        <v>1047807</v>
+        <v>1211967</v>
       </c>
       <c r="AT88" s="19">
-        <v>1393592</v>
+        <v>939094</v>
       </c>
       <c r="AU88" s="19">
-        <v>1211967</v>
+        <v>1206247</v>
       </c>
       <c r="AV88" s="19">
-        <v>939094</v>
+        <v>1124128</v>
       </c>
       <c r="AW88" s="19">
-        <v>1206247</v>
+        <v>1909095</v>
       </c>
       <c r="AX88" s="19">
-        <v>1124128</v>
+        <v>1663735</v>
       </c>
       <c r="AY88" s="19">
-        <v>1909095</v>
+        <v>2261117</v>
       </c>
       <c r="AZ88" s="19">
-        <v>1663735</v>
+        <v>2140232</v>
       </c>
       <c r="BA88" s="19">
-        <v>2261117</v>
+        <v>1860941</v>
       </c>
       <c r="BB88" s="19">
-        <v>2140232</v>
+        <v>2249076</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.25">
@@ -12395,38 +12430,38 @@
       <c r="AQ95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS95" s="11" t="s">
-        <v>58</v>
+      <c r="AR95" s="11">
+        <v>5731585</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>5623424</v>
       </c>
       <c r="AT95" s="11">
-        <v>5731585</v>
+        <v>6110193</v>
       </c>
       <c r="AU95" s="11">
-        <v>5623424</v>
+        <v>7152307</v>
       </c>
       <c r="AV95" s="11">
-        <v>6110193</v>
+        <v>7159915</v>
       </c>
       <c r="AW95" s="11">
-        <v>7152307</v>
+        <v>6512003</v>
       </c>
       <c r="AX95" s="11">
-        <v>7159915</v>
+        <v>5913143</v>
       </c>
       <c r="AY95" s="11">
-        <v>6512003</v>
+        <v>6709738</v>
       </c>
       <c r="AZ95" s="11">
-        <v>5913143</v>
+        <v>7165378</v>
       </c>
       <c r="BA95" s="11">
-        <v>6709738</v>
+        <v>7498420</v>
       </c>
       <c r="BB95" s="11">
-        <v>7165378</v>
+        <v>7198686</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.25">
@@ -12554,38 +12589,38 @@
       <c r="AQ96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS96" s="13" t="s">
-        <v>58</v>
+      <c r="AR96" s="13">
+        <v>6313694</v>
+      </c>
+      <c r="AS96" s="13">
+        <v>6336231</v>
       </c>
       <c r="AT96" s="13">
-        <v>6313694</v>
+        <v>6599905</v>
       </c>
       <c r="AU96" s="13">
-        <v>6336231</v>
+        <v>7360852</v>
       </c>
       <c r="AV96" s="13">
-        <v>6599905</v>
+        <v>7051209</v>
       </c>
       <c r="AW96" s="13">
-        <v>7360852</v>
+        <v>6966514</v>
       </c>
       <c r="AX96" s="13">
-        <v>7051209</v>
+        <v>7091452</v>
       </c>
       <c r="AY96" s="13">
-        <v>6966514</v>
+        <v>7397765</v>
       </c>
       <c r="AZ96" s="13">
-        <v>7091452</v>
+        <v>7698292</v>
       </c>
       <c r="BA96" s="13">
-        <v>7397765</v>
+        <v>8015347</v>
       </c>
       <c r="BB96" s="13">
-        <v>7698292</v>
+        <v>7560588</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.25">
@@ -12650,38 +12685,38 @@
       <c r="V97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>58</v>
+      <c r="W97" s="11">
+        <v>2323489</v>
+      </c>
+      <c r="X97" s="11">
+        <v>2302076</v>
       </c>
       <c r="Y97" s="11">
-        <v>2323489</v>
+        <v>2380665</v>
       </c>
       <c r="Z97" s="11">
-        <v>2302076</v>
+        <v>2595751</v>
       </c>
       <c r="AA97" s="11">
-        <v>2380665</v>
+        <v>2742335</v>
       </c>
       <c r="AB97" s="11">
-        <v>2595751</v>
+        <v>2728383</v>
       </c>
       <c r="AC97" s="11">
-        <v>2742335</v>
+        <v>2704891</v>
       </c>
       <c r="AD97" s="11">
-        <v>2728383</v>
+        <v>2647087</v>
       </c>
       <c r="AE97" s="11">
-        <v>2704891</v>
-      </c>
-      <c r="AF97" s="11">
-        <v>2647087</v>
-      </c>
-      <c r="AG97" s="11">
         <v>2625572</v>
+      </c>
+      <c r="AF97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH97" s="11" t="s">
         <v>58</v>
@@ -12836,47 +12871,47 @@
       <c r="AE98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG98" s="13" t="s">
-        <v>58</v>
+      <c r="AF98" s="13">
+        <v>2658802</v>
+      </c>
+      <c r="AG98" s="13">
+        <v>3695976</v>
       </c>
       <c r="AH98" s="13">
-        <v>2658802</v>
+        <v>3837942</v>
       </c>
       <c r="AI98" s="13">
-        <v>3695976</v>
+        <v>3981844</v>
       </c>
       <c r="AJ98" s="13">
-        <v>3837942</v>
+        <v>4667396</v>
       </c>
       <c r="AK98" s="13">
-        <v>3981844</v>
+        <v>4640483</v>
       </c>
       <c r="AL98" s="13">
-        <v>4667396</v>
+        <v>4261999</v>
       </c>
       <c r="AM98" s="13">
-        <v>4640483</v>
+        <v>4232400</v>
       </c>
       <c r="AN98" s="13">
-        <v>4261999</v>
+        <v>4680743</v>
       </c>
       <c r="AO98" s="13">
-        <v>4232400</v>
+        <v>4793318</v>
       </c>
       <c r="AP98" s="13">
-        <v>4680743</v>
+        <v>4609336</v>
       </c>
       <c r="AQ98" s="13">
-        <v>4793318</v>
-      </c>
-      <c r="AR98" s="13">
-        <v>4609336</v>
-      </c>
-      <c r="AS98" s="13">
         <v>4949393</v>
+      </c>
+      <c r="AR98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>58</v>
@@ -13031,38 +13066,38 @@
       <c r="AQ99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS99" s="11" t="s">
-        <v>58</v>
+      <c r="AR99" s="11">
+        <v>4594079</v>
+      </c>
+      <c r="AS99" s="11">
+        <v>4649578</v>
       </c>
       <c r="AT99" s="11">
-        <v>4594079</v>
+        <v>4871531</v>
       </c>
       <c r="AU99" s="11">
-        <v>4649578</v>
+        <v>7473240</v>
       </c>
       <c r="AV99" s="11">
-        <v>4871531</v>
+        <v>7033105</v>
       </c>
       <c r="AW99" s="11">
-        <v>7473240</v>
+        <v>6983355</v>
       </c>
       <c r="AX99" s="11">
-        <v>7033105</v>
+        <v>7072740</v>
       </c>
       <c r="AY99" s="11">
-        <v>6983355</v>
+        <v>7240844</v>
       </c>
       <c r="AZ99" s="11">
-        <v>7072740</v>
+        <v>7170725</v>
       </c>
       <c r="BA99" s="11">
-        <v>7240844</v>
+        <v>6947937</v>
       </c>
       <c r="BB99" s="11">
-        <v>7170725</v>
+        <v>6847365</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.25">
@@ -13190,38 +13225,38 @@
       <c r="AQ100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS100" s="13" t="s">
-        <v>58</v>
+      <c r="AR100" s="13">
+        <v>4715416</v>
+      </c>
+      <c r="AS100" s="13">
+        <v>4506285</v>
       </c>
       <c r="AT100" s="13">
-        <v>4715416</v>
+        <v>4958116</v>
       </c>
       <c r="AU100" s="13">
-        <v>4506285</v>
+        <v>6223526</v>
       </c>
       <c r="AV100" s="13">
-        <v>4958116</v>
+        <v>6367955</v>
       </c>
       <c r="AW100" s="13">
-        <v>6223526</v>
+        <v>6355768</v>
       </c>
       <c r="AX100" s="13">
-        <v>6367955</v>
+        <v>6057783</v>
       </c>
       <c r="AY100" s="13">
-        <v>6355768</v>
+        <v>7155154</v>
       </c>
       <c r="AZ100" s="13">
-        <v>6057783</v>
+        <v>7136009</v>
       </c>
       <c r="BA100" s="13">
-        <v>7155154</v>
+        <v>7057508</v>
       </c>
       <c r="BB100" s="13">
-        <v>7136009</v>
+        <v>6995593</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.25">
@@ -13343,38 +13378,38 @@
       <c r="V102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X102" s="11" t="s">
-        <v>58</v>
+      <c r="W102" s="11">
+        <v>3273191</v>
+      </c>
+      <c r="X102" s="11">
+        <v>4471941</v>
       </c>
       <c r="Y102" s="11">
-        <v>3273191</v>
+        <v>4378909</v>
       </c>
       <c r="Z102" s="11">
-        <v>4471941</v>
+        <v>4140908</v>
       </c>
       <c r="AA102" s="11">
-        <v>4378909</v>
+        <v>5217119</v>
       </c>
       <c r="AB102" s="11">
-        <v>4140908</v>
+        <v>4908035</v>
       </c>
       <c r="AC102" s="11">
-        <v>5217119</v>
+        <v>5723524</v>
       </c>
       <c r="AD102" s="11">
-        <v>4908035</v>
+        <v>5166751</v>
       </c>
       <c r="AE102" s="11">
-        <v>5723524</v>
-      </c>
-      <c r="AF102" s="11">
-        <v>5166751</v>
-      </c>
-      <c r="AG102" s="11">
         <v>4440165</v>
+      </c>
+      <c r="AF102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG102" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH102" s="11" t="s">
         <v>58</v>
@@ -13529,47 +13564,47 @@
       <c r="AE103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG103" s="13" t="s">
-        <v>58</v>
+      <c r="AF103" s="13">
+        <v>5177609</v>
+      </c>
+      <c r="AG103" s="13">
+        <v>4789446</v>
       </c>
       <c r="AH103" s="13">
-        <v>5177609</v>
+        <v>5059970</v>
       </c>
       <c r="AI103" s="13">
-        <v>4789446</v>
+        <v>6384131</v>
       </c>
       <c r="AJ103" s="13">
-        <v>5059970</v>
+        <v>7509074</v>
       </c>
       <c r="AK103" s="13">
-        <v>6384131</v>
+        <v>7041215</v>
       </c>
       <c r="AL103" s="13">
-        <v>7509074</v>
+        <v>7216521</v>
       </c>
       <c r="AM103" s="13">
-        <v>7041215</v>
+        <v>6897269</v>
       </c>
       <c r="AN103" s="13">
-        <v>7216521</v>
+        <v>7026271</v>
       </c>
       <c r="AO103" s="13">
-        <v>6897269</v>
+        <v>7025028</v>
       </c>
       <c r="AP103" s="13">
-        <v>7026271</v>
+        <v>6858301</v>
       </c>
       <c r="AQ103" s="13">
-        <v>7025028</v>
-      </c>
-      <c r="AR103" s="13">
-        <v>6858301</v>
-      </c>
-      <c r="AS103" s="13">
         <v>6724520</v>
+      </c>
+      <c r="AR103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT103" s="13" t="s">
         <v>58</v>
@@ -13724,38 +13759,38 @@
       <c r="AQ104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT104" s="11">
+      <c r="AR104" s="11">
         <v>7019465</v>
       </c>
-      <c r="AU104" s="11">
+      <c r="AS104" s="11">
         <v>7890650</v>
       </c>
+      <c r="AT104" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU104" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX104" s="11" t="s">
-        <v>58</v>
+      <c r="AW104" s="11">
+        <v>8578440</v>
+      </c>
+      <c r="AX104" s="11">
+        <v>9163556</v>
       </c>
       <c r="AY104" s="11">
-        <v>8578440</v>
+        <v>9453870</v>
       </c>
       <c r="AZ104" s="11">
-        <v>9163556</v>
+        <v>9944595</v>
       </c>
       <c r="BA104" s="11">
-        <v>9453870</v>
+        <v>9320357</v>
       </c>
       <c r="BB104" s="11">
-        <v>9944595</v>
+        <v>14489234</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.25">
@@ -13883,38 +13918,38 @@
       <c r="AQ105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT105" s="13">
+      <c r="AR105" s="13">
         <v>7534500</v>
       </c>
-      <c r="AU105" s="13">
+      <c r="AS105" s="13">
         <v>8399714</v>
       </c>
+      <c r="AT105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU105" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX105" s="13" t="s">
-        <v>58</v>
+      <c r="AW105" s="13">
+        <v>9114600</v>
+      </c>
+      <c r="AX105" s="13">
+        <v>9736250</v>
       </c>
       <c r="AY105" s="13">
-        <v>9114600</v>
+        <v>10149088</v>
       </c>
       <c r="AZ105" s="13">
-        <v>9736250</v>
+        <v>10540640</v>
       </c>
       <c r="BA105" s="13">
-        <v>10149088</v>
+        <v>9885240</v>
       </c>
       <c r="BB105" s="13">
-        <v>10540640</v>
+        <v>15367400</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.25">
@@ -14042,38 +14077,38 @@
       <c r="AQ106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS106" s="11" t="s">
-        <v>58</v>
+      <c r="AR106" s="11">
+        <v>6526590</v>
+      </c>
+      <c r="AS106" s="11">
+        <v>6899264</v>
       </c>
       <c r="AT106" s="11">
-        <v>6526590</v>
+        <v>6837997</v>
       </c>
       <c r="AU106" s="11">
-        <v>6899264</v>
+        <v>8282356</v>
       </c>
       <c r="AV106" s="11">
-        <v>6837997</v>
+        <v>8571747</v>
       </c>
       <c r="AW106" s="11">
-        <v>8282356</v>
+        <v>8709735</v>
       </c>
       <c r="AX106" s="11">
-        <v>8571747</v>
+        <v>8892831</v>
       </c>
       <c r="AY106" s="11">
-        <v>8709735</v>
+        <v>9053887</v>
       </c>
       <c r="AZ106" s="11">
-        <v>8892831</v>
+        <v>9075179</v>
       </c>
       <c r="BA106" s="11">
-        <v>9053887</v>
+        <v>9472597</v>
       </c>
       <c r="BB106" s="11">
-        <v>9075179</v>
+        <v>9545425</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="94">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3458,107 +3458,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>160871</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>160871</v>
+        <v>218937</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>218937</v>
+        <v>233379</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>233379</v>
+        <v>198862</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>198862</v>
+        <v>206822</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>206822</v>
+        <v>197338</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>197338</v>
+        <v>184979</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>184979</v>
+        <v>195928</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>195928</v>
+        <v>229622</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>229622</v>
+        <v>207845</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>207845</v>
+        <v>199773</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>199773</v>
+        <v>216943</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>216943</v>
+        <v>70917</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>70917</v>
+        <v>177576</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>177576</v>
+        <v>230670</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>230670</v>
+        <v>222266</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>222266</v>
+        <v>221725</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>221725</v>
+        <v>223845</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>223845</v>
+        <v>216540</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>216540</v>
+        <v>173373</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>173373</v>
+        <v>167997</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>167997</v>
+        <v>215825</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>215825</v>
+        <v>187895</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>187895</v>
+        <v>187170</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>187170</v>
+        <v>193920</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>193920</v>
+        <v>166810</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>166810</v>
+        <v>213003</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>213003</v>
+        <v>206175</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>206175</v>
+        <v>218421</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>218421</v>
+        <v>233530</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>233530</v>
+        <v>219115</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>219115</v>
+        <v>190105</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>190105</v>
+        <v>209230</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>209230</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,107 +3617,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>138611</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>138611</v>
+        <v>137448</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>137448</v>
+        <v>165319</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>165319</v>
+        <v>148209</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>148209</v>
+        <v>193078</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>193078</v>
+        <v>123270</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>123270</v>
+        <v>137075</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>137075</v>
+        <v>170809</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>170809</v>
+        <v>169566</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>169566</v>
+        <v>121106</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>121106</v>
+        <v>127014</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>127014</v>
+        <v>124468</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>124468</v>
+        <v>92253</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>92253</v>
+        <v>116609</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>116609</v>
+        <v>183389</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>183389</v>
+        <v>165271</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>165271</v>
+        <v>176681</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>176681</v>
+        <v>191349</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>191349</v>
+        <v>162860</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>162860</v>
+        <v>140080</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>140080</v>
+        <v>142800</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>142800</v>
+        <v>166445</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>166445</v>
+        <v>144696</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>144696</v>
+        <v>126349</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>126349</v>
+        <v>139954</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>139954</v>
+        <v>73028</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>73028</v>
+        <v>177939</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>177939</v>
+        <v>157258</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>157258</v>
+        <v>195423</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>195423</v>
+        <v>212086</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>212086</v>
+        <v>180905</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>180905</v>
+        <v>196213</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>196213</v>
+        <v>230335</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>230335</v>
+        <v>138983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,8 +3839,8 @@
       <c r="AO13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>58</v>
+      <c r="AP13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ13" s="13" t="n">
         <v>0</v>
@@ -3998,8 +3998,8 @@
       <c r="AO14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AP14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ14" s="16" t="n">
         <v>0</v>
@@ -4094,8 +4094,8 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V15" s="13" t="n">
         <v>0</v>
@@ -4121,8 +4121,8 @@
       <c r="AC15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" s="13" t="n">
-        <v>0</v>
+      <c r="AD15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>58</v>
@@ -4280,11 +4280,11 @@
       <c r="AC16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
+      <c r="AD16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF16" s="16" t="s">
         <v>58</v>
@@ -4475,8 +4475,8 @@
       <c r="AO17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP17" s="13" t="s">
-        <v>58</v>
+      <c r="AP17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ17" s="13" t="n">
         <v>0</v>
@@ -4634,8 +4634,8 @@
       <c r="AO18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="16" t="s">
-        <v>58</v>
+      <c r="AP18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ18" s="16" t="n">
         <v>0</v>
@@ -4729,106 +4729,106 @@
         <v>0</v>
       </c>
       <c r="U19" s="18" t="n">
-        <v>0</v>
+        <v>299482</v>
       </c>
       <c r="V19" s="18" t="n">
-        <v>299482</v>
+        <v>356385</v>
       </c>
       <c r="W19" s="18" t="n">
-        <v>356385</v>
+        <v>398698</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>398698</v>
+        <v>347071</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>347071</v>
+        <v>399900</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>399900</v>
+        <v>320608</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>320608</v>
+        <v>322054</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>322054</v>
+        <v>366737</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>366737</v>
+        <v>399188</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>399188</v>
+        <v>328951</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>328951</v>
+        <v>326787</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>326787</v>
+        <v>341411</v>
       </c>
       <c r="AG19" s="18" t="n">
-        <v>341411</v>
+        <v>163170</v>
       </c>
       <c r="AH19" s="18" t="n">
-        <v>163170</v>
+        <v>294185</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>294185</v>
+        <v>414059</v>
       </c>
       <c r="AJ19" s="18" t="n">
-        <v>414059</v>
+        <v>387537</v>
       </c>
       <c r="AK19" s="18" t="n">
-        <v>387537</v>
+        <v>398406</v>
       </c>
       <c r="AL19" s="18" t="n">
-        <v>398406</v>
+        <v>415194</v>
       </c>
       <c r="AM19" s="18" t="n">
-        <v>415194</v>
+        <v>379400</v>
       </c>
       <c r="AN19" s="18" t="n">
-        <v>379400</v>
+        <v>313453</v>
       </c>
       <c r="AO19" s="18" t="n">
-        <v>313453</v>
+        <v>310797</v>
       </c>
       <c r="AP19" s="18" t="n">
-        <v>310797</v>
+        <v>382270</v>
       </c>
       <c r="AQ19" s="18" t="n">
-        <v>382270</v>
+        <v>332591</v>
       </c>
       <c r="AR19" s="18" t="n">
-        <v>332591</v>
+        <v>313519</v>
       </c>
       <c r="AS19" s="18" t="n">
-        <v>313519</v>
+        <v>333874</v>
       </c>
       <c r="AT19" s="18" t="n">
-        <v>333874</v>
+        <v>239838</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>239838</v>
+        <v>390942</v>
       </c>
       <c r="AV19" s="18" t="n">
-        <v>390942</v>
+        <v>363433</v>
       </c>
       <c r="AW19" s="18" t="n">
-        <v>363433</v>
+        <v>413844</v>
       </c>
       <c r="AX19" s="18" t="n">
-        <v>413844</v>
+        <v>445616</v>
       </c>
       <c r="AY19" s="18" t="n">
-        <v>445616</v>
+        <v>400020</v>
       </c>
       <c r="AZ19" s="18" t="n">
-        <v>400020</v>
+        <v>386318</v>
       </c>
       <c r="BA19" s="18" t="n">
-        <v>386318</v>
+        <v>439565</v>
       </c>
       <c r="BB19" s="18" t="n">
-        <v>439565</v>
+        <v>318983</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,8 +4944,8 @@
       <c r="T21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
+      <c r="U21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="13" t="n">
         <v>0</v>
@@ -4971,8 +4971,8 @@
       <c r="AC21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="13" t="n">
-        <v>0</v>
+      <c r="AD21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE21" s="13" t="s">
         <v>58</v>
@@ -5130,11 +5130,11 @@
       <c r="AC22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE22" s="16" t="n">
-        <v>0</v>
+      <c r="AD22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF22" s="16" t="s">
         <v>58</v>
@@ -5325,8 +5325,8 @@
       <c r="AO23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="13" t="s">
-        <v>58</v>
+      <c r="AP23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ23" s="13" t="n">
         <v>0</v>
@@ -5484,8 +5484,8 @@
       <c r="AO24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP24" s="16" t="s">
-        <v>58</v>
+      <c r="AP24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ24" s="16" t="n">
         <v>0</v>
@@ -5643,8 +5643,8 @@
       <c r="AO25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP25" s="13" t="s">
-        <v>58</v>
+      <c r="AP25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ25" s="13" t="n">
         <v>0</v>
@@ -5802,8 +5802,8 @@
       <c r="AO26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP26" s="16" t="s">
-        <v>58</v>
+      <c r="AP26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ26" s="16" t="n">
         <v>0</v>
@@ -6110,8 +6110,8 @@
       <c r="T29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>58</v>
+      <c r="U29" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="18" t="n">
         <v>0</v>
@@ -6268,106 +6268,106 @@
         <v>0</v>
       </c>
       <c r="U30" s="22" t="n">
-        <v>0</v>
+        <v>299482</v>
       </c>
       <c r="V30" s="22" t="n">
-        <v>299482</v>
+        <v>356385</v>
       </c>
       <c r="W30" s="22" t="n">
-        <v>356385</v>
+        <v>398698</v>
       </c>
       <c r="X30" s="22" t="n">
-        <v>398698</v>
+        <v>347071</v>
       </c>
       <c r="Y30" s="22" t="n">
-        <v>347071</v>
+        <v>399900</v>
       </c>
       <c r="Z30" s="22" t="n">
-        <v>399900</v>
+        <v>320608</v>
       </c>
       <c r="AA30" s="22" t="n">
-        <v>320608</v>
+        <v>322054</v>
       </c>
       <c r="AB30" s="22" t="n">
-        <v>322054</v>
+        <v>366737</v>
       </c>
       <c r="AC30" s="22" t="n">
-        <v>366737</v>
+        <v>399188</v>
       </c>
       <c r="AD30" s="22" t="n">
-        <v>399188</v>
+        <v>328951</v>
       </c>
       <c r="AE30" s="22" t="n">
-        <v>328951</v>
+        <v>326787</v>
       </c>
       <c r="AF30" s="22" t="n">
-        <v>326787</v>
+        <v>341411</v>
       </c>
       <c r="AG30" s="22" t="n">
-        <v>341411</v>
+        <v>163170</v>
       </c>
       <c r="AH30" s="22" t="n">
-        <v>163170</v>
+        <v>294185</v>
       </c>
       <c r="AI30" s="22" t="n">
-        <v>294185</v>
+        <v>414059</v>
       </c>
       <c r="AJ30" s="22" t="n">
-        <v>414059</v>
+        <v>387537</v>
       </c>
       <c r="AK30" s="22" t="n">
-        <v>387537</v>
+        <v>398406</v>
       </c>
       <c r="AL30" s="22" t="n">
-        <v>398406</v>
+        <v>415194</v>
       </c>
       <c r="AM30" s="22" t="n">
-        <v>415194</v>
+        <v>379400</v>
       </c>
       <c r="AN30" s="22" t="n">
-        <v>379400</v>
+        <v>313453</v>
       </c>
       <c r="AO30" s="22" t="n">
-        <v>313453</v>
+        <v>310797</v>
       </c>
       <c r="AP30" s="22" t="n">
-        <v>310797</v>
+        <v>382270</v>
       </c>
       <c r="AQ30" s="22" t="n">
-        <v>382270</v>
+        <v>332591</v>
       </c>
       <c r="AR30" s="22" t="n">
-        <v>332591</v>
+        <v>313519</v>
       </c>
       <c r="AS30" s="22" t="n">
-        <v>313519</v>
+        <v>333874</v>
       </c>
       <c r="AT30" s="22" t="n">
-        <v>333874</v>
+        <v>239838</v>
       </c>
       <c r="AU30" s="22" t="n">
-        <v>239838</v>
+        <v>390942</v>
       </c>
       <c r="AV30" s="22" t="n">
-        <v>390942</v>
+        <v>363433</v>
       </c>
       <c r="AW30" s="22" t="n">
-        <v>363433</v>
+        <v>413844</v>
       </c>
       <c r="AX30" s="22" t="n">
-        <v>413844</v>
+        <v>445616</v>
       </c>
       <c r="AY30" s="22" t="n">
-        <v>445616</v>
+        <v>400020</v>
       </c>
       <c r="AZ30" s="22" t="n">
-        <v>400020</v>
+        <v>386318</v>
       </c>
       <c r="BA30" s="22" t="n">
-        <v>386318</v>
+        <v>439565</v>
       </c>
       <c r="BB30" s="22" t="n">
-        <v>439565</v>
+        <v>318983</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,8 +6860,8 @@
       <c r="T37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>58</v>
+      <c r="U37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="13" t="n">
         <v>0</v>
@@ -6890,17 +6890,17 @@
       <c r="AD37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE37" s="13" t="n">
-        <v>0</v>
+      <c r="AE37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH37" s="13" t="n">
-        <v>0</v>
+      <c r="AG37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI37" s="13" t="s">
         <v>58</v>
@@ -6923,8 +6923,8 @@
       <c r="AO37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP37" s="13" t="s">
-        <v>58</v>
+      <c r="AP37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ37" s="13" t="n">
         <v>0</v>
@@ -7019,8 +7019,8 @@
       <c r="T38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>58</v>
+      <c r="U38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="16" t="n">
         <v>0</v>
@@ -7049,8 +7049,8 @@
       <c r="AD38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE38" s="16" t="n">
-        <v>0</v>
+      <c r="AE38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF38" s="16" t="s">
         <v>58</v>
@@ -7082,8 +7082,8 @@
       <c r="AO38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP38" s="16" t="s">
-        <v>58</v>
+      <c r="AP38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ38" s="16" t="n">
         <v>0</v>
@@ -7241,44 +7241,44 @@
       <c r="AO39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="13" t="s">
-        <v>58</v>
+      <c r="AP39" s="13" t="n">
+        <v>2783</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>2783</v>
+        <v>4918</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>4918</v>
+        <v>5808</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>5808</v>
+        <v>5699</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>5699</v>
+        <v>2345</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>2345</v>
+        <v>5832</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>5832</v>
+        <v>13977</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>13977</v>
+        <v>8513</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>8513</v>
+        <v>10606</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>10606</v>
+        <v>5696</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>5696</v>
+        <v>8526</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>8526</v>
+        <v>7084</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>7084</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,44 +7400,44 @@
       <c r="AO40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="16" t="s">
-        <v>58</v>
+      <c r="AP40" s="16" t="n">
+        <v>50189</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>50189</v>
+        <v>58213</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>58213</v>
+        <v>50533</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>50533</v>
+        <v>62394</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>62394</v>
+        <v>39837</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>39837</v>
+        <v>57218</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>57218</v>
+        <v>53208</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>53208</v>
+        <v>75630</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>75630</v>
+        <v>72030</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>72030</v>
+        <v>53105</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>53105</v>
+        <v>71846</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>71846</v>
+        <v>63644</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>63644</v>
+        <v>62403</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,35 +7496,35 @@
       <c r="T41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="13" t="s">
-        <v>58</v>
+      <c r="U41" s="13" t="n">
+        <v>137751</v>
       </c>
       <c r="V41" s="13" t="n">
-        <v>137751</v>
+        <v>83863</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>83863</v>
+        <v>109532</v>
       </c>
       <c r="X41" s="13" t="n">
-        <v>109532</v>
+        <v>124500</v>
       </c>
       <c r="Y41" s="13" t="n">
-        <v>124500</v>
+        <v>155260</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>155260</v>
+        <v>119168</v>
       </c>
       <c r="AA41" s="13" t="n">
-        <v>119168</v>
+        <v>129264</v>
       </c>
       <c r="AB41" s="13" t="n">
-        <v>129264</v>
+        <v>107491</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>107491</v>
-      </c>
-      <c r="AD41" s="13" t="n">
         <v>139490</v>
+      </c>
+      <c r="AD41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE41" s="13" t="s">
         <v>58</v>
@@ -7682,44 +7682,44 @@
       <c r="AC42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="16" t="s">
-        <v>58</v>
+      <c r="AD42" s="16" t="n">
+        <v>88925</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>88925</v>
+        <v>130220</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>130220</v>
+        <v>122962</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>122962</v>
+        <v>55575</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>55575</v>
+        <v>96042</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>96042</v>
+        <v>137362</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>137362</v>
+        <v>129027</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>129027</v>
+        <v>146476</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>146476</v>
+        <v>133770</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>133770</v>
+        <v>114993</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>114993</v>
+        <v>120925</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>120925</v>
-      </c>
-      <c r="AP42" s="16" t="n">
         <v>112059</v>
+      </c>
+      <c r="AP42" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ42" s="16" t="s">
         <v>58</v>
@@ -7877,44 +7877,44 @@
       <c r="AO43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP43" s="13" t="s">
-        <v>58</v>
+      <c r="AP43" s="13" t="n">
+        <v>43543</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>43543</v>
+        <v>44358</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>44358</v>
+        <v>42874</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>42874</v>
+        <v>43965</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>43965</v>
+        <v>33802</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>33802</v>
+        <v>40313</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>40313</v>
+        <v>30011</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>30011</v>
+        <v>41529</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>41529</v>
+        <v>54046</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>54046</v>
+        <v>43409</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>43409</v>
+        <v>51823</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>51823</v>
+        <v>54509</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>54509</v>
+        <v>36306</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8036,44 +8036,44 @@
       <c r="AO44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP44" s="16" t="s">
-        <v>58</v>
+      <c r="AP44" s="16" t="n">
+        <v>7836</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>7836</v>
+        <v>13046</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>13046</v>
+        <v>16474</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>16474</v>
+        <v>12446</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>12446</v>
+        <v>10273</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>10273</v>
+        <v>21767</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>21767</v>
+        <v>29005</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>29005</v>
+        <v>17357</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>17357</v>
+        <v>19609</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>19609</v>
+        <v>14311</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>14311</v>
+        <v>14069</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>14069</v>
+        <v>15927</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>15927</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8131,106 +8131,106 @@
         <v>0</v>
       </c>
       <c r="U45" s="18" t="n">
-        <v>0</v>
+        <v>137751</v>
       </c>
       <c r="V45" s="18" t="n">
-        <v>137751</v>
+        <v>83863</v>
       </c>
       <c r="W45" s="18" t="n">
-        <v>83863</v>
+        <v>109532</v>
       </c>
       <c r="X45" s="18" t="n">
-        <v>109532</v>
+        <v>124500</v>
       </c>
       <c r="Y45" s="18" t="n">
-        <v>124500</v>
+        <v>155260</v>
       </c>
       <c r="Z45" s="18" t="n">
-        <v>155260</v>
+        <v>119168</v>
       </c>
       <c r="AA45" s="18" t="n">
-        <v>119168</v>
+        <v>129264</v>
       </c>
       <c r="AB45" s="18" t="n">
-        <v>129264</v>
+        <v>107491</v>
       </c>
       <c r="AC45" s="18" t="n">
-        <v>107491</v>
+        <v>139490</v>
       </c>
       <c r="AD45" s="18" t="n">
-        <v>139490</v>
+        <v>88925</v>
       </c>
       <c r="AE45" s="18" t="n">
-        <v>88925</v>
+        <v>130220</v>
       </c>
       <c r="AF45" s="18" t="n">
-        <v>130220</v>
+        <v>122962</v>
       </c>
       <c r="AG45" s="18" t="n">
-        <v>122962</v>
+        <v>55575</v>
       </c>
       <c r="AH45" s="18" t="n">
-        <v>55575</v>
+        <v>96042</v>
       </c>
       <c r="AI45" s="18" t="n">
-        <v>96042</v>
+        <v>137362</v>
       </c>
       <c r="AJ45" s="18" t="n">
-        <v>137362</v>
+        <v>129027</v>
       </c>
       <c r="AK45" s="18" t="n">
-        <v>129027</v>
+        <v>146476</v>
       </c>
       <c r="AL45" s="18" t="n">
-        <v>146476</v>
+        <v>133770</v>
       </c>
       <c r="AM45" s="18" t="n">
-        <v>133770</v>
+        <v>114993</v>
       </c>
       <c r="AN45" s="18" t="n">
-        <v>114993</v>
+        <v>120925</v>
       </c>
       <c r="AO45" s="18" t="n">
-        <v>120925</v>
+        <v>112059</v>
       </c>
       <c r="AP45" s="18" t="n">
-        <v>112059</v>
+        <v>104351</v>
       </c>
       <c r="AQ45" s="18" t="n">
-        <v>104351</v>
+        <v>120535</v>
       </c>
       <c r="AR45" s="18" t="n">
-        <v>120535</v>
+        <v>115689</v>
       </c>
       <c r="AS45" s="18" t="n">
-        <v>115689</v>
+        <v>124504</v>
       </c>
       <c r="AT45" s="18" t="n">
-        <v>124504</v>
+        <v>86257</v>
       </c>
       <c r="AU45" s="18" t="n">
-        <v>86257</v>
+        <v>125130</v>
       </c>
       <c r="AV45" s="18" t="n">
-        <v>125130</v>
+        <v>126201</v>
       </c>
       <c r="AW45" s="18" t="n">
-        <v>126201</v>
+        <v>143029</v>
       </c>
       <c r="AX45" s="18" t="n">
-        <v>143029</v>
+        <v>156291</v>
       </c>
       <c r="AY45" s="18" t="n">
-        <v>156291</v>
+        <v>116521</v>
       </c>
       <c r="AZ45" s="18" t="n">
-        <v>116521</v>
+        <v>146264</v>
       </c>
       <c r="BA45" s="18" t="n">
-        <v>146264</v>
+        <v>141164</v>
       </c>
       <c r="BB45" s="18" t="n">
-        <v>141164</v>
+        <v>116247</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,35 +8346,35 @@
       <c r="T47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>58</v>
+      <c r="U47" s="13" t="n">
+        <v>84355</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>84355</v>
+        <v>166398</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>166398</v>
+        <v>125909</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>125909</v>
+        <v>60458</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>60458</v>
+        <v>76382</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>76382</v>
+        <v>87816</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>87816</v>
+        <v>68042</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>68042</v>
+        <v>88671</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>88671</v>
-      </c>
-      <c r="AD47" s="13" t="n">
         <v>133759</v>
+      </c>
+      <c r="AD47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE47" s="13" t="s">
         <v>58</v>
@@ -8532,44 +8532,44 @@
       <c r="AC48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD48" s="16" t="s">
-        <v>58</v>
+      <c r="AD48" s="16" t="n">
+        <v>79292</v>
       </c>
       <c r="AE48" s="16" t="n">
-        <v>79292</v>
+        <v>101570</v>
       </c>
       <c r="AF48" s="16" t="n">
-        <v>101570</v>
+        <v>58129</v>
       </c>
       <c r="AG48" s="16" t="n">
-        <v>58129</v>
+        <v>30651</v>
       </c>
       <c r="AH48" s="16" t="n">
-        <v>30651</v>
+        <v>27000</v>
       </c>
       <c r="AI48" s="16" t="n">
-        <v>27000</v>
+        <v>115491</v>
       </c>
       <c r="AJ48" s="16" t="n">
-        <v>115491</v>
+        <v>105237</v>
       </c>
       <c r="AK48" s="16" t="n">
-        <v>105237</v>
+        <v>134001</v>
       </c>
       <c r="AL48" s="16" t="n">
-        <v>134001</v>
+        <v>149635</v>
       </c>
       <c r="AM48" s="16" t="n">
-        <v>149635</v>
+        <v>103486</v>
       </c>
       <c r="AN48" s="16" t="n">
-        <v>103486</v>
+        <v>74404</v>
       </c>
       <c r="AO48" s="16" t="n">
-        <v>74404</v>
-      </c>
-      <c r="AP48" s="16" t="n">
         <v>73341</v>
+      </c>
+      <c r="AP48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ48" s="16" t="s">
         <v>58</v>
@@ -8727,14 +8727,14 @@
       <c r="AO49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="13" t="s">
-        <v>58</v>
+      <c r="AP49" s="13" t="n">
+        <v>50500</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>50500</v>
+        <v>20000</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="13" t="n">
         <v>0</v>
@@ -8743,28 +8743,28 @@
         <v>0</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>27000</v>
+        <v>38500</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>38500</v>
+        <v>42000</v>
       </c>
       <c r="AY49" s="13" t="n">
         <v>42000</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>42000</v>
+        <v>47000</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>47000</v>
+        <v>48500</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>48500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8886,44 +8886,44 @@
       <c r="AO50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP50" s="16" t="s">
-        <v>58</v>
+      <c r="AP50" s="16" t="n">
+        <v>10000</v>
       </c>
       <c r="AQ50" s="16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AR50" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="AR50" s="16" t="n">
-        <v>7000</v>
-      </c>
-      <c r="AS50" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AV50" s="16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>8000</v>
+        <v>28500</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>28500</v>
+        <v>25000</v>
       </c>
       <c r="AY50" s="16" t="n">
         <v>25000</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9045,8 +9045,8 @@
       <c r="AO51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>58</v>
+      <c r="AP51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ51" s="13" t="n">
         <v>0</v>
@@ -9204,44 +9204,44 @@
       <c r="AO52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP52" s="16" t="s">
-        <v>58</v>
+      <c r="AP52" s="16" t="n">
+        <v>60360</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>60360</v>
+        <v>48384</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>48384</v>
+        <v>40882</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>40882</v>
+        <v>36245</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>36245</v>
+        <v>61048</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>61048</v>
+        <v>85770</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>85770</v>
+        <v>55156</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>55156</v>
+        <v>62557</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>62557</v>
+        <v>33174</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>33174</v>
+        <v>37095</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>37095</v>
+        <v>21255</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>21255</v>
+        <v>11330</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>11330</v>
+        <v>38310</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9299,106 +9299,106 @@
         <v>0</v>
       </c>
       <c r="U53" s="18" t="n">
-        <v>0</v>
+        <v>84355</v>
       </c>
       <c r="V53" s="18" t="n">
-        <v>84355</v>
+        <v>166398</v>
       </c>
       <c r="W53" s="18" t="n">
-        <v>166398</v>
+        <v>125909</v>
       </c>
       <c r="X53" s="18" t="n">
-        <v>125909</v>
+        <v>60458</v>
       </c>
       <c r="Y53" s="18" t="n">
-        <v>60458</v>
+        <v>76382</v>
       </c>
       <c r="Z53" s="18" t="n">
-        <v>76382</v>
+        <v>87816</v>
       </c>
       <c r="AA53" s="18" t="n">
-        <v>87816</v>
+        <v>68042</v>
       </c>
       <c r="AB53" s="18" t="n">
-        <v>68042</v>
+        <v>88671</v>
       </c>
       <c r="AC53" s="18" t="n">
-        <v>88671</v>
+        <v>133759</v>
       </c>
       <c r="AD53" s="18" t="n">
-        <v>133759</v>
+        <v>79292</v>
       </c>
       <c r="AE53" s="18" t="n">
-        <v>79292</v>
+        <v>101570</v>
       </c>
       <c r="AF53" s="18" t="n">
-        <v>101570</v>
+        <v>58129</v>
       </c>
       <c r="AG53" s="18" t="n">
-        <v>58129</v>
+        <v>30651</v>
       </c>
       <c r="AH53" s="18" t="n">
-        <v>30651</v>
+        <v>27000</v>
       </c>
       <c r="AI53" s="18" t="n">
-        <v>27000</v>
+        <v>115491</v>
       </c>
       <c r="AJ53" s="18" t="n">
-        <v>115491</v>
+        <v>105237</v>
       </c>
       <c r="AK53" s="18" t="n">
-        <v>105237</v>
+        <v>134001</v>
       </c>
       <c r="AL53" s="18" t="n">
-        <v>134001</v>
+        <v>149635</v>
       </c>
       <c r="AM53" s="18" t="n">
-        <v>149635</v>
+        <v>103486</v>
       </c>
       <c r="AN53" s="18" t="n">
-        <v>103486</v>
+        <v>74404</v>
       </c>
       <c r="AO53" s="18" t="n">
-        <v>74404</v>
+        <v>73341</v>
       </c>
       <c r="AP53" s="18" t="n">
-        <v>73341</v>
+        <v>120860</v>
       </c>
       <c r="AQ53" s="18" t="n">
-        <v>120860</v>
+        <v>75384</v>
       </c>
       <c r="AR53" s="18" t="n">
-        <v>75384</v>
+        <v>40882</v>
       </c>
       <c r="AS53" s="18" t="n">
-        <v>40882</v>
+        <v>36245</v>
       </c>
       <c r="AT53" s="18" t="n">
-        <v>36245</v>
+        <v>61048</v>
       </c>
       <c r="AU53" s="18" t="n">
-        <v>61048</v>
+        <v>120770</v>
       </c>
       <c r="AV53" s="18" t="n">
-        <v>120770</v>
+        <v>90156</v>
       </c>
       <c r="AW53" s="18" t="n">
-        <v>90156</v>
+        <v>129557</v>
       </c>
       <c r="AX53" s="18" t="n">
-        <v>129557</v>
+        <v>100174</v>
       </c>
       <c r="AY53" s="18" t="n">
-        <v>100174</v>
+        <v>104095</v>
       </c>
       <c r="AZ53" s="18" t="n">
-        <v>104095</v>
+        <v>88255</v>
       </c>
       <c r="BA53" s="18" t="n">
-        <v>88255</v>
+        <v>71830</v>
       </c>
       <c r="BB53" s="18" t="n">
-        <v>71830</v>
+        <v>65310</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9512,8 +9512,8 @@
       <c r="T55" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="18" t="s">
-        <v>58</v>
+      <c r="U55" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V55" s="18" t="n">
         <v>0</v>
@@ -9726,8 +9726,8 @@
       <c r="T57" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="18" t="s">
-        <v>58</v>
+      <c r="U57" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="18" t="n">
         <v>0</v>
@@ -9884,106 +9884,106 @@
         <v>0</v>
       </c>
       <c r="U58" s="22" t="n">
-        <v>0</v>
+        <v>222106</v>
       </c>
       <c r="V58" s="22" t="n">
-        <v>222106</v>
+        <v>250261</v>
       </c>
       <c r="W58" s="22" t="n">
-        <v>250261</v>
+        <v>235441</v>
       </c>
       <c r="X58" s="22" t="n">
-        <v>235441</v>
+        <v>184958</v>
       </c>
       <c r="Y58" s="22" t="n">
-        <v>184958</v>
+        <v>231642</v>
       </c>
       <c r="Z58" s="22" t="n">
-        <v>231642</v>
+        <v>206984</v>
       </c>
       <c r="AA58" s="22" t="n">
-        <v>206984</v>
+        <v>197306</v>
       </c>
       <c r="AB58" s="22" t="n">
-        <v>197306</v>
+        <v>196162</v>
       </c>
       <c r="AC58" s="22" t="n">
-        <v>196162</v>
+        <v>273249</v>
       </c>
       <c r="AD58" s="22" t="n">
-        <v>273249</v>
+        <v>168217</v>
       </c>
       <c r="AE58" s="22" t="n">
-        <v>168217</v>
+        <v>231790</v>
       </c>
       <c r="AF58" s="22" t="n">
-        <v>231790</v>
+        <v>181091</v>
       </c>
       <c r="AG58" s="22" t="n">
-        <v>181091</v>
+        <v>86226</v>
       </c>
       <c r="AH58" s="22" t="n">
-        <v>86226</v>
+        <v>123042</v>
       </c>
       <c r="AI58" s="22" t="n">
-        <v>123042</v>
+        <v>252853</v>
       </c>
       <c r="AJ58" s="22" t="n">
-        <v>252853</v>
+        <v>234264</v>
       </c>
       <c r="AK58" s="22" t="n">
-        <v>234264</v>
+        <v>280477</v>
       </c>
       <c r="AL58" s="22" t="n">
-        <v>280477</v>
+        <v>283405</v>
       </c>
       <c r="AM58" s="22" t="n">
-        <v>283405</v>
+        <v>218479</v>
       </c>
       <c r="AN58" s="22" t="n">
-        <v>218479</v>
+        <v>195329</v>
       </c>
       <c r="AO58" s="22" t="n">
-        <v>195329</v>
+        <v>185400</v>
       </c>
       <c r="AP58" s="22" t="n">
-        <v>185400</v>
+        <v>225211</v>
       </c>
       <c r="AQ58" s="22" t="n">
-        <v>225211</v>
+        <v>195919</v>
       </c>
       <c r="AR58" s="22" t="n">
-        <v>195919</v>
+        <v>156571</v>
       </c>
       <c r="AS58" s="22" t="n">
-        <v>156571</v>
+        <v>160749</v>
       </c>
       <c r="AT58" s="22" t="n">
-        <v>160749</v>
+        <v>147305</v>
       </c>
       <c r="AU58" s="22" t="n">
-        <v>147305</v>
+        <v>245900</v>
       </c>
       <c r="AV58" s="22" t="n">
-        <v>245900</v>
+        <v>216357</v>
       </c>
       <c r="AW58" s="22" t="n">
-        <v>216357</v>
+        <v>272586</v>
       </c>
       <c r="AX58" s="22" t="n">
-        <v>272586</v>
+        <v>256465</v>
       </c>
       <c r="AY58" s="22" t="n">
-        <v>256465</v>
+        <v>220616</v>
       </c>
       <c r="AZ58" s="22" t="n">
-        <v>220616</v>
+        <v>234519</v>
       </c>
       <c r="BA58" s="22" t="n">
-        <v>234519</v>
+        <v>212994</v>
       </c>
       <c r="BB58" s="22" t="n">
-        <v>212994</v>
+        <v>181557</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10476,8 +10476,8 @@
       <c r="T65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>58</v>
+      <c r="U65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="13" t="n">
         <v>0</v>
@@ -10635,8 +10635,8 @@
       <c r="T66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="16" t="s">
-        <v>58</v>
+      <c r="U66" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="16" t="n">
         <v>0</v>
@@ -10857,44 +10857,44 @@
       <c r="AO67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP67" s="13" t="s">
-        <v>58</v>
+      <c r="AP67" s="13" t="n">
+        <v>15951</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>15951</v>
+        <v>27656</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>27656</v>
+        <v>35488</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>35488</v>
+        <v>40761</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>40761</v>
+        <v>16790</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>16790</v>
+        <v>37978</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>37978</v>
+        <v>82648</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>82648</v>
+        <v>57120</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>57120</v>
+        <v>75996</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>75996</v>
+        <v>42711</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>42711</v>
+        <v>61376</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>61376</v>
+        <v>52164</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>52164</v>
+        <v>77688</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11016,44 +11016,44 @@
       <c r="AO68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP68" s="16" t="s">
-        <v>58</v>
+      <c r="AP68" s="16" t="n">
+        <v>316878</v>
       </c>
       <c r="AQ68" s="16" t="n">
-        <v>316878</v>
+        <v>368851</v>
       </c>
       <c r="AR68" s="16" t="n">
-        <v>368851</v>
+        <v>333513</v>
       </c>
       <c r="AS68" s="16" t="n">
-        <v>333513</v>
+        <v>459273</v>
       </c>
       <c r="AT68" s="16" t="n">
-        <v>459273</v>
+        <v>280899</v>
       </c>
       <c r="AU68" s="16" t="n">
-        <v>280899</v>
+        <v>398610</v>
       </c>
       <c r="AV68" s="16" t="n">
-        <v>398610</v>
+        <v>377322</v>
       </c>
       <c r="AW68" s="16" t="n">
-        <v>377322</v>
+        <v>559493</v>
       </c>
       <c r="AX68" s="16" t="n">
-        <v>559493</v>
+        <v>554508</v>
       </c>
       <c r="AY68" s="16" t="n">
-        <v>554508</v>
+        <v>425655</v>
       </c>
       <c r="AZ68" s="16" t="n">
-        <v>425655</v>
+        <v>543198</v>
       </c>
       <c r="BA68" s="16" t="n">
-        <v>543198</v>
+        <v>491494</v>
       </c>
       <c r="BB68" s="16" t="n">
-        <v>491494</v>
+        <v>520263</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11112,35 +11112,35 @@
       <c r="T69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>58</v>
+      <c r="U69" s="13" t="n">
+        <v>320063</v>
       </c>
       <c r="V69" s="13" t="n">
-        <v>320063</v>
+        <v>193059</v>
       </c>
       <c r="W69" s="13" t="n">
-        <v>193059</v>
+        <v>260759</v>
       </c>
       <c r="X69" s="13" t="n">
-        <v>260759</v>
+        <v>323171</v>
       </c>
       <c r="Y69" s="13" t="n">
-        <v>323171</v>
+        <v>425775</v>
       </c>
       <c r="Z69" s="13" t="n">
-        <v>425775</v>
+        <v>325136</v>
       </c>
       <c r="AA69" s="13" t="n">
-        <v>325136</v>
+        <v>349645</v>
       </c>
       <c r="AB69" s="13" t="n">
-        <v>349645</v>
+        <v>284538</v>
       </c>
       <c r="AC69" s="13" t="n">
-        <v>284538</v>
-      </c>
-      <c r="AD69" s="13" t="n">
         <v>366241</v>
+      </c>
+      <c r="AD69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE69" s="13" t="s">
         <v>58</v>
@@ -11298,44 +11298,44 @@
       <c r="AC70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD70" s="16" t="s">
-        <v>58</v>
+      <c r="AD70" s="16" t="n">
+        <v>236434</v>
       </c>
       <c r="AE70" s="16" t="n">
-        <v>236434</v>
+        <v>481290</v>
       </c>
       <c r="AF70" s="16" t="n">
-        <v>481290</v>
+        <v>471921</v>
       </c>
       <c r="AG70" s="16" t="n">
-        <v>471921</v>
+        <v>221291</v>
       </c>
       <c r="AH70" s="16" t="n">
-        <v>221291</v>
+        <v>448266</v>
       </c>
       <c r="AI70" s="16" t="n">
-        <v>448266</v>
+        <v>637426</v>
       </c>
       <c r="AJ70" s="16" t="n">
-        <v>637426</v>
+        <v>549913</v>
       </c>
       <c r="AK70" s="16" t="n">
-        <v>549913</v>
+        <v>619945</v>
       </c>
       <c r="AL70" s="16" t="n">
-        <v>619945</v>
+        <v>626143</v>
       </c>
       <c r="AM70" s="16" t="n">
-        <v>626143</v>
+        <v>551198</v>
       </c>
       <c r="AN70" s="16" t="n">
-        <v>551198</v>
+        <v>557384</v>
       </c>
       <c r="AO70" s="16" t="n">
-        <v>557384</v>
-      </c>
-      <c r="AP70" s="16" t="n">
         <v>554624</v>
+      </c>
+      <c r="AP70" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ70" s="16" t="s">
         <v>58</v>
@@ -11493,44 +11493,44 @@
       <c r="AO71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP71" s="13" t="s">
-        <v>58</v>
+      <c r="AP71" s="13" t="n">
+        <v>200040</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>200040</v>
+        <v>206246</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>206246</v>
+        <v>208862</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>208862</v>
+        <v>328561</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>328561</v>
+        <v>237733</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>237733</v>
+        <v>281520</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>281520</v>
+        <v>212260</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>212260</v>
+        <v>300705</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>300705</v>
+        <v>387549</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>387549</v>
+        <v>301603</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>301603</v>
+        <v>354851</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>354851</v>
+        <v>396319</v>
       </c>
       <c r="BB71" s="13" t="n">
-        <v>396319</v>
+        <v>286273</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11652,44 +11652,44 @@
       <c r="AO72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP72" s="16" t="s">
-        <v>58</v>
+      <c r="AP72" s="16" t="n">
+        <v>36950</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>36950</v>
+        <v>58789</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>58789</v>
+        <v>81680</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>81680</v>
+        <v>77458</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>77458</v>
+        <v>65418</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>65418</v>
+        <v>138346</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>138346</v>
+        <v>175706</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>175706</v>
+        <v>124192</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>124192</v>
+        <v>139930</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>139930</v>
+        <v>101000</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>101000</v>
+        <v>98421</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>98421</v>
+        <v>119659</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>119659</v>
+        <v>64415</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11747,106 +11747,106 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="n">
-        <v>0</v>
+        <v>320063</v>
       </c>
       <c r="V73" s="18" t="n">
-        <v>320063</v>
+        <v>193059</v>
       </c>
       <c r="W73" s="18" t="n">
-        <v>193059</v>
+        <v>260759</v>
       </c>
       <c r="X73" s="18" t="n">
-        <v>260759</v>
+        <v>323171</v>
       </c>
       <c r="Y73" s="18" t="n">
-        <v>323171</v>
+        <v>425775</v>
       </c>
       <c r="Z73" s="18" t="n">
-        <v>425775</v>
+        <v>325136</v>
       </c>
       <c r="AA73" s="18" t="n">
-        <v>325136</v>
+        <v>349645</v>
       </c>
       <c r="AB73" s="18" t="n">
-        <v>349645</v>
+        <v>284538</v>
       </c>
       <c r="AC73" s="18" t="n">
-        <v>284538</v>
+        <v>366241</v>
       </c>
       <c r="AD73" s="18" t="n">
-        <v>366241</v>
+        <v>236434</v>
       </c>
       <c r="AE73" s="18" t="n">
-        <v>236434</v>
+        <v>481290</v>
       </c>
       <c r="AF73" s="18" t="n">
-        <v>481290</v>
+        <v>471921</v>
       </c>
       <c r="AG73" s="18" t="n">
-        <v>471921</v>
+        <v>221291</v>
       </c>
       <c r="AH73" s="18" t="n">
-        <v>221291</v>
+        <v>448266</v>
       </c>
       <c r="AI73" s="18" t="n">
-        <v>448266</v>
+        <v>637426</v>
       </c>
       <c r="AJ73" s="18" t="n">
-        <v>637426</v>
+        <v>549913</v>
       </c>
       <c r="AK73" s="18" t="n">
-        <v>549913</v>
+        <v>619945</v>
       </c>
       <c r="AL73" s="18" t="n">
-        <v>619945</v>
+        <v>626143</v>
       </c>
       <c r="AM73" s="18" t="n">
-        <v>626143</v>
+        <v>551198</v>
       </c>
       <c r="AN73" s="18" t="n">
-        <v>551198</v>
+        <v>557384</v>
       </c>
       <c r="AO73" s="18" t="n">
-        <v>557384</v>
+        <v>554624</v>
       </c>
       <c r="AP73" s="18" t="n">
-        <v>554624</v>
+        <v>569819</v>
       </c>
       <c r="AQ73" s="18" t="n">
-        <v>569819</v>
+        <v>661542</v>
       </c>
       <c r="AR73" s="18" t="n">
-        <v>661542</v>
+        <v>659543</v>
       </c>
       <c r="AS73" s="18" t="n">
-        <v>659543</v>
+        <v>906053</v>
       </c>
       <c r="AT73" s="18" t="n">
-        <v>906053</v>
+        <v>600840</v>
       </c>
       <c r="AU73" s="18" t="n">
-        <v>600840</v>
+        <v>856454</v>
       </c>
       <c r="AV73" s="18" t="n">
-        <v>856454</v>
+        <v>847936</v>
       </c>
       <c r="AW73" s="18" t="n">
-        <v>847936</v>
+        <v>1041510</v>
       </c>
       <c r="AX73" s="18" t="n">
-        <v>1041510</v>
+        <v>1157983</v>
       </c>
       <c r="AY73" s="18" t="n">
-        <v>1157983</v>
+        <v>870969</v>
       </c>
       <c r="AZ73" s="18" t="n">
-        <v>870969</v>
+        <v>1057846</v>
       </c>
       <c r="BA73" s="18" t="n">
-        <v>1057846</v>
+        <v>1059636</v>
       </c>
       <c r="BB73" s="18" t="n">
-        <v>1059636</v>
+        <v>948639</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11962,35 +11962,35 @@
       <c r="T75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="13" t="s">
-        <v>58</v>
+      <c r="U75" s="13" t="n">
+        <v>276110</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>276110</v>
+        <v>744122</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>744122</v>
+        <v>551344</v>
       </c>
       <c r="X75" s="13" t="n">
-        <v>551344</v>
+        <v>250351</v>
       </c>
       <c r="Y75" s="13" t="n">
-        <v>250351</v>
+        <v>398494</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>398494</v>
+        <v>431004</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>431004</v>
+        <v>389440</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>389440</v>
+        <v>458141</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>458141</v>
-      </c>
-      <c r="AD75" s="13" t="n">
         <v>593912</v>
+      </c>
+      <c r="AD75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE75" s="13" t="s">
         <v>58</v>
@@ -12148,44 +12148,44 @@
       <c r="AC76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD76" s="16" t="s">
-        <v>58</v>
+      <c r="AD76" s="16" t="n">
+        <v>410543</v>
       </c>
       <c r="AE76" s="16" t="n">
-        <v>410543</v>
+        <v>486464</v>
       </c>
       <c r="AF76" s="16" t="n">
-        <v>486464</v>
+        <v>294131</v>
       </c>
       <c r="AG76" s="16" t="n">
-        <v>294131</v>
+        <v>195680</v>
       </c>
       <c r="AH76" s="16" t="n">
-        <v>195680</v>
+        <v>202745</v>
       </c>
       <c r="AI76" s="16" t="n">
-        <v>202745</v>
+        <v>813197</v>
       </c>
       <c r="AJ76" s="16" t="n">
-        <v>813197</v>
+        <v>759445</v>
       </c>
       <c r="AK76" s="16" t="n">
-        <v>759445</v>
+        <v>924241</v>
       </c>
       <c r="AL76" s="16" t="n">
-        <v>924241</v>
+        <v>1051376</v>
       </c>
       <c r="AM76" s="16" t="n">
-        <v>1051376</v>
+        <v>726992</v>
       </c>
       <c r="AN76" s="16" t="n">
-        <v>726992</v>
+        <v>510285</v>
       </c>
       <c r="AO76" s="16" t="n">
-        <v>510285</v>
-      </c>
-      <c r="AP76" s="16" t="n">
         <v>493183</v>
+      </c>
+      <c r="AP76" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ76" s="16" t="s">
         <v>58</v>
@@ -12343,14 +12343,14 @@
       <c r="AO77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP77" s="13" t="s">
-        <v>58</v>
+      <c r="AP77" s="13" t="n">
+        <v>354483</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>354483</v>
+        <v>157813</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>157813</v>
+        <v>0</v>
       </c>
       <c r="AS77" s="13" t="n">
         <v>0</v>
@@ -12359,28 +12359,28 @@
         <v>0</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>0</v>
+        <v>214461</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>214461</v>
+        <v>247416</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>247416</v>
+        <v>363974</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>363974</v>
+        <v>417673</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>417673</v>
+        <v>391455</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>391455</v>
+        <v>680994</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>680994</v>
+        <v>673410</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>673410</v>
+        <v>245988</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12502,14 +12502,14 @@
       <c r="AO78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="16" t="s">
-        <v>58</v>
+      <c r="AP78" s="16" t="n">
+        <v>75345</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>75345</v>
+        <v>58798</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>58798</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="16" t="n">
         <v>0</v>
@@ -12518,28 +12518,28 @@
         <v>0</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>0</v>
+        <v>91146</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>91146</v>
+        <v>77890</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>77890</v>
+        <v>289249</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>289249</v>
+        <v>263516</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>263516</v>
+        <v>247131</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>247131</v>
+        <v>307348</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>307348</v>
+        <v>176715</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>176715</v>
+        <v>91314</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12661,8 +12661,8 @@
       <c r="AO79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP79" s="13" t="s">
-        <v>58</v>
+      <c r="AP79" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ79" s="13" t="n">
         <v>0</v>
@@ -12820,44 +12820,44 @@
       <c r="AO80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP80" s="16" t="s">
-        <v>58</v>
+      <c r="AP80" s="16" t="n">
+        <v>393945</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>393945</v>
+        <v>333814</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>333814</v>
+        <v>279551</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>279551</v>
+        <v>300194</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>300194</v>
+        <v>523288</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>523288</v>
+        <v>747034</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>747034</v>
+        <v>490493</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>490493</v>
+        <v>566384</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>566384</v>
+        <v>301060</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>301060</v>
+        <v>351386</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>351386</v>
+        <v>202888</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>202888</v>
+        <v>108774</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>108774</v>
+        <v>438216</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12915,106 +12915,106 @@
         <v>0</v>
       </c>
       <c r="U81" s="18" t="n">
-        <v>0</v>
+        <v>276110</v>
       </c>
       <c r="V81" s="18" t="n">
-        <v>276110</v>
+        <v>744122</v>
       </c>
       <c r="W81" s="18" t="n">
-        <v>744122</v>
+        <v>551344</v>
       </c>
       <c r="X81" s="18" t="n">
-        <v>551344</v>
+        <v>250351</v>
       </c>
       <c r="Y81" s="18" t="n">
-        <v>250351</v>
+        <v>398494</v>
       </c>
       <c r="Z81" s="18" t="n">
-        <v>398494</v>
+        <v>431004</v>
       </c>
       <c r="AA81" s="18" t="n">
-        <v>431004</v>
+        <v>389440</v>
       </c>
       <c r="AB81" s="18" t="n">
-        <v>389440</v>
+        <v>458141</v>
       </c>
       <c r="AC81" s="18" t="n">
-        <v>458141</v>
+        <v>593912</v>
       </c>
       <c r="AD81" s="18" t="n">
-        <v>593912</v>
+        <v>410543</v>
       </c>
       <c r="AE81" s="18" t="n">
-        <v>410543</v>
+        <v>486464</v>
       </c>
       <c r="AF81" s="18" t="n">
-        <v>486464</v>
+        <v>294131</v>
       </c>
       <c r="AG81" s="18" t="n">
-        <v>294131</v>
+        <v>195680</v>
       </c>
       <c r="AH81" s="18" t="n">
-        <v>195680</v>
+        <v>202745</v>
       </c>
       <c r="AI81" s="18" t="n">
-        <v>202745</v>
+        <v>813197</v>
       </c>
       <c r="AJ81" s="18" t="n">
-        <v>813197</v>
+        <v>759445</v>
       </c>
       <c r="AK81" s="18" t="n">
-        <v>759445</v>
+        <v>924241</v>
       </c>
       <c r="AL81" s="18" t="n">
-        <v>924241</v>
+        <v>1051376</v>
       </c>
       <c r="AM81" s="18" t="n">
-        <v>1051376</v>
+        <v>726992</v>
       </c>
       <c r="AN81" s="18" t="n">
-        <v>726992</v>
+        <v>510285</v>
       </c>
       <c r="AO81" s="18" t="n">
-        <v>510285</v>
+        <v>493183</v>
       </c>
       <c r="AP81" s="18" t="n">
-        <v>493183</v>
+        <v>823773</v>
       </c>
       <c r="AQ81" s="18" t="n">
-        <v>823773</v>
+        <v>550425</v>
       </c>
       <c r="AR81" s="18" t="n">
-        <v>550425</v>
+        <v>279551</v>
       </c>
       <c r="AS81" s="18" t="n">
-        <v>279551</v>
+        <v>300194</v>
       </c>
       <c r="AT81" s="18" t="n">
-        <v>300194</v>
+        <v>523288</v>
       </c>
       <c r="AU81" s="18" t="n">
-        <v>523288</v>
+        <v>1052641</v>
       </c>
       <c r="AV81" s="18" t="n">
-        <v>1052641</v>
+        <v>815799</v>
       </c>
       <c r="AW81" s="18" t="n">
-        <v>815799</v>
+        <v>1219607</v>
       </c>
       <c r="AX81" s="18" t="n">
-        <v>1219607</v>
+        <v>982249</v>
       </c>
       <c r="AY81" s="18" t="n">
-        <v>982249</v>
+        <v>989972</v>
       </c>
       <c r="AZ81" s="18" t="n">
-        <v>989972</v>
+        <v>1191230</v>
       </c>
       <c r="BA81" s="18" t="n">
-        <v>1191230</v>
+        <v>958899</v>
       </c>
       <c r="BB81" s="18" t="n">
-        <v>958899</v>
+        <v>775518</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13130,8 +13130,8 @@
       <c r="T83" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="18" t="s">
-        <v>58</v>
+      <c r="U83" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V83" s="23" t="n">
         <v>0</v>
@@ -13346,8 +13346,8 @@
       <c r="T85" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="18" t="s">
-        <v>58</v>
+      <c r="U85" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V85" s="23" t="n">
         <v>0</v>
@@ -13562,8 +13562,8 @@
       <c r="T87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="13" t="s">
-        <v>58</v>
+      <c r="U87" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="13" t="n">
         <v>0</v>
@@ -13720,106 +13720,106 @@
         <v>0</v>
       </c>
       <c r="U88" s="22" t="n">
-        <v>0</v>
+        <v>596173</v>
       </c>
       <c r="V88" s="22" t="n">
-        <v>596173</v>
+        <v>937181</v>
       </c>
       <c r="W88" s="22" t="n">
-        <v>937181</v>
+        <v>812103</v>
       </c>
       <c r="X88" s="22" t="n">
-        <v>812103</v>
+        <v>573522</v>
       </c>
       <c r="Y88" s="22" t="n">
-        <v>573522</v>
+        <v>824269</v>
       </c>
       <c r="Z88" s="22" t="n">
-        <v>824269</v>
+        <v>756140</v>
       </c>
       <c r="AA88" s="22" t="n">
-        <v>756140</v>
+        <v>739085</v>
       </c>
       <c r="AB88" s="22" t="n">
-        <v>739085</v>
+        <v>742679</v>
       </c>
       <c r="AC88" s="22" t="n">
-        <v>742679</v>
+        <v>960153</v>
       </c>
       <c r="AD88" s="22" t="n">
-        <v>960153</v>
+        <v>646977</v>
       </c>
       <c r="AE88" s="22" t="n">
-        <v>646977</v>
+        <v>967754</v>
       </c>
       <c r="AF88" s="22" t="n">
-        <v>967754</v>
+        <v>766052</v>
       </c>
       <c r="AG88" s="22" t="n">
-        <v>766052</v>
+        <v>416971</v>
       </c>
       <c r="AH88" s="22" t="n">
-        <v>416971</v>
+        <v>651011</v>
       </c>
       <c r="AI88" s="22" t="n">
-        <v>651011</v>
+        <v>1450623</v>
       </c>
       <c r="AJ88" s="22" t="n">
-        <v>1450623</v>
+        <v>1309358</v>
       </c>
       <c r="AK88" s="22" t="n">
-        <v>1309358</v>
+        <v>1544186</v>
       </c>
       <c r="AL88" s="22" t="n">
-        <v>1544186</v>
+        <v>1677519</v>
       </c>
       <c r="AM88" s="22" t="n">
-        <v>1677519</v>
+        <v>1278190</v>
       </c>
       <c r="AN88" s="22" t="n">
-        <v>1278190</v>
+        <v>1067669</v>
       </c>
       <c r="AO88" s="22" t="n">
-        <v>1067669</v>
+        <v>1047807</v>
       </c>
       <c r="AP88" s="22" t="n">
-        <v>1047807</v>
+        <v>1393592</v>
       </c>
       <c r="AQ88" s="22" t="n">
-        <v>1393592</v>
+        <v>1211967</v>
       </c>
       <c r="AR88" s="22" t="n">
-        <v>1211967</v>
+        <v>939094</v>
       </c>
       <c r="AS88" s="22" t="n">
-        <v>939094</v>
+        <v>1206247</v>
       </c>
       <c r="AT88" s="22" t="n">
-        <v>1206247</v>
+        <v>1124128</v>
       </c>
       <c r="AU88" s="22" t="n">
-        <v>1124128</v>
+        <v>1909095</v>
       </c>
       <c r="AV88" s="22" t="n">
-        <v>1909095</v>
+        <v>1663735</v>
       </c>
       <c r="AW88" s="22" t="n">
-        <v>1663735</v>
+        <v>2261117</v>
       </c>
       <c r="AX88" s="22" t="n">
-        <v>2261117</v>
+        <v>2140232</v>
       </c>
       <c r="AY88" s="22" t="n">
-        <v>2140232</v>
+        <v>1860941</v>
       </c>
       <c r="AZ88" s="22" t="n">
-        <v>1860941</v>
+        <v>2249076</v>
       </c>
       <c r="BA88" s="22" t="n">
-        <v>2249076</v>
+        <v>2018535</v>
       </c>
       <c r="BB88" s="22" t="n">
-        <v>2018535</v>
+        <v>1724157</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14375,44 +14375,44 @@
       <c r="AO95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP95" s="13" t="s">
-        <v>58</v>
+      <c r="AP95" s="13" t="n">
+        <v>5731585</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>5731585</v>
+        <v>5623424</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>5623424</v>
+        <v>6110193</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>6110193</v>
+        <v>7152307</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>7152307</v>
+        <v>7159915</v>
       </c>
       <c r="AU95" s="13" t="n">
-        <v>7159915</v>
+        <v>6512003</v>
       </c>
       <c r="AV95" s="13" t="n">
-        <v>6512003</v>
+        <v>5913143</v>
       </c>
       <c r="AW95" s="13" t="n">
-        <v>5913143</v>
+        <v>6709738</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>6709738</v>
+        <v>7165378</v>
       </c>
       <c r="AY95" s="13" t="n">
-        <v>7165378</v>
+        <v>7498420</v>
       </c>
       <c r="AZ95" s="13" t="n">
-        <v>7498420</v>
+        <v>7198686</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>7198686</v>
+        <v>7363636</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>7363636</v>
+        <v>8303549</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14534,44 +14534,44 @@
       <c r="AO96" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP96" s="16" t="s">
-        <v>58</v>
+      <c r="AP96" s="16" t="n">
+        <v>6313694</v>
       </c>
       <c r="AQ96" s="16" t="n">
-        <v>6313694</v>
+        <v>6336231</v>
       </c>
       <c r="AR96" s="16" t="n">
-        <v>6336231</v>
+        <v>6599905</v>
       </c>
       <c r="AS96" s="16" t="n">
-        <v>6599905</v>
+        <v>7360852</v>
       </c>
       <c r="AT96" s="16" t="n">
-        <v>7360852</v>
+        <v>7051209</v>
       </c>
       <c r="AU96" s="16" t="n">
-        <v>7051209</v>
+        <v>6966514</v>
       </c>
       <c r="AV96" s="16" t="n">
-        <v>6966514</v>
+        <v>7091452</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>7091452</v>
+        <v>7397765</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>7397765</v>
+        <v>7698292</v>
       </c>
       <c r="AY96" s="16" t="n">
-        <v>7698292</v>
+        <v>8015347</v>
       </c>
       <c r="AZ96" s="16" t="n">
-        <v>8015347</v>
+        <v>7560588</v>
       </c>
       <c r="BA96" s="16" t="n">
-        <v>7560588</v>
+        <v>7722550</v>
       </c>
       <c r="BB96" s="16" t="n">
-        <v>7722550</v>
+        <v>8337147</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14630,35 +14630,35 @@
       <c r="T97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U97" s="13" t="s">
-        <v>58</v>
+      <c r="U97" s="13" t="n">
+        <v>2323489</v>
       </c>
       <c r="V97" s="13" t="n">
-        <v>2323489</v>
+        <v>2302076</v>
       </c>
       <c r="W97" s="13" t="n">
-        <v>2302076</v>
+        <v>2380665</v>
       </c>
       <c r="X97" s="13" t="n">
-        <v>2380665</v>
+        <v>2595751</v>
       </c>
       <c r="Y97" s="13" t="n">
-        <v>2595751</v>
+        <v>2742335</v>
       </c>
       <c r="Z97" s="13" t="n">
-        <v>2742335</v>
+        <v>2728383</v>
       </c>
       <c r="AA97" s="13" t="n">
-        <v>2728383</v>
+        <v>2704891</v>
       </c>
       <c r="AB97" s="13" t="n">
-        <v>2704891</v>
+        <v>2647087</v>
       </c>
       <c r="AC97" s="13" t="n">
-        <v>2647087</v>
-      </c>
-      <c r="AD97" s="13" t="n">
         <v>2625572</v>
+      </c>
+      <c r="AD97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE97" s="13" t="s">
         <v>58</v>
@@ -14816,44 +14816,44 @@
       <c r="AC98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD98" s="16" t="s">
-        <v>58</v>
+      <c r="AD98" s="16" t="n">
+        <v>2658802</v>
       </c>
       <c r="AE98" s="16" t="n">
-        <v>2658802</v>
+        <v>3695976</v>
       </c>
       <c r="AF98" s="16" t="n">
-        <v>3695976</v>
+        <v>3837942</v>
       </c>
       <c r="AG98" s="16" t="n">
-        <v>3837942</v>
+        <v>3981844</v>
       </c>
       <c r="AH98" s="16" t="n">
-        <v>3981844</v>
+        <v>4667396</v>
       </c>
       <c r="AI98" s="16" t="n">
-        <v>4667396</v>
+        <v>4640483</v>
       </c>
       <c r="AJ98" s="16" t="n">
-        <v>4640483</v>
+        <v>4261999</v>
       </c>
       <c r="AK98" s="16" t="n">
-        <v>4261999</v>
+        <v>4232400</v>
       </c>
       <c r="AL98" s="16" t="n">
-        <v>4232400</v>
+        <v>4680743</v>
       </c>
       <c r="AM98" s="16" t="n">
-        <v>4680743</v>
+        <v>4793318</v>
       </c>
       <c r="AN98" s="16" t="n">
-        <v>4793318</v>
+        <v>4609336</v>
       </c>
       <c r="AO98" s="16" t="n">
-        <v>4609336</v>
-      </c>
-      <c r="AP98" s="16" t="n">
         <v>4949393</v>
+      </c>
+      <c r="AP98" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ98" s="16" t="s">
         <v>58</v>
@@ -15011,44 +15011,44 @@
       <c r="AO99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP99" s="13" t="s">
-        <v>58</v>
+      <c r="AP99" s="13" t="n">
+        <v>4594079</v>
       </c>
       <c r="AQ99" s="13" t="n">
-        <v>4594079</v>
+        <v>4649578</v>
       </c>
       <c r="AR99" s="13" t="n">
-        <v>4649578</v>
+        <v>4871531</v>
       </c>
       <c r="AS99" s="13" t="n">
-        <v>4871531</v>
+        <v>7473240</v>
       </c>
       <c r="AT99" s="13" t="n">
-        <v>7473240</v>
+        <v>7033105</v>
       </c>
       <c r="AU99" s="13" t="n">
-        <v>7033105</v>
+        <v>6983355</v>
       </c>
       <c r="AV99" s="13" t="n">
-        <v>6983355</v>
+        <v>7072740</v>
       </c>
       <c r="AW99" s="13" t="n">
-        <v>7072740</v>
+        <v>7240844</v>
       </c>
       <c r="AX99" s="13" t="n">
-        <v>7240844</v>
+        <v>7170725</v>
       </c>
       <c r="AY99" s="13" t="n">
-        <v>7170725</v>
+        <v>6947937</v>
       </c>
       <c r="AZ99" s="13" t="n">
-        <v>6947937</v>
+        <v>6847365</v>
       </c>
       <c r="BA99" s="13" t="n">
-        <v>6847365</v>
+        <v>7270708</v>
       </c>
       <c r="BB99" s="13" t="n">
-        <v>7270708</v>
+        <v>7885005</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15170,44 +15170,44 @@
       <c r="AO100" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP100" s="16" t="s">
-        <v>58</v>
+      <c r="AP100" s="16" t="n">
+        <v>4715416</v>
       </c>
       <c r="AQ100" s="16" t="n">
-        <v>4715416</v>
+        <v>4506285</v>
       </c>
       <c r="AR100" s="16" t="n">
-        <v>4506285</v>
+        <v>4958116</v>
       </c>
       <c r="AS100" s="16" t="n">
-        <v>4958116</v>
+        <v>6223526</v>
       </c>
       <c r="AT100" s="16" t="n">
-        <v>6223526</v>
+        <v>6367955</v>
       </c>
       <c r="AU100" s="16" t="n">
-        <v>6367955</v>
+        <v>6355768</v>
       </c>
       <c r="AV100" s="16" t="n">
-        <v>6355768</v>
+        <v>6057783</v>
       </c>
       <c r="AW100" s="16" t="n">
-        <v>6057783</v>
+        <v>7155154</v>
       </c>
       <c r="AX100" s="16" t="n">
-        <v>7155154</v>
+        <v>7136009</v>
       </c>
       <c r="AY100" s="16" t="n">
-        <v>7136009</v>
+        <v>7057508</v>
       </c>
       <c r="AZ100" s="16" t="n">
-        <v>7057508</v>
+        <v>6995593</v>
       </c>
       <c r="BA100" s="16" t="n">
-        <v>6995593</v>
+        <v>7512965</v>
       </c>
       <c r="BB100" s="16" t="n">
-        <v>7512965</v>
+        <v>7872769</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15323,35 +15323,35 @@
       <c r="T102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U102" s="13" t="s">
-        <v>58</v>
+      <c r="U102" s="13" t="n">
+        <v>3273191</v>
       </c>
       <c r="V102" s="13" t="n">
-        <v>3273191</v>
+        <v>4471941</v>
       </c>
       <c r="W102" s="13" t="n">
-        <v>4471941</v>
+        <v>4378909</v>
       </c>
       <c r="X102" s="13" t="n">
-        <v>4378909</v>
+        <v>4140908</v>
       </c>
       <c r="Y102" s="13" t="n">
-        <v>4140908</v>
+        <v>5217119</v>
       </c>
       <c r="Z102" s="13" t="n">
-        <v>5217119</v>
+        <v>4908035</v>
       </c>
       <c r="AA102" s="13" t="n">
-        <v>4908035</v>
+        <v>5723524</v>
       </c>
       <c r="AB102" s="13" t="n">
-        <v>5723524</v>
+        <v>5166751</v>
       </c>
       <c r="AC102" s="13" t="n">
-        <v>5166751</v>
-      </c>
-      <c r="AD102" s="13" t="n">
         <v>4440165</v>
+      </c>
+      <c r="AD102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE102" s="13" t="s">
         <v>58</v>
@@ -15509,44 +15509,44 @@
       <c r="AC103" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD103" s="16" t="s">
-        <v>58</v>
+      <c r="AD103" s="16" t="n">
+        <v>5177609</v>
       </c>
       <c r="AE103" s="16" t="n">
-        <v>5177609</v>
+        <v>4789446</v>
       </c>
       <c r="AF103" s="16" t="n">
-        <v>4789446</v>
+        <v>5059970</v>
       </c>
       <c r="AG103" s="16" t="n">
-        <v>5059970</v>
+        <v>6384131</v>
       </c>
       <c r="AH103" s="16" t="n">
-        <v>6384131</v>
+        <v>7509074</v>
       </c>
       <c r="AI103" s="16" t="n">
-        <v>7509074</v>
+        <v>7041215</v>
       </c>
       <c r="AJ103" s="16" t="n">
-        <v>7041215</v>
+        <v>7216521</v>
       </c>
       <c r="AK103" s="16" t="n">
-        <v>7216521</v>
+        <v>6897269</v>
       </c>
       <c r="AL103" s="16" t="n">
-        <v>6897269</v>
+        <v>7026271</v>
       </c>
       <c r="AM103" s="16" t="n">
-        <v>7026271</v>
+        <v>7025028</v>
       </c>
       <c r="AN103" s="16" t="n">
-        <v>7025028</v>
+        <v>6858301</v>
       </c>
       <c r="AO103" s="16" t="n">
-        <v>6858301</v>
-      </c>
-      <c r="AP103" s="16" t="n">
         <v>6724520</v>
+      </c>
+      <c r="AP103" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ103" s="16" t="s">
         <v>58</v>
@@ -15704,44 +15704,44 @@
       <c r="AO104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP104" s="13" t="s">
-        <v>58</v>
+      <c r="AP104" s="13" t="n">
+        <v>7019465</v>
       </c>
       <c r="AQ104" s="13" t="n">
-        <v>7019465</v>
-      </c>
-      <c r="AR104" s="13" t="n">
         <v>7890650</v>
       </c>
+      <c r="AR104" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS104" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AT104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU104" s="13" t="s">
-        <v>58</v>
+      <c r="AU104" s="13" t="n">
+        <v>8578440</v>
       </c>
       <c r="AV104" s="13" t="n">
-        <v>8578440</v>
+        <v>9163556</v>
       </c>
       <c r="AW104" s="13" t="n">
-        <v>9163556</v>
+        <v>9453870</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>9453870</v>
+        <v>9944595</v>
       </c>
       <c r="AY104" s="13" t="n">
-        <v>9944595</v>
+        <v>9320357</v>
       </c>
       <c r="AZ104" s="13" t="n">
-        <v>9320357</v>
+        <v>14489234</v>
       </c>
       <c r="BA104" s="13" t="n">
-        <v>14489234</v>
+        <v>13884742</v>
       </c>
       <c r="BB104" s="13" t="n">
-        <v>13884742</v>
+        <v>12299400</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15863,44 +15863,44 @@
       <c r="AO105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP105" s="16" t="s">
-        <v>58</v>
+      <c r="AP105" s="16" t="n">
+        <v>7534500</v>
       </c>
       <c r="AQ105" s="16" t="n">
-        <v>7534500</v>
-      </c>
-      <c r="AR105" s="16" t="n">
         <v>8399714</v>
       </c>
+      <c r="AR105" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AS105" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AT105" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU105" s="16" t="s">
-        <v>58</v>
+      <c r="AU105" s="16" t="n">
+        <v>9114600</v>
       </c>
       <c r="AV105" s="16" t="n">
-        <v>9114600</v>
+        <v>9736250</v>
       </c>
       <c r="AW105" s="16" t="n">
-        <v>9736250</v>
+        <v>10149088</v>
       </c>
       <c r="AX105" s="16" t="n">
-        <v>10149088</v>
+        <v>10540640</v>
       </c>
       <c r="AY105" s="16" t="n">
-        <v>10540640</v>
+        <v>9885240</v>
       </c>
       <c r="AZ105" s="16" t="n">
-        <v>9885240</v>
+        <v>15367400</v>
       </c>
       <c r="BA105" s="16" t="n">
-        <v>15367400</v>
+        <v>14726250</v>
       </c>
       <c r="BB105" s="16" t="n">
-        <v>14726250</v>
+        <v>13044857</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16022,44 +16022,44 @@
       <c r="AO106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP106" s="13" t="s">
-        <v>58</v>
+      <c r="AP106" s="13" t="n">
+        <v>6526590</v>
       </c>
       <c r="AQ106" s="13" t="n">
-        <v>6526590</v>
+        <v>6899264</v>
       </c>
       <c r="AR106" s="13" t="n">
-        <v>6899264</v>
+        <v>6837997</v>
       </c>
       <c r="AS106" s="13" t="n">
-        <v>6837997</v>
+        <v>8282356</v>
       </c>
       <c r="AT106" s="13" t="n">
-        <v>8282356</v>
+        <v>8571747</v>
       </c>
       <c r="AU106" s="13" t="n">
-        <v>8571747</v>
+        <v>8709735</v>
       </c>
       <c r="AV106" s="13" t="n">
-        <v>8709735</v>
+        <v>8892831</v>
       </c>
       <c r="AW106" s="13" t="n">
-        <v>8892831</v>
+        <v>9053887</v>
       </c>
       <c r="AX106" s="13" t="n">
-        <v>9053887</v>
+        <v>9075179</v>
       </c>
       <c r="AY106" s="13" t="n">
-        <v>9075179</v>
+        <v>9472597</v>
       </c>
       <c r="AZ106" s="13" t="n">
-        <v>9472597</v>
+        <v>9545425</v>
       </c>
       <c r="BA106" s="13" t="n">
-        <v>9545425</v>
+        <v>9600530</v>
       </c>
       <c r="BB106" s="13" t="n">
-        <v>9600530</v>
+        <v>11438684</v>
       </c>
     </row>
   </sheetData>
